--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/90/Output_6_26.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/90/Output_6_26.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>971688.3843980455</v>
+        <v>1002060.534902899</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>13251674.51004885</v>
+        <v>11857191.11602537</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2065046.857558489</v>
+        <v>698313.68307607</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>7576298.670406496</v>
+        <v>8076688.517641477</v>
       </c>
     </row>
     <row r="11">
@@ -656,28 +658,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>415.6498806486147</v>
+        <v>15.64988064861473</v>
       </c>
       <c r="C2" t="n">
-        <v>422.6317226868329</v>
+        <v>22.63172268683286</v>
       </c>
       <c r="D2" t="n">
-        <v>19.05969460684969</v>
+        <v>146.6897818950742</v>
       </c>
       <c r="E2" t="n">
-        <v>21.71717045362101</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F2" t="n">
         <v>420.8729399924937</v>
       </c>
       <c r="G2" t="n">
-        <v>0.2956717864458369</v>
+        <v>400.2956717864458</v>
       </c>
       <c r="H2" t="n">
         <v>294.8896947407055</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>34.5479025439635</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -710,16 +712,16 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>218.7163152458132</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>255.7713603095518</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>80.11775047948022</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X2" t="n">
         <v>7.602798843930202</v>
@@ -814,7 +816,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>111.3190970511848</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C4" t="n">
         <v>170.2528374898731</v>
@@ -826,16 +828,16 @@
         <v>164.546123788675</v>
       </c>
       <c r="F4" t="n">
-        <v>170.1431564831852</v>
+        <v>165.893285266391</v>
       </c>
       <c r="G4" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -865,13 +867,13 @@
         <v>46.56822717969858</v>
       </c>
       <c r="S4" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
         <v>240.905954296359</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V4" t="n">
         <v>278.8943527180514</v>
@@ -883,7 +885,7 @@
         <v>240.1382575886529</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="5">
@@ -896,10 +898,10 @@
         <v>15.64988064861473</v>
       </c>
       <c r="C5" t="n">
-        <v>22.63172268683286</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D5" t="n">
-        <v>19.05969460684969</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E5" t="n">
         <v>421.717170453621</v>
@@ -911,10 +913,10 @@
         <v>400.2956717864458</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>294.8896947407055</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>34.5479025439635</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -944,13 +946,13 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>103.323621185591</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>218.7163152458132</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>255.7713603095518</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -959,10 +961,10 @@
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>407.6027988439302</v>
+        <v>7.602798843930202</v>
       </c>
       <c r="Y5" t="n">
-        <v>272.9677213792535</v>
+        <v>121.3414208355403</v>
       </c>
     </row>
     <row r="6">
@@ -1051,7 +1053,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C7" t="n">
         <v>170.2528374898731</v>
@@ -1102,19 +1104,19 @@
         <v>46.56822717969858</v>
       </c>
       <c r="S7" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>166.13410914208</v>
+        <v>109.8268474048518</v>
       </c>
       <c r="X7" t="n">
         <v>240.1382575886529</v>
@@ -1130,16 +1132,16 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>415.6498806486147</v>
+        <v>15.64988064861473</v>
       </c>
       <c r="C8" t="n">
-        <v>22.63172268683286</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D8" t="n">
-        <v>19.05969460684969</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E8" t="n">
-        <v>21.71717045362101</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F8" t="n">
         <v>420.8729399924937</v>
@@ -1148,7 +1150,7 @@
         <v>400.2956717864458</v>
       </c>
       <c r="H8" t="n">
-        <v>294.8896947407055</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -1181,10 +1183,10 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>49.49512077555119</v>
       </c>
       <c r="T8" t="n">
-        <v>154.6054260348451</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
@@ -1196,7 +1198,7 @@
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>407.6027988439302</v>
+        <v>7.602798843930202</v>
       </c>
       <c r="Y8" t="n">
         <v>1.283897344658556</v>
@@ -1300,7 +1302,7 @@
         <v>164.546123788675</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G10" t="n">
         <v>164.5944000087102</v>
@@ -1351,7 +1353,7 @@
         <v>278.8943527180514</v>
       </c>
       <c r="W10" t="n">
-        <v>244.2179071083233</v>
+        <v>74.07475062513807</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
@@ -1370,22 +1372,22 @@
         <v>415.6498806486147</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D11" t="n">
         <v>419.0596946068497</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F11" t="n">
         <v>420.8729399924937</v>
       </c>
       <c r="G11" t="n">
-        <v>83.04521736302746</v>
+        <v>400.2956717864458</v>
       </c>
       <c r="H11" t="n">
-        <v>294.8896947407055</v>
+        <v>186.9176635037772</v>
       </c>
       <c r="I11" t="n">
         <v>34.5479025439635</v>
@@ -1424,7 +1426,7 @@
         <v>218.7163152458132</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>255.7713603095518</v>
       </c>
       <c r="V11" t="n">
         <v>353.914520725013</v>
@@ -1433,7 +1435,7 @@
         <v>392.4274362026566</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y11" t="n">
         <v>401.2838973446586</v>
@@ -1525,28 +1527,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>51.5854374042943</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>4.378995526348206</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1607,22 +1609,22 @@
         <v>415.6498806486147</v>
       </c>
       <c r="C14" t="n">
-        <v>142.7408200002293</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D14" t="n">
         <v>419.0596946068497</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>312.9009087555655</v>
       </c>
       <c r="G14" t="n">
         <v>400.2956717864458</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>294.8896947407055</v>
       </c>
       <c r="I14" t="n">
         <v>34.5479025439635</v>
@@ -1670,7 +1672,7 @@
         <v>392.4274362026566</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y14" t="n">
         <v>401.2838973446586</v>
@@ -1768,16 +1770,16 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D16" t="n">
-        <v>161.683605144497</v>
+        <v>51.5854374042943</v>
       </c>
       <c r="E16" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>65.99837738344375</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -1810,7 +1812,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S16" t="n">
         <v>168.4336970060565</v>
@@ -1828,10 +1830,10 @@
         <v>272.1038797892121</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="17">
@@ -1862,7 +1864,7 @@
         <v>294.8896947407055</v>
       </c>
       <c r="I17" t="n">
-        <v>34.5479025439635</v>
+        <v>34.54790254396345</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1898,7 +1900,7 @@
         <v>218.7163152458132</v>
       </c>
       <c r="U17" t="n">
-        <v>255.771360309553</v>
+        <v>255.7713603095518</v>
       </c>
       <c r="V17" t="n">
         <v>353.914520725013</v>
@@ -2002,7 +2004,7 @@
         <v>188.264309024945</v>
       </c>
       <c r="C19" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
         <v>161.683605144497</v>
@@ -2047,28 +2049,28 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V19" t="n">
-        <v>161.6737988100371</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W19" t="n">
-        <v>272.1038797892121</v>
+        <v>56.06327909006642</v>
       </c>
       <c r="X19" t="n">
-        <v>240.1382575886529</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>224.0793406271554</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -2078,7 +2080,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>415.6498806486147</v>
+        <v>415.649880648615</v>
       </c>
       <c r="C20" t="n">
         <v>422.6317226868329</v>
@@ -2242,7 +2244,7 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D22" t="n">
-        <v>161.683605144497</v>
+        <v>51.58543740429418</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
@@ -2251,7 +2253,7 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>104.9037564455526</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -2284,10 +2286,10 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T22" t="n">
         <v>240.905954296359</v>
@@ -2521,22 +2523,22 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>218.7757544134941</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>154.8833258811978</v>
       </c>
       <c r="X25" t="n">
         <v>240.1382575886529</v>
@@ -2710,28 +2712,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>69.70658994605463</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>170.2528374898731</v>
+        <v>18.79193550549784</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F28" t="n">
         <v>170.1431564831852</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,7 +2760,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>168.4336970060565</v>
@@ -2776,10 +2778,10 @@
         <v>272.1038797892121</v>
       </c>
       <c r="X28" t="n">
-        <v>240.1382575886529</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>224.0793406271554</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -2947,7 +2949,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
         <v>170.2528374898731</v>
@@ -2965,10 +2967,10 @@
         <v>164.5944000087102</v>
       </c>
       <c r="H31" t="n">
-        <v>142.3583058069271</v>
+        <v>43.10005921998094</v>
       </c>
       <c r="I31" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,28 +2997,28 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U31" t="n">
         <v>277.3826040146988</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W31" t="n">
         <v>272.1038797892121</v>
       </c>
       <c r="X31" t="n">
-        <v>240.1382575886529</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>108.3705354224937</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -3187,22 +3189,22 @@
         <v>188.264309024945</v>
       </c>
       <c r="C34" t="n">
-        <v>98.26334559068066</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F34" t="n">
         <v>170.1431564831852</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>125.4203831793925</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -3235,16 +3237,16 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
         <v>277.3826040146988</v>
       </c>
       <c r="V34" t="n">
-        <v>278.8943527180514</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
         <v>272.1038797892121</v>
@@ -3427,7 +3429,7 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D37" t="n">
-        <v>101.8436776486291</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E37" t="n">
         <v>164.546123788675</v>
@@ -3436,7 +3438,7 @@
         <v>170.1431564831852</v>
       </c>
       <c r="G37" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -3472,16 +3474,16 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>240.905954296359</v>
+        <v>11.12043047005107</v>
       </c>
       <c r="U37" t="n">
         <v>277.3826040146988</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W37" t="n">
         <v>272.1038797892121</v>
@@ -3490,7 +3492,7 @@
         <v>240.1382575886529</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="38">
@@ -3563,7 +3565,7 @@
         <v>353.914520725013</v>
       </c>
       <c r="W38" t="n">
-        <v>392.4274362026577</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X38" t="n">
         <v>407.6027988439302</v>
@@ -3658,13 +3660,13 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>146.7373013332761</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>51.58543740429501</v>
       </c>
       <c r="E40" t="n">
         <v>0</v>
@@ -3673,13 +3675,13 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3737,13 +3739,13 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C41" t="n">
         <v>422.6317226868329</v>
       </c>
       <c r="D41" t="n">
-        <v>0</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E41" t="n">
         <v>421.717170453621</v>
@@ -3755,7 +3757,7 @@
         <v>400.2956717864458</v>
       </c>
       <c r="H41" t="n">
-        <v>139.2039008693664</v>
+        <v>294.8896947407055</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3791,7 +3793,7 @@
         <v>103.323621185591</v>
       </c>
       <c r="T41" t="n">
-        <v>218.7163152458132</v>
+        <v>145.2921865528488</v>
       </c>
       <c r="U41" t="n">
         <v>255.7713603095518</v>
@@ -3800,10 +3802,10 @@
         <v>353.914520725013</v>
       </c>
       <c r="W41" t="n">
-        <v>0</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X41" t="n">
-        <v>0</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y41" t="n">
         <v>401.2838973446586</v>
@@ -3895,28 +3897,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>188.264309024945</v>
+        <v>124.7343684644415</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,16 +3945,16 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
         <v>168.4336970060565</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U43" t="n">
-        <v>164.260088329276</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V43" t="n">
         <v>278.8943527180514</v>
@@ -3980,7 +3982,7 @@
         <v>422.6317226868329</v>
       </c>
       <c r="D44" t="n">
-        <v>0</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E44" t="n">
         <v>421.717170453621</v>
@@ -3989,10 +3991,10 @@
         <v>420.8729399924937</v>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>400.2956717864458</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>294.8896947407055</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -4025,19 +4027,19 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>103.323621185591</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>218.7163152458132</v>
       </c>
       <c r="U44" t="n">
-        <v>255.5452744265796</v>
+        <v>255.7713603095518</v>
       </c>
       <c r="V44" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W44" t="n">
-        <v>392.4274362026566</v>
+        <v>319.003307509692</v>
       </c>
       <c r="X44" t="n">
         <v>407.6027988439302</v>
@@ -4141,19 +4143,19 @@
         <v>161.683605144497</v>
       </c>
       <c r="E46" t="n">
-        <v>164.546123788675</v>
+        <v>104.9037564455522</v>
       </c>
       <c r="F46" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,22 +4182,22 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W46" t="n">
-        <v>218.7757544134943</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X46" t="n">
         <v>240.1382575886529</v>
@@ -4304,76 +4306,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1235.878926328994</v>
+        <v>1803.735481715043</v>
       </c>
       <c r="C2" t="n">
-        <v>808.9781963422939</v>
+        <v>1780.875155768747</v>
       </c>
       <c r="D2" t="n">
-        <v>789.7259795676982</v>
+        <v>1632.703658905035</v>
       </c>
       <c r="E2" t="n">
-        <v>767.7894437559598</v>
+        <v>1206.726719052893</v>
       </c>
       <c r="F2" t="n">
-        <v>342.66526194536</v>
+        <v>781.6025372422929</v>
       </c>
       <c r="G2" t="n">
-        <v>342.3666035752127</v>
+        <v>377.2634748317415</v>
       </c>
       <c r="H2" t="n">
-        <v>44.49822504924753</v>
+        <v>79.39509630577632</v>
       </c>
       <c r="I2" t="n">
-        <v>44.49822504924753</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="J2" t="n">
-        <v>116.829168004879</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="K2" t="n">
-        <v>667.4947029893171</v>
+        <v>595.1637600336855</v>
       </c>
       <c r="L2" t="n">
-        <v>667.4947029893171</v>
+        <v>595.1637600336855</v>
       </c>
       <c r="M2" t="n">
-        <v>667.4947029893171</v>
+        <v>1145.829295018124</v>
       </c>
       <c r="N2" t="n">
-        <v>1218.160237973755</v>
+        <v>1145.829295018124</v>
       </c>
       <c r="O2" t="n">
-        <v>1218.160237973755</v>
+        <v>1651.26943807629</v>
       </c>
       <c r="P2" t="n">
-        <v>1768.825772958194</v>
+        <v>1651.26943807629</v>
       </c>
       <c r="Q2" t="n">
-        <v>2224.911252462377</v>
+        <v>2107.354917580473</v>
       </c>
       <c r="R2" t="n">
-        <v>2224.911252462377</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="S2" t="n">
-        <v>2224.911252462377</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="T2" t="n">
-        <v>2003.98568150701</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="U2" t="n">
-        <v>1745.630772103422</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="V2" t="n">
-        <v>1664.703751417078</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="W2" t="n">
-        <v>1664.703751417078</v>
+        <v>1828.519902762723</v>
       </c>
       <c r="X2" t="n">
-        <v>1657.02415662523</v>
+        <v>1820.840307970874</v>
       </c>
       <c r="Y2" t="n">
-        <v>1655.727290620524</v>
+        <v>1819.543441966169</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4385,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>983.3471129133217</v>
+        <v>611.6217160807028</v>
       </c>
       <c r="C3" t="n">
-        <v>865.8412094308264</v>
+        <v>494.1158125982075</v>
       </c>
       <c r="D3" t="n">
-        <v>762.0012509461114</v>
+        <v>390.2758541134926</v>
       </c>
       <c r="E3" t="n">
-        <v>657.2993172190487</v>
+        <v>285.5739203864298</v>
       </c>
       <c r="F3" t="n">
-        <v>563.6534869019529</v>
+        <v>191.9280900693339</v>
       </c>
       <c r="G3" t="n">
-        <v>469.5997151195569</v>
+        <v>97.87431828693794</v>
       </c>
       <c r="H3" t="n">
-        <v>416.2236218818665</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="I3" t="n">
-        <v>416.2236218818665</v>
+        <v>51.94486801115936</v>
       </c>
       <c r="J3" t="n">
-        <v>416.2236218818665</v>
+        <v>323.6423572907505</v>
       </c>
       <c r="K3" t="n">
-        <v>659.4347056307208</v>
+        <v>874.3078922751886</v>
       </c>
       <c r="L3" t="n">
-        <v>659.4347056307208</v>
+        <v>874.3078922751886</v>
       </c>
       <c r="M3" t="n">
-        <v>659.4347056307208</v>
+        <v>1424.973427259627</v>
       </c>
       <c r="N3" t="n">
-        <v>1210.100240615159</v>
+        <v>1424.973427259627</v>
       </c>
       <c r="O3" t="n">
-        <v>1210.100240615159</v>
+        <v>1424.973427259627</v>
       </c>
       <c r="P3" t="n">
-        <v>1760.765775599597</v>
+        <v>1771.166545545054</v>
       </c>
       <c r="Q3" t="n">
-        <v>2224.911252462377</v>
+        <v>1771.166545545054</v>
       </c>
       <c r="R3" t="n">
-        <v>2224.911252462377</v>
+        <v>1853.185855629757</v>
       </c>
       <c r="S3" t="n">
-        <v>2143.587005023631</v>
+        <v>1771.861608191012</v>
       </c>
       <c r="T3" t="n">
-        <v>2001.707069321309</v>
+        <v>1629.98167248869</v>
       </c>
       <c r="U3" t="n">
-        <v>1816.938873240946</v>
+        <v>1445.213476408327</v>
       </c>
       <c r="V3" t="n">
-        <v>1611.965734380212</v>
+        <v>1240.240337547593</v>
       </c>
       <c r="W3" t="n">
-        <v>1415.444357213429</v>
+        <v>1043.71896038081</v>
       </c>
       <c r="X3" t="n">
-        <v>1251.967010980092</v>
+        <v>880.2416141474731</v>
       </c>
       <c r="Y3" t="n">
-        <v>1112.274122333384</v>
+        <v>740.5487255007655</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>1127.679347573484</v>
+        <v>713.5647419072639</v>
       </c>
       <c r="C4" t="n">
-        <v>955.7067844524004</v>
+        <v>541.5921787861798</v>
       </c>
       <c r="D4" t="n">
-        <v>792.3900115791711</v>
+        <v>378.2754059129505</v>
       </c>
       <c r="E4" t="n">
-        <v>626.1818057320246</v>
+        <v>212.0672000658041</v>
       </c>
       <c r="F4" t="n">
-        <v>454.3200315065851</v>
+        <v>44.49822504924748</v>
       </c>
       <c r="G4" t="n">
-        <v>288.0630618008172</v>
+        <v>44.49822504924748</v>
       </c>
       <c r="H4" t="n">
-        <v>144.2667933089716</v>
+        <v>44.49822504924748</v>
       </c>
       <c r="I4" t="n">
-        <v>44.49822504924753</v>
+        <v>44.49822504924748</v>
       </c>
       <c r="J4" t="n">
-        <v>101.9895532734058</v>
+        <v>101.9895532734055</v>
       </c>
       <c r="K4" t="n">
-        <v>328.5171544792431</v>
+        <v>328.5171544792427</v>
       </c>
       <c r="L4" t="n">
-        <v>683.2064757736639</v>
+        <v>683.2064757736634</v>
       </c>
       <c r="M4" t="n">
-        <v>1074.392270743915</v>
+        <v>1074.392270743914</v>
       </c>
       <c r="N4" t="n">
         <v>1451.88378161995</v>
       </c>
       <c r="O4" t="n">
-        <v>1807.311910299714</v>
+        <v>1807.311910299713</v>
       </c>
       <c r="P4" t="n">
-        <v>2097.911122221615</v>
+        <v>2097.911122221614</v>
       </c>
       <c r="Q4" t="n">
-        <v>2224.911252462377</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="R4" t="n">
-        <v>2177.87263914955</v>
+        <v>2177.872639149549</v>
       </c>
       <c r="S4" t="n">
-        <v>2007.737591668685</v>
+        <v>2177.872639149549</v>
       </c>
       <c r="T4" t="n">
-        <v>1764.398243894585</v>
+        <v>1934.533291375449</v>
       </c>
       <c r="U4" t="n">
-        <v>1764.398243894585</v>
+        <v>1654.348842875753</v>
       </c>
       <c r="V4" t="n">
-        <v>1482.686776502613</v>
+        <v>1372.637375483782</v>
       </c>
       <c r="W4" t="n">
-        <v>1482.686776502613</v>
+        <v>1372.637375483782</v>
       </c>
       <c r="X4" t="n">
-        <v>1240.122879948419</v>
+        <v>1130.073478929588</v>
       </c>
       <c r="Y4" t="n">
-        <v>1240.122879948419</v>
+        <v>903.7307106193296</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4543,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>938.0105478030285</v>
+        <v>2078.856605666331</v>
       </c>
       <c r="C5" t="n">
-        <v>915.1502218567327</v>
+        <v>1651.955875679631</v>
       </c>
       <c r="D5" t="n">
-        <v>895.898005082137</v>
+        <v>1228.663254864631</v>
       </c>
       <c r="E5" t="n">
-        <v>469.9210652299946</v>
+        <v>802.6863150124886</v>
       </c>
       <c r="F5" t="n">
-        <v>448.8372874597989</v>
+        <v>781.6025372422929</v>
       </c>
       <c r="G5" t="n">
-        <v>44.49822504924753</v>
+        <v>377.2634748317415</v>
       </c>
       <c r="H5" t="n">
-        <v>44.49822504924753</v>
+        <v>79.39509630577632</v>
       </c>
       <c r="I5" t="n">
         <v>44.49822504924753</v>
       </c>
       <c r="J5" t="n">
-        <v>44.49822504924753</v>
+        <v>407.101683866143</v>
       </c>
       <c r="K5" t="n">
-        <v>595.1637600336857</v>
+        <v>549.9383681074144</v>
       </c>
       <c r="L5" t="n">
-        <v>595.1637600336857</v>
+        <v>549.9383681074144</v>
       </c>
       <c r="M5" t="n">
-        <v>595.1637600336857</v>
+        <v>1100.603903091853</v>
       </c>
       <c r="N5" t="n">
-        <v>667.4947029893171</v>
+        <v>1100.603903091853</v>
       </c>
       <c r="O5" t="n">
-        <v>1218.160237973755</v>
+        <v>1100.603903091853</v>
       </c>
       <c r="P5" t="n">
-        <v>1768.825772958194</v>
+        <v>1651.269438076291</v>
       </c>
       <c r="Q5" t="n">
-        <v>2224.911252462377</v>
+        <v>2107.354917580474</v>
       </c>
       <c r="R5" t="n">
         <v>2224.911252462377</v>
       </c>
       <c r="S5" t="n">
-        <v>2120.543958335517</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="T5" t="n">
-        <v>1899.61838738015</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="U5" t="n">
-        <v>1641.263477976562</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="V5" t="n">
-        <v>1641.263477976562</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="W5" t="n">
-        <v>1641.263477976562</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="X5" t="n">
-        <v>1229.54347914431</v>
+        <v>2217.231657670528</v>
       </c>
       <c r="Y5" t="n">
-        <v>953.8185080541546</v>
+        <v>2094.664565917457</v>
       </c>
     </row>
     <row r="6">
@@ -4644,25 +4646,25 @@
         <v>44.49822504924753</v>
       </c>
       <c r="J6" t="n">
-        <v>44.49822504924753</v>
+        <v>316.1957143288386</v>
       </c>
       <c r="K6" t="n">
-        <v>44.49822504924753</v>
+        <v>316.1957143288386</v>
       </c>
       <c r="L6" t="n">
-        <v>201.1892506764427</v>
+        <v>866.8612493132769</v>
       </c>
       <c r="M6" t="n">
-        <v>201.1892506764427</v>
+        <v>866.8612493132769</v>
       </c>
       <c r="N6" t="n">
-        <v>751.8547856608809</v>
+        <v>866.8612493132769</v>
       </c>
       <c r="O6" t="n">
-        <v>1302.520320645319</v>
+        <v>866.8612493132769</v>
       </c>
       <c r="P6" t="n">
-        <v>1853.185855629757</v>
+        <v>1389.040378766978</v>
       </c>
       <c r="Q6" t="n">
         <v>1853.185855629757</v>
@@ -4750,25 +4752,25 @@
         <v>2177.872639149549</v>
       </c>
       <c r="S7" t="n">
-        <v>2007.737591668684</v>
+        <v>2177.872639149549</v>
       </c>
       <c r="T7" t="n">
-        <v>1764.398243894584</v>
+        <v>2177.872639149549</v>
       </c>
       <c r="U7" t="n">
-        <v>1764.398243894584</v>
+        <v>1897.688190649853</v>
       </c>
       <c r="V7" t="n">
-        <v>1764.398243894584</v>
+        <v>1897.688190649853</v>
       </c>
       <c r="W7" t="n">
-        <v>1596.586012437937</v>
+        <v>1786.751981150003</v>
       </c>
       <c r="X7" t="n">
-        <v>1354.022115883742</v>
+        <v>1544.188084595808</v>
       </c>
       <c r="Y7" t="n">
-        <v>1127.679347573484</v>
+        <v>1317.84531628555</v>
       </c>
     </row>
     <row r="8">
@@ -4778,22 +4780,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1235.878926328994</v>
+        <v>2150.131759924241</v>
       </c>
       <c r="C8" t="n">
-        <v>1213.018600382698</v>
+        <v>1723.231029937541</v>
       </c>
       <c r="D8" t="n">
-        <v>1193.766383608102</v>
+        <v>1299.938409122541</v>
       </c>
       <c r="E8" t="n">
-        <v>1171.829847796364</v>
+        <v>873.9614692703988</v>
       </c>
       <c r="F8" t="n">
-        <v>746.7056659857641</v>
+        <v>448.8372874597989</v>
       </c>
       <c r="G8" t="n">
-        <v>342.3666035752127</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="H8" t="n">
         <v>44.49822504924753</v>
@@ -4808,13 +4810,13 @@
         <v>957.7672188505812</v>
       </c>
       <c r="L8" t="n">
-        <v>957.7672188505812</v>
+        <v>1006.023847611597</v>
       </c>
       <c r="M8" t="n">
-        <v>1508.432753835019</v>
+        <v>1556.689382596036</v>
       </c>
       <c r="N8" t="n">
-        <v>2059.098288819458</v>
+        <v>2107.354917580474</v>
       </c>
       <c r="O8" t="n">
         <v>2107.354917580474</v>
@@ -4829,25 +4831,25 @@
         <v>2224.911252462377</v>
       </c>
       <c r="S8" t="n">
-        <v>2224.911252462377</v>
+        <v>2174.916180971921</v>
       </c>
       <c r="T8" t="n">
-        <v>2068.744155457483</v>
+        <v>2174.916180971921</v>
       </c>
       <c r="U8" t="n">
-        <v>2068.744155457483</v>
+        <v>2174.916180971921</v>
       </c>
       <c r="V8" t="n">
-        <v>2068.744155457483</v>
+        <v>2174.916180971921</v>
       </c>
       <c r="W8" t="n">
-        <v>2068.744155457483</v>
+        <v>2174.916180971921</v>
       </c>
       <c r="X8" t="n">
-        <v>1657.02415662523</v>
+        <v>2167.236586180072</v>
       </c>
       <c r="Y8" t="n">
-        <v>1655.727290620524</v>
+        <v>2165.939720175367</v>
       </c>
     </row>
     <row r="9">
@@ -4878,31 +4880,31 @@
         <v>44.49822504924753</v>
       </c>
       <c r="I9" t="n">
-        <v>51.94486801115937</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="J9" t="n">
-        <v>51.94486801115937</v>
+        <v>316.1957143288386</v>
       </c>
       <c r="K9" t="n">
-        <v>602.6104029955975</v>
+        <v>866.8612493132769</v>
       </c>
       <c r="L9" t="n">
-        <v>602.6104029955975</v>
+        <v>866.8612493132769</v>
       </c>
       <c r="M9" t="n">
-        <v>602.6104029955975</v>
+        <v>1389.040378766978</v>
       </c>
       <c r="N9" t="n">
-        <v>1153.275937980036</v>
+        <v>1389.040378766978</v>
       </c>
       <c r="O9" t="n">
-        <v>1220.501010560616</v>
+        <v>1389.040378766978</v>
       </c>
       <c r="P9" t="n">
-        <v>1771.166545545054</v>
+        <v>1389.040378766978</v>
       </c>
       <c r="Q9" t="n">
-        <v>1771.166545545054</v>
+        <v>1853.185855629757</v>
       </c>
       <c r="R9" t="n">
         <v>1853.185855629757</v>
@@ -4936,16 +4938,16 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>955.8175733480448</v>
+        <v>1127.679347573484</v>
       </c>
       <c r="C10" t="n">
-        <v>783.8450102269608</v>
+        <v>955.7067844524004</v>
       </c>
       <c r="D10" t="n">
-        <v>620.5282373537315</v>
+        <v>792.3900115791711</v>
       </c>
       <c r="E10" t="n">
-        <v>454.3200315065851</v>
+        <v>626.1818057320246</v>
       </c>
       <c r="F10" t="n">
         <v>454.3200315065851</v>
@@ -4999,13 +5001,13 @@
         <v>1202.502328002917</v>
       </c>
       <c r="W10" t="n">
-        <v>955.8175733480448</v>
+        <v>1127.679347573484</v>
       </c>
       <c r="X10" t="n">
-        <v>955.8175733480448</v>
+        <v>1127.679347573484</v>
       </c>
       <c r="Y10" t="n">
-        <v>955.8175733480448</v>
+        <v>1127.679347573484</v>
       </c>
     </row>
     <row r="11">
@@ -5015,76 +5017,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1329.748260847338</v>
+        <v>2429.413071721398</v>
       </c>
       <c r="C11" t="n">
-        <v>1329.748260847338</v>
+        <v>2002.512341734699</v>
       </c>
       <c r="D11" t="n">
-        <v>906.4556400323379</v>
+        <v>1579.219720919699</v>
       </c>
       <c r="E11" t="n">
-        <v>906.4556400323379</v>
+        <v>1153.242781067556</v>
       </c>
       <c r="F11" t="n">
-        <v>481.3314582217381</v>
+        <v>728.1185992569565</v>
       </c>
       <c r="G11" t="n">
-        <v>397.4474002792861</v>
+        <v>323.7795368464051</v>
       </c>
       <c r="H11" t="n">
-        <v>99.57902175332094</v>
+        <v>134.973816135519</v>
       </c>
       <c r="I11" t="n">
-        <v>64.68215049679215</v>
+        <v>100.0769448789902</v>
       </c>
       <c r="J11" t="n">
-        <v>427.2856093136876</v>
+        <v>462.6804036958857</v>
       </c>
       <c r="K11" t="n">
-        <v>1142.793917289187</v>
+        <v>1178.188711671385</v>
       </c>
       <c r="L11" t="n">
-        <v>1269.301153779694</v>
+        <v>2107.813759290661</v>
       </c>
       <c r="M11" t="n">
-        <v>1269.301153779694</v>
+        <v>2876.781500254684</v>
       </c>
       <c r="N11" t="n">
-        <v>1269.301153779694</v>
+        <v>2876.781500254684</v>
       </c>
       <c r="O11" t="n">
-        <v>2069.742766177496</v>
+        <v>3721.926150405496</v>
       </c>
       <c r="P11" t="n">
-        <v>2778.022045335424</v>
+        <v>4430.205429563423</v>
       </c>
       <c r="Q11" t="n">
-        <v>3234.107524839607</v>
+        <v>4886.290909067607</v>
       </c>
       <c r="R11" t="n">
-        <v>3234.107524839607</v>
+        <v>5003.847243949509</v>
       </c>
       <c r="S11" t="n">
-        <v>3129.740230712748</v>
+        <v>4899.479949822649</v>
       </c>
       <c r="T11" t="n">
-        <v>2908.814659757381</v>
+        <v>4678.554378867282</v>
       </c>
       <c r="U11" t="n">
-        <v>2908.814659757381</v>
+        <v>4420.199469463694</v>
       </c>
       <c r="V11" t="n">
-        <v>2551.32524488363</v>
+        <v>4062.710054589944</v>
       </c>
       <c r="W11" t="n">
-        <v>2154.933895183977</v>
+        <v>3666.318704890291</v>
       </c>
       <c r="X11" t="n">
-        <v>2154.933895183977</v>
+        <v>3254.598706058038</v>
       </c>
       <c r="Y11" t="n">
-        <v>1749.596625138868</v>
+        <v>2849.261436012929</v>
       </c>
     </row>
     <row r="12">
@@ -5094,76 +5096,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>631.8056415282474</v>
+        <v>667.2004359104454</v>
       </c>
       <c r="C12" t="n">
-        <v>514.2997380457522</v>
+        <v>549.6945324279502</v>
       </c>
       <c r="D12" t="n">
-        <v>410.4597795610372</v>
+        <v>445.8545739432352</v>
       </c>
       <c r="E12" t="n">
-        <v>305.7578458339744</v>
+        <v>341.1526402161724</v>
       </c>
       <c r="F12" t="n">
-        <v>212.1120155168786</v>
+        <v>247.5068098990766</v>
       </c>
       <c r="G12" t="n">
-        <v>118.0582437344826</v>
+        <v>153.4530381166806</v>
       </c>
       <c r="H12" t="n">
-        <v>64.68215049679215</v>
+        <v>100.0769448789902</v>
       </c>
       <c r="I12" t="n">
-        <v>64.68215049679215</v>
+        <v>100.0769448789902</v>
       </c>
       <c r="J12" t="n">
-        <v>64.68215049679215</v>
+        <v>100.0769448789902</v>
       </c>
       <c r="K12" t="n">
-        <v>64.68215049679215</v>
+        <v>100.0769448789902</v>
       </c>
       <c r="L12" t="n">
-        <v>64.68215049679215</v>
+        <v>936.8757529618963</v>
       </c>
       <c r="M12" t="n">
-        <v>64.68215049679215</v>
+        <v>936.8757529618963</v>
       </c>
       <c r="N12" t="n">
-        <v>608.7826918167198</v>
+        <v>936.8757529618963</v>
       </c>
       <c r="O12" t="n">
-        <v>1409.224304214523</v>
+        <v>936.8757529618963</v>
       </c>
       <c r="P12" t="n">
-        <v>1409.224304214523</v>
+        <v>1444.619098596721</v>
       </c>
       <c r="Q12" t="n">
-        <v>1873.369781077302</v>
+        <v>1908.7645754595</v>
       </c>
       <c r="R12" t="n">
-        <v>1873.369781077302</v>
+        <v>1908.7645754595</v>
       </c>
       <c r="S12" t="n">
-        <v>1792.045533638556</v>
+        <v>1827.440328020755</v>
       </c>
       <c r="T12" t="n">
-        <v>1650.165597936235</v>
+        <v>1685.560392318433</v>
       </c>
       <c r="U12" t="n">
-        <v>1465.397401855871</v>
+        <v>1500.792196238069</v>
       </c>
       <c r="V12" t="n">
-        <v>1260.424262995137</v>
+        <v>1295.819057377336</v>
       </c>
       <c r="W12" t="n">
-        <v>1063.902885828355</v>
+        <v>1099.297680210553</v>
       </c>
       <c r="X12" t="n">
-        <v>900.4255395950178</v>
+        <v>935.8203339772158</v>
       </c>
       <c r="Y12" t="n">
-        <v>760.7326509483102</v>
+        <v>796.1274453305082</v>
       </c>
     </row>
     <row r="13">
@@ -5173,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>478.9271847585218</v>
+        <v>324.1560104286543</v>
       </c>
       <c r="C13" t="n">
-        <v>478.9271847585218</v>
+        <v>152.1834473075703</v>
       </c>
       <c r="D13" t="n">
-        <v>478.9271847585218</v>
+        <v>100.0769448789902</v>
       </c>
       <c r="E13" t="n">
-        <v>478.9271847585218</v>
+        <v>100.0769448789902</v>
       </c>
       <c r="F13" t="n">
-        <v>474.5039569541296</v>
+        <v>100.0769448789902</v>
       </c>
       <c r="G13" t="n">
-        <v>308.2469872483618</v>
+        <v>100.0769448789902</v>
       </c>
       <c r="H13" t="n">
-        <v>164.4507187565162</v>
+        <v>100.0769448789902</v>
       </c>
       <c r="I13" t="n">
-        <v>64.68215049679215</v>
+        <v>100.0769448789902</v>
       </c>
       <c r="J13" t="n">
-        <v>122.1734787209502</v>
+        <v>157.5682731031482</v>
       </c>
       <c r="K13" t="n">
-        <v>348.7010799267873</v>
+        <v>384.0958743089853</v>
       </c>
       <c r="L13" t="n">
-        <v>703.3904012212081</v>
+        <v>738.7851956034061</v>
       </c>
       <c r="M13" t="n">
-        <v>1094.576196191459</v>
+        <v>1129.970990573657</v>
       </c>
       <c r="N13" t="n">
-        <v>1472.067707067495</v>
+        <v>1507.462501449693</v>
       </c>
       <c r="O13" t="n">
-        <v>1827.495835747258</v>
+        <v>1862.890630129456</v>
       </c>
       <c r="P13" t="n">
-        <v>2118.095047669159</v>
+        <v>2153.489842051357</v>
       </c>
       <c r="Q13" t="n">
-        <v>2245.09517790992</v>
+        <v>2280.489972292119</v>
       </c>
       <c r="R13" t="n">
-        <v>2198.056564597094</v>
+        <v>2233.451358979292</v>
       </c>
       <c r="S13" t="n">
-        <v>2027.921517116229</v>
+        <v>2063.316311498427</v>
       </c>
       <c r="T13" t="n">
-        <v>1784.582169342129</v>
+        <v>1819.976963724327</v>
       </c>
       <c r="U13" t="n">
-        <v>1504.397720842433</v>
+        <v>1539.792515224631</v>
       </c>
       <c r="V13" t="n">
-        <v>1222.686253450462</v>
+        <v>1258.08104783266</v>
       </c>
       <c r="W13" t="n">
-        <v>947.8338496229746</v>
+        <v>983.2286440051728</v>
       </c>
       <c r="X13" t="n">
-        <v>705.2699530687797</v>
+        <v>740.6647474509779</v>
       </c>
       <c r="Y13" t="n">
-        <v>478.9271847585218</v>
+        <v>514.3219791407199</v>
       </c>
     </row>
     <row r="14">
@@ -5252,76 +5254,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1071.39335144375</v>
+        <v>2429.413071721398</v>
       </c>
       <c r="C14" t="n">
-        <v>927.2107049788721</v>
+        <v>2002.512341734699</v>
       </c>
       <c r="D14" t="n">
-        <v>503.9180841638723</v>
+        <v>1579.219720919699</v>
       </c>
       <c r="E14" t="n">
-        <v>503.9180841638723</v>
+        <v>1153.242781067556</v>
       </c>
       <c r="F14" t="n">
-        <v>503.9180841638723</v>
+        <v>837.1812570720356</v>
       </c>
       <c r="G14" t="n">
-        <v>99.57902175332094</v>
+        <v>432.8421946614841</v>
       </c>
       <c r="H14" t="n">
-        <v>99.57902175332094</v>
+        <v>134.973816135519</v>
       </c>
       <c r="I14" t="n">
-        <v>64.68215049679215</v>
+        <v>100.0769448789902</v>
       </c>
       <c r="J14" t="n">
-        <v>64.68215049679215</v>
+        <v>100.0769448789902</v>
       </c>
       <c r="K14" t="n">
-        <v>715.2263527642958</v>
+        <v>815.5852528544892</v>
       </c>
       <c r="L14" t="n">
-        <v>1515.667965162099</v>
+        <v>1745.210300473766</v>
       </c>
       <c r="M14" t="n">
-        <v>2316.109577559901</v>
+        <v>2749.496401892824</v>
       </c>
       <c r="N14" t="n">
-        <v>3116.551189957705</v>
+        <v>3725.747460379525</v>
       </c>
       <c r="O14" t="n">
-        <v>3116.551189957705</v>
+        <v>4570.892110530337</v>
       </c>
       <c r="P14" t="n">
-        <v>3116.551189957705</v>
+        <v>5003.847243949509</v>
       </c>
       <c r="Q14" t="n">
-        <v>3116.551189957705</v>
+        <v>5003.847243949509</v>
       </c>
       <c r="R14" t="n">
-        <v>3234.107524839607</v>
+        <v>5003.847243949509</v>
       </c>
       <c r="S14" t="n">
-        <v>3129.740230712748</v>
+        <v>4899.479949822649</v>
       </c>
       <c r="T14" t="n">
-        <v>2908.814659757381</v>
+        <v>4678.554378867282</v>
       </c>
       <c r="U14" t="n">
-        <v>2650.459750353793</v>
+        <v>4420.199469463694</v>
       </c>
       <c r="V14" t="n">
-        <v>2292.970335480043</v>
+        <v>4062.710054589944</v>
       </c>
       <c r="W14" t="n">
-        <v>1896.57898578039</v>
+        <v>3666.318704890291</v>
       </c>
       <c r="X14" t="n">
-        <v>1896.57898578039</v>
+        <v>3254.598706058038</v>
       </c>
       <c r="Y14" t="n">
-        <v>1491.24171573528</v>
+        <v>2849.261436012929</v>
       </c>
     </row>
     <row r="15">
@@ -5331,76 +5333,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>631.8056415282474</v>
+        <v>667.2004359104454</v>
       </c>
       <c r="C15" t="n">
-        <v>514.2997380457522</v>
+        <v>549.6945324279502</v>
       </c>
       <c r="D15" t="n">
-        <v>410.4597795610372</v>
+        <v>445.8545739432352</v>
       </c>
       <c r="E15" t="n">
-        <v>305.7578458339744</v>
+        <v>341.1526402161724</v>
       </c>
       <c r="F15" t="n">
-        <v>212.1120155168786</v>
+        <v>247.5068098990766</v>
       </c>
       <c r="G15" t="n">
-        <v>118.0582437344826</v>
+        <v>153.4530381166806</v>
       </c>
       <c r="H15" t="n">
-        <v>64.68215049679215</v>
+        <v>100.0769448789902</v>
       </c>
       <c r="I15" t="n">
-        <v>64.68215049679215</v>
+        <v>100.0769448789902</v>
       </c>
       <c r="J15" t="n">
-        <v>64.68215049679215</v>
+        <v>371.7744341585812</v>
       </c>
       <c r="K15" t="n">
-        <v>64.68215049679215</v>
+        <v>962.2593607269208</v>
       </c>
       <c r="L15" t="n">
-        <v>356.7304516410011</v>
+        <v>962.2593607269208</v>
       </c>
       <c r="M15" t="n">
-        <v>356.7304516410011</v>
+        <v>962.2593607269208</v>
       </c>
       <c r="N15" t="n">
-        <v>1157.172064038804</v>
+        <v>962.2593607269208</v>
       </c>
       <c r="O15" t="n">
-        <v>1157.172064038804</v>
+        <v>962.2593607269208</v>
       </c>
       <c r="P15" t="n">
-        <v>1873.369781077302</v>
+        <v>1444.619098596721</v>
       </c>
       <c r="Q15" t="n">
-        <v>1873.369781077302</v>
+        <v>1908.7645754595</v>
       </c>
       <c r="R15" t="n">
-        <v>1873.369781077302</v>
+        <v>1908.7645754595</v>
       </c>
       <c r="S15" t="n">
-        <v>1792.045533638556</v>
+        <v>1827.440328020755</v>
       </c>
       <c r="T15" t="n">
-        <v>1650.165597936235</v>
+        <v>1685.560392318433</v>
       </c>
       <c r="U15" t="n">
-        <v>1465.397401855871</v>
+        <v>1500.792196238069</v>
       </c>
       <c r="V15" t="n">
-        <v>1260.424262995137</v>
+        <v>1295.819057377336</v>
       </c>
       <c r="W15" t="n">
-        <v>1063.902885828355</v>
+        <v>1099.297680210553</v>
       </c>
       <c r="X15" t="n">
-        <v>900.4255395950178</v>
+        <v>935.8203339772158</v>
       </c>
       <c r="Y15" t="n">
-        <v>760.7326509483102</v>
+        <v>796.1274453305082</v>
       </c>
     </row>
     <row r="16">
@@ -5410,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>804.7064942237357</v>
+        <v>324.1560104286543</v>
       </c>
       <c r="C16" t="n">
-        <v>632.7339311026517</v>
+        <v>152.1834473075703</v>
       </c>
       <c r="D16" t="n">
-        <v>469.4171582294224</v>
+        <v>100.0769448789902</v>
       </c>
       <c r="E16" t="n">
-        <v>303.2089523822759</v>
+        <v>100.0769448789902</v>
       </c>
       <c r="F16" t="n">
-        <v>131.3471781568363</v>
+        <v>100.0769448789902</v>
       </c>
       <c r="G16" t="n">
-        <v>64.68215049679215</v>
+        <v>100.0769448789902</v>
       </c>
       <c r="H16" t="n">
-        <v>64.68215049679215</v>
+        <v>100.0769448789902</v>
       </c>
       <c r="I16" t="n">
-        <v>64.68215049679215</v>
+        <v>100.0769448789902</v>
       </c>
       <c r="J16" t="n">
-        <v>122.1734787209502</v>
+        <v>157.5682731031482</v>
       </c>
       <c r="K16" t="n">
-        <v>348.7010799267873</v>
+        <v>384.0958743089853</v>
       </c>
       <c r="L16" t="n">
-        <v>703.3904012212081</v>
+        <v>738.7851956034061</v>
       </c>
       <c r="M16" t="n">
-        <v>1094.576196191459</v>
+        <v>1129.970990573657</v>
       </c>
       <c r="N16" t="n">
-        <v>1472.067707067495</v>
+        <v>1507.462501449693</v>
       </c>
       <c r="O16" t="n">
-        <v>1827.495835747258</v>
+        <v>1862.890630129456</v>
       </c>
       <c r="P16" t="n">
-        <v>2118.095047669159</v>
+        <v>2153.489842051357</v>
       </c>
       <c r="Q16" t="n">
-        <v>2245.09517790992</v>
+        <v>2280.489972292119</v>
       </c>
       <c r="R16" t="n">
-        <v>2245.09517790992</v>
+        <v>2233.451358979292</v>
       </c>
       <c r="S16" t="n">
-        <v>2074.960130429055</v>
+        <v>2063.316311498427</v>
       </c>
       <c r="T16" t="n">
-        <v>1831.620782654955</v>
+        <v>1819.976963724327</v>
       </c>
       <c r="U16" t="n">
-        <v>1551.43633415526</v>
+        <v>1539.792515224631</v>
       </c>
       <c r="V16" t="n">
-        <v>1269.724866763288</v>
+        <v>1258.08104783266</v>
       </c>
       <c r="W16" t="n">
-        <v>994.8724629358014</v>
+        <v>983.2286440051728</v>
       </c>
       <c r="X16" t="n">
-        <v>994.8724629358014</v>
+        <v>740.6647474509779</v>
       </c>
       <c r="Y16" t="n">
-        <v>994.8724629358014</v>
+        <v>514.3219791407199</v>
       </c>
     </row>
     <row r="17">
@@ -5504,7 +5506,7 @@
         <v>839.4070255988738</v>
       </c>
       <c r="G17" t="n">
-        <v>435.0679631883225</v>
+        <v>435.0679631883224</v>
       </c>
       <c r="H17" t="n">
         <v>137.1995846623573</v>
@@ -5513,37 +5515,37 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J17" t="n">
-        <v>464.9061722227241</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="K17" t="n">
-        <v>1180.414480198223</v>
+        <v>533.9931985757484</v>
       </c>
       <c r="L17" t="n">
-        <v>2110.0395278175</v>
+        <v>1463.618246195025</v>
       </c>
       <c r="M17" t="n">
-        <v>3114.325629236558</v>
+        <v>2467.904347614083</v>
       </c>
       <c r="N17" t="n">
-        <v>4090.576687723259</v>
+        <v>3444.155406100784</v>
       </c>
       <c r="O17" t="n">
-        <v>4935.721337874071</v>
+        <v>4289.300056251596</v>
       </c>
       <c r="P17" t="n">
-        <v>5115.135670291427</v>
+        <v>4997.579335409524</v>
       </c>
       <c r="Q17" t="n">
-        <v>5115.135670291427</v>
+        <v>4997.579335409524</v>
       </c>
       <c r="R17" t="n">
-        <v>5115.135670291427</v>
+        <v>5115.135670291426</v>
       </c>
       <c r="S17" t="n">
-        <v>5010.768376164568</v>
+        <v>5010.768376164567</v>
       </c>
       <c r="T17" t="n">
-        <v>4789.8428052092</v>
+        <v>4789.842805209199</v>
       </c>
       <c r="U17" t="n">
         <v>4531.487895805612</v>
@@ -5555,7 +5557,7 @@
         <v>3777.607131232208</v>
       </c>
       <c r="X17" t="n">
-        <v>3365.887132399955</v>
+        <v>3365.887132399956</v>
       </c>
       <c r="Y17" t="n">
         <v>2960.549862354846</v>
@@ -5601,10 +5603,10 @@
         <v>102.3027134058285</v>
       </c>
       <c r="M18" t="n">
-        <v>821.6753975134684</v>
+        <v>1021.509065974867</v>
       </c>
       <c r="N18" t="n">
-        <v>1910.990343986338</v>
+        <v>1021.509065974867</v>
       </c>
       <c r="O18" t="n">
         <v>1910.990343986338</v>
@@ -5647,19 +5649,19 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>1185.483835930065</v>
+        <v>1013.511272808981</v>
       </c>
       <c r="C19" t="n">
-        <v>1013.511272808982</v>
+        <v>1013.511272808981</v>
       </c>
       <c r="D19" t="n">
-        <v>850.1944999357522</v>
+        <v>850.1944999357521</v>
       </c>
       <c r="E19" t="n">
-        <v>683.9862940886057</v>
+        <v>683.9862940886056</v>
       </c>
       <c r="F19" t="n">
-        <v>512.1245198631661</v>
+        <v>512.124519863166</v>
       </c>
       <c r="G19" t="n">
         <v>345.8675501573982</v>
@@ -5671,10 +5673,10 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J19" t="n">
-        <v>159.7940416299866</v>
+        <v>159.7940416299865</v>
       </c>
       <c r="K19" t="n">
-        <v>386.3216428358238</v>
+        <v>386.3216428358237</v>
       </c>
       <c r="L19" t="n">
         <v>741.0109641302445</v>
@@ -5695,28 +5697,28 @@
         <v>2282.715740818957</v>
       </c>
       <c r="R19" t="n">
-        <v>2282.715740818957</v>
+        <v>2235.67712750613</v>
       </c>
       <c r="S19" t="n">
-        <v>2282.715740818957</v>
+        <v>2065.542080025265</v>
       </c>
       <c r="T19" t="n">
-        <v>2282.715740818957</v>
+        <v>1822.202732251165</v>
       </c>
       <c r="U19" t="n">
-        <v>2282.715740818957</v>
+        <v>1542.018283751469</v>
       </c>
       <c r="V19" t="n">
-        <v>2119.408873334071</v>
+        <v>1260.306816359498</v>
       </c>
       <c r="W19" t="n">
-        <v>1844.556469506584</v>
+        <v>1203.677241521047</v>
       </c>
       <c r="X19" t="n">
-        <v>1601.992572952389</v>
+        <v>1203.677241521047</v>
       </c>
       <c r="Y19" t="n">
-        <v>1375.649804642131</v>
+        <v>1203.677241521047</v>
       </c>
     </row>
     <row r="20">
@@ -5726,10 +5728,10 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2540.701498063315</v>
+        <v>2540.701498063316</v>
       </c>
       <c r="C20" t="n">
-        <v>2113.800768076615</v>
+        <v>2113.800768076616</v>
       </c>
       <c r="D20" t="n">
         <v>1690.508147261616</v>
@@ -5738,13 +5740,13 @@
         <v>1264.531207409474</v>
       </c>
       <c r="F20" t="n">
-        <v>839.4070255988736</v>
+        <v>839.4070255988738</v>
       </c>
       <c r="G20" t="n">
-        <v>435.0679631883222</v>
+        <v>435.0679631883225</v>
       </c>
       <c r="H20" t="n">
-        <v>137.1995846623568</v>
+        <v>137.1995846623573</v>
       </c>
       <c r="I20" t="n">
         <v>102.3027134058285</v>
@@ -5768,19 +5770,19 @@
         <v>4573.117879057176</v>
       </c>
       <c r="P20" t="n">
-        <v>5115.135670291427</v>
+        <v>5115.135670291426</v>
       </c>
       <c r="Q20" t="n">
-        <v>5115.135670291427</v>
+        <v>5115.135670291426</v>
       </c>
       <c r="R20" t="n">
-        <v>5115.135670291427</v>
+        <v>5115.135670291426</v>
       </c>
       <c r="S20" t="n">
-        <v>5010.768376164568</v>
+        <v>5010.768376164567</v>
       </c>
       <c r="T20" t="n">
-        <v>4789.8428052092</v>
+        <v>4789.842805209199</v>
       </c>
       <c r="U20" t="n">
         <v>4531.487895805612</v>
@@ -5792,7 +5794,7 @@
         <v>3777.607131232208</v>
       </c>
       <c r="X20" t="n">
-        <v>3365.887132399955</v>
+        <v>3365.887132399956</v>
       </c>
       <c r="Y20" t="n">
         <v>2960.549862354846</v>
@@ -5829,28 +5831,28 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J21" t="n">
-        <v>102.3027134058285</v>
+        <v>374.0002026854196</v>
       </c>
       <c r="K21" t="n">
-        <v>102.3027134058285</v>
+        <v>964.4851292537592</v>
       </c>
       <c r="L21" t="n">
-        <v>102.3027134058285</v>
+        <v>964.4851292537592</v>
       </c>
       <c r="M21" t="n">
-        <v>821.6753975134684</v>
+        <v>964.4851292537592</v>
       </c>
       <c r="N21" t="n">
-        <v>1910.990343986338</v>
+        <v>964.4851292537592</v>
       </c>
       <c r="O21" t="n">
-        <v>1910.990343986338</v>
+        <v>1112.773316863137</v>
       </c>
       <c r="P21" t="n">
-        <v>1910.990343986338</v>
+        <v>1828.971033901635</v>
       </c>
       <c r="Q21" t="n">
-        <v>1910.990343986338</v>
+        <v>1828.971033901635</v>
       </c>
       <c r="R21" t="n">
         <v>1910.990343986338</v>
@@ -5884,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>3375.975369221655</v>
+        <v>326.3817789554925</v>
       </c>
       <c r="C22" t="n">
-        <v>3204.002806100571</v>
+        <v>154.4092158344085</v>
       </c>
       <c r="D22" t="n">
-        <v>3040.686033227342</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="E22" t="n">
-        <v>3040.686033227342</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="F22" t="n">
-        <v>3040.686033227342</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="G22" t="n">
-        <v>2934.722642878299</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="H22" t="n">
-        <v>2934.722642878299</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I22" t="n">
-        <v>2934.722642878299</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J22" t="n">
-        <v>2992.213971102457</v>
+        <v>159.7940416299865</v>
       </c>
       <c r="K22" t="n">
-        <v>3218.741572308294</v>
+        <v>386.3216428358237</v>
       </c>
       <c r="L22" t="n">
-        <v>3573.430893602715</v>
+        <v>741.0109641302445</v>
       </c>
       <c r="M22" t="n">
-        <v>3964.616688572966</v>
+        <v>1132.196759100495</v>
       </c>
       <c r="N22" t="n">
-        <v>4342.108199449001</v>
+        <v>1509.688269976531</v>
       </c>
       <c r="O22" t="n">
-        <v>4697.536328128765</v>
+        <v>1865.116398656294</v>
       </c>
       <c r="P22" t="n">
-        <v>4988.135540050665</v>
+        <v>2155.715610578195</v>
       </c>
       <c r="Q22" t="n">
-        <v>5115.135670291427</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="R22" t="n">
-        <v>5115.135670291427</v>
+        <v>2235.67712750613</v>
       </c>
       <c r="S22" t="n">
-        <v>5115.135670291427</v>
+        <v>2065.542080025265</v>
       </c>
       <c r="T22" t="n">
-        <v>4871.796322517327</v>
+        <v>1822.202732251165</v>
       </c>
       <c r="U22" t="n">
-        <v>4591.611874017632</v>
+        <v>1542.018283751469</v>
       </c>
       <c r="V22" t="n">
-        <v>4309.90040662566</v>
+        <v>1260.306816359498</v>
       </c>
       <c r="W22" t="n">
-        <v>4035.048002798173</v>
+        <v>985.454412532011</v>
       </c>
       <c r="X22" t="n">
-        <v>3792.484106243979</v>
+        <v>742.8905159778161</v>
       </c>
       <c r="Y22" t="n">
-        <v>3566.14133793372</v>
+        <v>516.5477476675582</v>
       </c>
     </row>
     <row r="23">
@@ -5963,10 +5965,10 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2540.701498063315</v>
+        <v>2540.701498063316</v>
       </c>
       <c r="C23" t="n">
-        <v>2113.800768076615</v>
+        <v>2113.800768076616</v>
       </c>
       <c r="D23" t="n">
         <v>1690.508147261616</v>
@@ -5975,13 +5977,13 @@
         <v>1264.531207409474</v>
       </c>
       <c r="F23" t="n">
-        <v>839.4070255988736</v>
+        <v>839.4070255988739</v>
       </c>
       <c r="G23" t="n">
-        <v>435.0679631883222</v>
+        <v>435.0679631883225</v>
       </c>
       <c r="H23" t="n">
-        <v>137.1995846623568</v>
+        <v>137.1995846623573</v>
       </c>
       <c r="I23" t="n">
         <v>102.3027134058285</v>
@@ -6005,19 +6007,19 @@
         <v>4573.117879057176</v>
       </c>
       <c r="P23" t="n">
-        <v>4997.579335409525</v>
+        <v>5115.135670291426</v>
       </c>
       <c r="Q23" t="n">
-        <v>4997.579335409525</v>
+        <v>5115.135670291426</v>
       </c>
       <c r="R23" t="n">
-        <v>5115.135670291427</v>
+        <v>5115.135670291426</v>
       </c>
       <c r="S23" t="n">
-        <v>5010.768376164568</v>
+        <v>5010.768376164567</v>
       </c>
       <c r="T23" t="n">
-        <v>4789.8428052092</v>
+        <v>4789.842805209199</v>
       </c>
       <c r="U23" t="n">
         <v>4531.487895805612</v>
@@ -6042,76 +6044,76 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>669.4262044372838</v>
+        <v>3873.571530742372</v>
       </c>
       <c r="C24" t="n">
-        <v>551.9203009547886</v>
+        <v>3756.065627259877</v>
       </c>
       <c r="D24" t="n">
-        <v>448.0803424700736</v>
+        <v>3652.225668775162</v>
       </c>
       <c r="E24" t="n">
-        <v>343.3784087430108</v>
+        <v>3547.5237350481</v>
       </c>
       <c r="F24" t="n">
-        <v>249.7325784259149</v>
+        <v>3453.877904731004</v>
       </c>
       <c r="G24" t="n">
-        <v>155.678806643519</v>
+        <v>3359.824132948608</v>
       </c>
       <c r="H24" t="n">
-        <v>102.3027134058285</v>
+        <v>3306.448039710918</v>
       </c>
       <c r="I24" t="n">
-        <v>102.3027134058285</v>
+        <v>3306.448039710918</v>
       </c>
       <c r="J24" t="n">
-        <v>374.0002026854196</v>
+        <v>3306.448039710918</v>
       </c>
       <c r="K24" t="n">
-        <v>964.4851292537592</v>
+        <v>3896.932966279257</v>
       </c>
       <c r="L24" t="n">
-        <v>964.4851292537592</v>
+        <v>3896.932966279257</v>
       </c>
       <c r="M24" t="n">
-        <v>1021.509065974867</v>
+        <v>3896.932966279257</v>
       </c>
       <c r="N24" t="n">
-        <v>1021.509065974867</v>
+        <v>3896.932966279257</v>
       </c>
       <c r="O24" t="n">
-        <v>1910.990343986338</v>
+        <v>3896.932966279257</v>
       </c>
       <c r="P24" t="n">
-        <v>1910.990343986338</v>
+        <v>4568.970883343944</v>
       </c>
       <c r="Q24" t="n">
-        <v>1910.990343986338</v>
+        <v>5033.116360206724</v>
       </c>
       <c r="R24" t="n">
-        <v>1910.990343986338</v>
+        <v>5115.135670291426</v>
       </c>
       <c r="S24" t="n">
-        <v>1829.666096547593</v>
+        <v>5033.811422852681</v>
       </c>
       <c r="T24" t="n">
-        <v>1687.786160845271</v>
+        <v>4891.931487150359</v>
       </c>
       <c r="U24" t="n">
-        <v>1503.017964764908</v>
+        <v>4707.163291069996</v>
       </c>
       <c r="V24" t="n">
-        <v>1298.044825904174</v>
+        <v>4502.190152209263</v>
       </c>
       <c r="W24" t="n">
-        <v>1101.523448737391</v>
+        <v>4305.66877504248</v>
       </c>
       <c r="X24" t="n">
-        <v>938.0461025040541</v>
+        <v>4142.191428809143</v>
       </c>
       <c r="Y24" t="n">
-        <v>798.3532138573465</v>
+        <v>4002.498540162435</v>
       </c>
     </row>
     <row r="25">
@@ -6121,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>4017.903765402536</v>
+        <v>1185.483835930065</v>
       </c>
       <c r="C25" t="n">
-        <v>3845.931202281452</v>
+        <v>1013.511272808981</v>
       </c>
       <c r="D25" t="n">
-        <v>3682.614429408222</v>
+        <v>850.1944999357521</v>
       </c>
       <c r="E25" t="n">
-        <v>3516.406223561076</v>
+        <v>683.9862940886056</v>
       </c>
       <c r="F25" t="n">
-        <v>3344.544449335636</v>
+        <v>512.124519863166</v>
       </c>
       <c r="G25" t="n">
-        <v>3178.287479629868</v>
+        <v>345.8675501573982</v>
       </c>
       <c r="H25" t="n">
-        <v>3034.491211138023</v>
+        <v>202.0712816655526</v>
       </c>
       <c r="I25" t="n">
-        <v>2934.722642878299</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J25" t="n">
-        <v>2992.213971102457</v>
+        <v>159.7940416299865</v>
       </c>
       <c r="K25" t="n">
-        <v>3218.741572308294</v>
+        <v>386.3216428358237</v>
       </c>
       <c r="L25" t="n">
-        <v>3573.430893602715</v>
+        <v>741.0109641302445</v>
       </c>
       <c r="M25" t="n">
-        <v>3964.616688572966</v>
+        <v>1132.196759100495</v>
       </c>
       <c r="N25" t="n">
-        <v>4342.108199449001</v>
+        <v>1509.688269976531</v>
       </c>
       <c r="O25" t="n">
-        <v>4697.536328128765</v>
+        <v>1865.116398656294</v>
       </c>
       <c r="P25" t="n">
-        <v>4988.135540050665</v>
+        <v>2155.715610578195</v>
       </c>
       <c r="Q25" t="n">
-        <v>5115.135670291427</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="R25" t="n">
-        <v>5068.0970569786</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="S25" t="n">
-        <v>4897.962009497735</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="T25" t="n">
-        <v>4676.976398979054</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="U25" t="n">
-        <v>4676.976398979054</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="V25" t="n">
-        <v>4676.976398979054</v>
+        <v>2001.004273426986</v>
       </c>
       <c r="W25" t="n">
-        <v>4676.976398979054</v>
+        <v>1844.556469506584</v>
       </c>
       <c r="X25" t="n">
-        <v>4434.41250242486</v>
+        <v>1601.992572952389</v>
       </c>
       <c r="Y25" t="n">
-        <v>4208.069734114601</v>
+        <v>1375.649804642131</v>
       </c>
     </row>
     <row r="26">
@@ -6200,10 +6202,10 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2540.701498063315</v>
+        <v>2540.701498063316</v>
       </c>
       <c r="C26" t="n">
-        <v>2113.800768076615</v>
+        <v>2113.800768076616</v>
       </c>
       <c r="D26" t="n">
         <v>1690.508147261616</v>
@@ -6212,49 +6214,49 @@
         <v>1264.531207409474</v>
       </c>
       <c r="F26" t="n">
-        <v>839.4070255988736</v>
+        <v>839.4070255988739</v>
       </c>
       <c r="G26" t="n">
-        <v>435.0679631883222</v>
+        <v>435.0679631883225</v>
       </c>
       <c r="H26" t="n">
-        <v>137.1995846623568</v>
+        <v>137.1995846623573</v>
       </c>
       <c r="I26" t="n">
         <v>102.3027134058285</v>
       </c>
       <c r="J26" t="n">
-        <v>102.3027134058285</v>
+        <v>464.906172222724</v>
       </c>
       <c r="K26" t="n">
-        <v>817.8110213813276</v>
+        <v>1180.414480198223</v>
       </c>
       <c r="L26" t="n">
-        <v>1747.436069000604</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="M26" t="n">
-        <v>2751.722170419663</v>
+        <v>2720.098147267828</v>
       </c>
       <c r="N26" t="n">
-        <v>3727.973228906364</v>
+        <v>3696.349205754529</v>
       </c>
       <c r="O26" t="n">
-        <v>4573.117879057176</v>
+        <v>4541.493855905341</v>
       </c>
       <c r="P26" t="n">
-        <v>5115.135670291427</v>
+        <v>4541.493855905341</v>
       </c>
       <c r="Q26" t="n">
-        <v>5115.135670291427</v>
+        <v>4997.579335409524</v>
       </c>
       <c r="R26" t="n">
-        <v>5115.135670291427</v>
+        <v>5115.135670291426</v>
       </c>
       <c r="S26" t="n">
-        <v>5010.768376164568</v>
+        <v>5010.768376164567</v>
       </c>
       <c r="T26" t="n">
-        <v>4789.8428052092</v>
+        <v>4789.842805209199</v>
       </c>
       <c r="U26" t="n">
         <v>4531.487895805612</v>
@@ -6303,25 +6305,25 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J27" t="n">
-        <v>374.0002026854196</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="K27" t="n">
-        <v>964.4851292537592</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="L27" t="n">
-        <v>964.4851292537592</v>
+        <v>939.1015214887346</v>
       </c>
       <c r="M27" t="n">
-        <v>964.4851292537592</v>
+        <v>939.1015214887346</v>
       </c>
       <c r="N27" t="n">
-        <v>964.4851292537592</v>
+        <v>939.1015214887346</v>
       </c>
       <c r="O27" t="n">
-        <v>964.4851292537592</v>
+        <v>1828.582799500206</v>
       </c>
       <c r="P27" t="n">
-        <v>1446.844867123559</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="Q27" t="n">
         <v>1910.990343986338</v>
@@ -6358,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>3278.556980224822</v>
+        <v>1032.493025844838</v>
       </c>
       <c r="C28" t="n">
-        <v>3106.584417103738</v>
+        <v>1013.511272808981</v>
       </c>
       <c r="D28" t="n">
-        <v>3106.584417103738</v>
+        <v>850.1944999357521</v>
       </c>
       <c r="E28" t="n">
-        <v>3106.584417103738</v>
+        <v>683.9862940886056</v>
       </c>
       <c r="F28" t="n">
-        <v>2934.722642878299</v>
+        <v>512.124519863166</v>
       </c>
       <c r="G28" t="n">
-        <v>2934.722642878299</v>
+        <v>345.8675501573982</v>
       </c>
       <c r="H28" t="n">
-        <v>2934.722642878299</v>
+        <v>202.0712816655526</v>
       </c>
       <c r="I28" t="n">
-        <v>2934.722642878299</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J28" t="n">
-        <v>2992.213971102457</v>
+        <v>159.7940416299865</v>
       </c>
       <c r="K28" t="n">
-        <v>3218.741572308294</v>
+        <v>386.3216428358237</v>
       </c>
       <c r="L28" t="n">
-        <v>3573.430893602715</v>
+        <v>741.0109641302445</v>
       </c>
       <c r="M28" t="n">
-        <v>3964.616688572966</v>
+        <v>1132.196759100495</v>
       </c>
       <c r="N28" t="n">
-        <v>4342.108199449001</v>
+        <v>1509.688269976531</v>
       </c>
       <c r="O28" t="n">
-        <v>4697.536328128765</v>
+        <v>1865.116398656294</v>
       </c>
       <c r="P28" t="n">
-        <v>4988.135540050665</v>
+        <v>2155.715610578195</v>
       </c>
       <c r="Q28" t="n">
-        <v>5115.135670291427</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="R28" t="n">
-        <v>5068.0970569786</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="S28" t="n">
-        <v>4897.962009497735</v>
+        <v>2112.580693338092</v>
       </c>
       <c r="T28" t="n">
-        <v>4654.622661723635</v>
+        <v>1869.241345563992</v>
       </c>
       <c r="U28" t="n">
-        <v>4374.43821322394</v>
+        <v>1589.056897064296</v>
       </c>
       <c r="V28" t="n">
-        <v>4092.726745831969</v>
+        <v>1307.345429672325</v>
       </c>
       <c r="W28" t="n">
-        <v>3817.874342004482</v>
+        <v>1032.493025844838</v>
       </c>
       <c r="X28" t="n">
-        <v>3575.310445450287</v>
+        <v>1032.493025844838</v>
       </c>
       <c r="Y28" t="n">
-        <v>3348.967677140029</v>
+        <v>1032.493025844838</v>
       </c>
     </row>
     <row r="29">
@@ -6437,10 +6439,10 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2540.701498063315</v>
+        <v>2540.701498063316</v>
       </c>
       <c r="C29" t="n">
-        <v>2113.800768076615</v>
+        <v>2113.800768076616</v>
       </c>
       <c r="D29" t="n">
         <v>1690.508147261616</v>
@@ -6449,13 +6451,13 @@
         <v>1264.531207409474</v>
       </c>
       <c r="F29" t="n">
-        <v>839.4070255988736</v>
+        <v>839.4070255988738</v>
       </c>
       <c r="G29" t="n">
-        <v>435.0679631883222</v>
+        <v>435.0679631883225</v>
       </c>
       <c r="H29" t="n">
-        <v>137.1995846623568</v>
+        <v>137.1995846623573</v>
       </c>
       <c r="I29" t="n">
         <v>102.3027134058285</v>
@@ -6464,34 +6466,34 @@
         <v>102.3027134058285</v>
       </c>
       <c r="K29" t="n">
-        <v>102.3027134058285</v>
+        <v>817.8110213813276</v>
       </c>
       <c r="L29" t="n">
-        <v>1007.532766690843</v>
+        <v>1747.436069000604</v>
       </c>
       <c r="M29" t="n">
-        <v>2011.818868109901</v>
+        <v>2751.722170419663</v>
       </c>
       <c r="N29" t="n">
-        <v>2988.069926596602</v>
+        <v>3727.973228906364</v>
       </c>
       <c r="O29" t="n">
-        <v>3833.214576747414</v>
+        <v>4573.117879057176</v>
       </c>
       <c r="P29" t="n">
-        <v>4541.493855905342</v>
+        <v>5115.135670291426</v>
       </c>
       <c r="Q29" t="n">
-        <v>4997.579335409525</v>
+        <v>5115.135670291426</v>
       </c>
       <c r="R29" t="n">
-        <v>5115.135670291427</v>
+        <v>5115.135670291426</v>
       </c>
       <c r="S29" t="n">
-        <v>5010.768376164568</v>
+        <v>5010.768376164567</v>
       </c>
       <c r="T29" t="n">
-        <v>4789.8428052092</v>
+        <v>4789.842805209199</v>
       </c>
       <c r="U29" t="n">
         <v>4531.487895805612</v>
@@ -6543,10 +6545,10 @@
         <v>102.3027134058285</v>
       </c>
       <c r="K30" t="n">
-        <v>102.3027134058285</v>
+        <v>692.7876399741681</v>
       </c>
       <c r="L30" t="n">
-        <v>102.3027134058285</v>
+        <v>821.6753975134684</v>
       </c>
       <c r="M30" t="n">
         <v>821.6753975134684</v>
@@ -6595,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>1185.483835930065</v>
+        <v>3817.874342004481</v>
       </c>
       <c r="C31" t="n">
-        <v>1013.511272808982</v>
+        <v>3645.901778883397</v>
       </c>
       <c r="D31" t="n">
-        <v>850.1944999357522</v>
+        <v>3482.585006010168</v>
       </c>
       <c r="E31" t="n">
-        <v>683.9862940886057</v>
+        <v>3316.376800163021</v>
       </c>
       <c r="F31" t="n">
-        <v>512.1245198631661</v>
+        <v>3144.515025937582</v>
       </c>
       <c r="G31" t="n">
-        <v>345.8675501573982</v>
+        <v>2978.258056231814</v>
       </c>
       <c r="H31" t="n">
-        <v>202.0712816655526</v>
+        <v>2934.722642878298</v>
       </c>
       <c r="I31" t="n">
-        <v>102.3027134058285</v>
+        <v>2934.722642878298</v>
       </c>
       <c r="J31" t="n">
-        <v>159.7940416299866</v>
+        <v>2992.213971102456</v>
       </c>
       <c r="K31" t="n">
-        <v>386.3216428358238</v>
+        <v>3218.741572308293</v>
       </c>
       <c r="L31" t="n">
-        <v>741.0109641302445</v>
+        <v>3573.430893602714</v>
       </c>
       <c r="M31" t="n">
-        <v>1132.196759100495</v>
+        <v>3964.616688572965</v>
       </c>
       <c r="N31" t="n">
-        <v>1509.688269976531</v>
+        <v>4342.108199449</v>
       </c>
       <c r="O31" t="n">
-        <v>1865.116398656294</v>
+        <v>4697.536328128764</v>
       </c>
       <c r="P31" t="n">
-        <v>2155.715610578195</v>
+        <v>4988.135540050665</v>
       </c>
       <c r="Q31" t="n">
-        <v>2282.715740818957</v>
+        <v>5115.135670291426</v>
       </c>
       <c r="R31" t="n">
-        <v>2282.715740818957</v>
+        <v>5068.0970569786</v>
       </c>
       <c r="S31" t="n">
-        <v>2282.715740818957</v>
+        <v>4897.962009497734</v>
       </c>
       <c r="T31" t="n">
-        <v>2282.715740818957</v>
+        <v>4654.622661723634</v>
       </c>
       <c r="U31" t="n">
-        <v>2002.531292319261</v>
+        <v>4374.438213223939</v>
       </c>
       <c r="V31" t="n">
-        <v>2002.531292319261</v>
+        <v>4092.726745831968</v>
       </c>
       <c r="W31" t="n">
-        <v>1727.678888491774</v>
+        <v>3817.874342004481</v>
       </c>
       <c r="X31" t="n">
-        <v>1485.114991937579</v>
+        <v>3817.874342004481</v>
       </c>
       <c r="Y31" t="n">
-        <v>1375.649804642131</v>
+        <v>3817.874342004481</v>
       </c>
     </row>
     <row r="32">
@@ -6674,10 +6676,10 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2540.701498063315</v>
+        <v>2540.701498063316</v>
       </c>
       <c r="C32" t="n">
-        <v>2113.800768076615</v>
+        <v>2113.800768076616</v>
       </c>
       <c r="D32" t="n">
         <v>1690.508147261616</v>
@@ -6686,13 +6688,13 @@
         <v>1264.531207409474</v>
       </c>
       <c r="F32" t="n">
-        <v>839.4070255988736</v>
+        <v>839.4070255988739</v>
       </c>
       <c r="G32" t="n">
-        <v>435.0679631883222</v>
+        <v>435.0679631883225</v>
       </c>
       <c r="H32" t="n">
-        <v>137.1995846623568</v>
+        <v>137.1995846623573</v>
       </c>
       <c r="I32" t="n">
         <v>102.3027134058285</v>
@@ -6716,19 +6718,19 @@
         <v>4573.117879057176</v>
       </c>
       <c r="P32" t="n">
-        <v>5115.135670291427</v>
+        <v>4997.579335409524</v>
       </c>
       <c r="Q32" t="n">
-        <v>5115.135670291427</v>
+        <v>4997.579335409524</v>
       </c>
       <c r="R32" t="n">
-        <v>5115.135670291427</v>
+        <v>5115.135670291426</v>
       </c>
       <c r="S32" t="n">
-        <v>5010.768376164568</v>
+        <v>5010.768376164567</v>
       </c>
       <c r="T32" t="n">
-        <v>4789.8428052092</v>
+        <v>4789.842805209199</v>
       </c>
       <c r="U32" t="n">
         <v>4531.487895805612</v>
@@ -6777,28 +6779,28 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J33" t="n">
-        <v>102.3027134058285</v>
+        <v>374.0002026854196</v>
       </c>
       <c r="K33" t="n">
-        <v>102.3027134058285</v>
+        <v>964.4851292537592</v>
       </c>
       <c r="L33" t="n">
-        <v>939.1015214887346</v>
+        <v>964.4851292537592</v>
       </c>
       <c r="M33" t="n">
-        <v>939.1015214887346</v>
+        <v>964.4851292537592</v>
       </c>
       <c r="N33" t="n">
-        <v>1021.509065974867</v>
+        <v>964.4851292537592</v>
       </c>
       <c r="O33" t="n">
-        <v>1910.990343986338</v>
+        <v>964.4851292537592</v>
       </c>
       <c r="P33" t="n">
-        <v>1910.990343986338</v>
+        <v>1364.825557038856</v>
       </c>
       <c r="Q33" t="n">
-        <v>1910.990343986338</v>
+        <v>1828.971033901635</v>
       </c>
       <c r="R33" t="n">
         <v>1910.990343986338</v>
@@ -6832,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>373.4203922683193</v>
+        <v>3901.026184387725</v>
       </c>
       <c r="C34" t="n">
-        <v>274.1644876312681</v>
+        <v>3729.053621266641</v>
       </c>
       <c r="D34" t="n">
-        <v>274.1644876312681</v>
+        <v>3565.736848393412</v>
       </c>
       <c r="E34" t="n">
-        <v>274.1644876312681</v>
+        <v>3399.528642546265</v>
       </c>
       <c r="F34" t="n">
-        <v>102.3027134058285</v>
+        <v>3227.666868320826</v>
       </c>
       <c r="G34" t="n">
-        <v>102.3027134058285</v>
+        <v>3061.409898615058</v>
       </c>
       <c r="H34" t="n">
-        <v>102.3027134058285</v>
+        <v>2934.722642878298</v>
       </c>
       <c r="I34" t="n">
-        <v>102.3027134058285</v>
+        <v>2934.722642878298</v>
       </c>
       <c r="J34" t="n">
-        <v>159.7940416299866</v>
+        <v>2992.213971102456</v>
       </c>
       <c r="K34" t="n">
-        <v>386.3216428358238</v>
+        <v>3218.741572308293</v>
       </c>
       <c r="L34" t="n">
-        <v>741.0109641302445</v>
+        <v>3573.430893602714</v>
       </c>
       <c r="M34" t="n">
-        <v>1132.196759100495</v>
+        <v>3964.616688572965</v>
       </c>
       <c r="N34" t="n">
-        <v>1509.688269976531</v>
+        <v>4342.108199449</v>
       </c>
       <c r="O34" t="n">
-        <v>1865.116398656294</v>
+        <v>4697.536328128764</v>
       </c>
       <c r="P34" t="n">
-        <v>2155.715610578195</v>
+        <v>4988.135540050665</v>
       </c>
       <c r="Q34" t="n">
-        <v>2282.715740818957</v>
+        <v>5115.135670291426</v>
       </c>
       <c r="R34" t="n">
-        <v>2282.715740818957</v>
+        <v>5115.135670291426</v>
       </c>
       <c r="S34" t="n">
-        <v>2112.580693338092</v>
+        <v>5115.135670291426</v>
       </c>
       <c r="T34" t="n">
-        <v>1869.241345563992</v>
+        <v>5115.135670291426</v>
       </c>
       <c r="U34" t="n">
-        <v>1589.056897064296</v>
+        <v>4834.951221791731</v>
       </c>
       <c r="V34" t="n">
-        <v>1307.345429672325</v>
+        <v>4834.951221791731</v>
       </c>
       <c r="W34" t="n">
-        <v>1032.493025844838</v>
+        <v>4560.098817964244</v>
       </c>
       <c r="X34" t="n">
-        <v>789.9291292906429</v>
+        <v>4317.534921410049</v>
       </c>
       <c r="Y34" t="n">
-        <v>563.5863609803849</v>
+        <v>4091.192153099791</v>
       </c>
     </row>
     <row r="35">
@@ -6911,10 +6913,10 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2540.701498063315</v>
+        <v>2540.701498063316</v>
       </c>
       <c r="C35" t="n">
-        <v>2113.800768076615</v>
+        <v>2113.800768076616</v>
       </c>
       <c r="D35" t="n">
         <v>1690.508147261616</v>
@@ -6923,49 +6925,49 @@
         <v>1264.531207409474</v>
       </c>
       <c r="F35" t="n">
-        <v>839.4070255988736</v>
+        <v>839.4070255988739</v>
       </c>
       <c r="G35" t="n">
-        <v>435.0679631883222</v>
+        <v>435.0679631883225</v>
       </c>
       <c r="H35" t="n">
-        <v>137.1995846623568</v>
+        <v>137.1995846623573</v>
       </c>
       <c r="I35" t="n">
         <v>102.3027134058285</v>
       </c>
       <c r="J35" t="n">
-        <v>464.9061722227241</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="K35" t="n">
-        <v>1180.414480198223</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="L35" t="n">
-        <v>2110.0395278175</v>
+        <v>1031.927761025105</v>
       </c>
       <c r="M35" t="n">
-        <v>3114.325629236558</v>
+        <v>2036.213862444163</v>
       </c>
       <c r="N35" t="n">
-        <v>4090.576687723259</v>
+        <v>3012.464920930865</v>
       </c>
       <c r="O35" t="n">
-        <v>4935.721337874071</v>
+        <v>3857.609571081677</v>
       </c>
       <c r="P35" t="n">
-        <v>4935.721337874071</v>
+        <v>4541.493855905341</v>
       </c>
       <c r="Q35" t="n">
-        <v>5115.135670291427</v>
+        <v>4997.579335409524</v>
       </c>
       <c r="R35" t="n">
-        <v>5115.135670291427</v>
+        <v>5115.135670291426</v>
       </c>
       <c r="S35" t="n">
-        <v>5010.768376164568</v>
+        <v>5010.768376164567</v>
       </c>
       <c r="T35" t="n">
-        <v>4789.8428052092</v>
+        <v>4789.842805209199</v>
       </c>
       <c r="U35" t="n">
         <v>4531.487895805612</v>
@@ -7017,25 +7019,25 @@
         <v>102.3027134058285</v>
       </c>
       <c r="K36" t="n">
-        <v>102.3027134058285</v>
+        <v>692.7876399741681</v>
       </c>
       <c r="L36" t="n">
-        <v>102.3027134058285</v>
+        <v>692.7876399741681</v>
       </c>
       <c r="M36" t="n">
-        <v>821.6753975134684</v>
+        <v>692.7876399741681</v>
       </c>
       <c r="N36" t="n">
-        <v>1910.990343986338</v>
+        <v>692.7876399741681</v>
       </c>
       <c r="O36" t="n">
-        <v>1910.990343986338</v>
+        <v>692.7876399741681</v>
       </c>
       <c r="P36" t="n">
-        <v>1910.990343986338</v>
+        <v>1364.825557038856</v>
       </c>
       <c r="Q36" t="n">
-        <v>1910.990343986338</v>
+        <v>1828.971033901635</v>
       </c>
       <c r="R36" t="n">
         <v>1910.990343986338</v>
@@ -7069,19 +7071,19 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>881.4746279705485</v>
+        <v>775.6620294727279</v>
       </c>
       <c r="C37" t="n">
-        <v>709.5020648494644</v>
+        <v>603.6894663516439</v>
       </c>
       <c r="D37" t="n">
-        <v>606.6296631841825</v>
+        <v>440.3726934784146</v>
       </c>
       <c r="E37" t="n">
-        <v>440.421457337036</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="F37" t="n">
-        <v>268.5596831115964</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="G37" t="n">
         <v>102.3027134058285</v>
@@ -7093,10 +7095,10 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J37" t="n">
-        <v>159.7940416299866</v>
+        <v>159.7940416299865</v>
       </c>
       <c r="K37" t="n">
-        <v>386.3216428358238</v>
+        <v>386.3216428358237</v>
       </c>
       <c r="L37" t="n">
         <v>741.0109641302445</v>
@@ -7120,25 +7122,25 @@
         <v>2282.715740818957</v>
       </c>
       <c r="S37" t="n">
-        <v>2112.580693338092</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="T37" t="n">
-        <v>1869.241345563992</v>
+        <v>2271.4829827684</v>
       </c>
       <c r="U37" t="n">
-        <v>1589.056897064296</v>
+        <v>1991.298534268705</v>
       </c>
       <c r="V37" t="n">
-        <v>1589.056897064296</v>
+        <v>1709.587066876733</v>
       </c>
       <c r="W37" t="n">
-        <v>1314.204493236809</v>
+        <v>1434.734663049246</v>
       </c>
       <c r="X37" t="n">
-        <v>1071.640596682614</v>
+        <v>1192.170766495052</v>
       </c>
       <c r="Y37" t="n">
-        <v>1071.640596682614</v>
+        <v>965.8279981847936</v>
       </c>
     </row>
     <row r="38">
@@ -7160,7 +7162,7 @@
         <v>1264.531207409474</v>
       </c>
       <c r="F38" t="n">
-        <v>839.4070255988738</v>
+        <v>839.4070255988739</v>
       </c>
       <c r="G38" t="n">
         <v>435.0679631883225</v>
@@ -7175,40 +7177,40 @@
         <v>102.3027134058285</v>
       </c>
       <c r="K38" t="n">
-        <v>817.8110213813276</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="L38" t="n">
-        <v>1747.436069000604</v>
+        <v>1031.927761025105</v>
       </c>
       <c r="M38" t="n">
-        <v>2751.722170419663</v>
+        <v>2036.213862444163</v>
       </c>
       <c r="N38" t="n">
-        <v>3727.973228906364</v>
+        <v>3012.464920930865</v>
       </c>
       <c r="O38" t="n">
-        <v>4573.117879057176</v>
+        <v>3857.609571081677</v>
       </c>
       <c r="P38" t="n">
-        <v>5115.135670291427</v>
+        <v>4565.888850239604</v>
       </c>
       <c r="Q38" t="n">
-        <v>5115.135670291427</v>
+        <v>5021.974329743787</v>
       </c>
       <c r="R38" t="n">
-        <v>5115.135670291427</v>
+        <v>5115.135670291426</v>
       </c>
       <c r="S38" t="n">
-        <v>5010.768376164568</v>
+        <v>5010.768376164567</v>
       </c>
       <c r="T38" t="n">
-        <v>4789.8428052092</v>
+        <v>4789.842805209199</v>
       </c>
       <c r="U38" t="n">
         <v>4531.487895805612</v>
       </c>
       <c r="V38" t="n">
-        <v>4173.998480931862</v>
+        <v>4173.998480931861</v>
       </c>
       <c r="W38" t="n">
         <v>3777.607131232208</v>
@@ -7251,25 +7253,25 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J39" t="n">
-        <v>102.3027134058285</v>
+        <v>374.0002026854196</v>
       </c>
       <c r="K39" t="n">
-        <v>102.3027134058285</v>
+        <v>374.0002026854196</v>
       </c>
       <c r="L39" t="n">
-        <v>939.1015214887346</v>
+        <v>374.0002026854196</v>
       </c>
       <c r="M39" t="n">
-        <v>939.1015214887346</v>
+        <v>374.0002026854196</v>
       </c>
       <c r="N39" t="n">
-        <v>939.1015214887346</v>
+        <v>1463.315149158289</v>
       </c>
       <c r="O39" t="n">
-        <v>1446.844867123559</v>
+        <v>1463.315149158289</v>
       </c>
       <c r="P39" t="n">
-        <v>1446.844867123559</v>
+        <v>1463.315149158289</v>
       </c>
       <c r="Q39" t="n">
         <v>1910.990343986338</v>
@@ -7306,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>3200.748180843791</v>
+        <v>3158.801708427963</v>
       </c>
       <c r="C40" t="n">
-        <v>3200.748180843791</v>
+        <v>2986.829145306879</v>
       </c>
       <c r="D40" t="n">
-        <v>3200.748180843791</v>
+        <v>2934.722642878298</v>
       </c>
       <c r="E40" t="n">
-        <v>3200.748180843791</v>
+        <v>2934.722642878298</v>
       </c>
       <c r="F40" t="n">
-        <v>3200.748180843791</v>
+        <v>2934.722642878298</v>
       </c>
       <c r="G40" t="n">
-        <v>3034.491211138023</v>
+        <v>2934.722642878298</v>
       </c>
       <c r="H40" t="n">
-        <v>3034.491211138023</v>
+        <v>2934.722642878298</v>
       </c>
       <c r="I40" t="n">
-        <v>2934.722642878299</v>
+        <v>2934.722642878298</v>
       </c>
       <c r="J40" t="n">
-        <v>2992.213971102457</v>
+        <v>2992.213971102456</v>
       </c>
       <c r="K40" t="n">
-        <v>3218.741572308294</v>
+        <v>3218.741572308293</v>
       </c>
       <c r="L40" t="n">
-        <v>3573.430893602715</v>
+        <v>3573.430893602714</v>
       </c>
       <c r="M40" t="n">
-        <v>3964.616688572966</v>
+        <v>3964.616688572965</v>
       </c>
       <c r="N40" t="n">
-        <v>4342.108199449001</v>
+        <v>4342.108199449</v>
       </c>
       <c r="O40" t="n">
-        <v>4697.536328128765</v>
+        <v>4697.536328128764</v>
       </c>
       <c r="P40" t="n">
         <v>4988.135540050665</v>
       </c>
       <c r="Q40" t="n">
-        <v>5115.135670291427</v>
+        <v>5115.135670291426</v>
       </c>
       <c r="R40" t="n">
         <v>5068.0970569786</v>
       </c>
       <c r="S40" t="n">
-        <v>4897.962009497735</v>
+        <v>4897.962009497734</v>
       </c>
       <c r="T40" t="n">
-        <v>4654.622661723635</v>
+        <v>4654.622661723634</v>
       </c>
       <c r="U40" t="n">
-        <v>4374.43821322394</v>
+        <v>4374.438213223939</v>
       </c>
       <c r="V40" t="n">
-        <v>4092.726745831969</v>
+        <v>4092.726745831968</v>
       </c>
       <c r="W40" t="n">
-        <v>3817.874342004482</v>
+        <v>3817.874342004481</v>
       </c>
       <c r="X40" t="n">
-        <v>3575.310445450287</v>
+        <v>3575.310445450286</v>
       </c>
       <c r="Y40" t="n">
-        <v>3348.967677140029</v>
+        <v>3348.967677140028</v>
       </c>
     </row>
     <row r="41">
@@ -7385,76 +7387,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1887.633065434934</v>
+        <v>2503.578858279949</v>
       </c>
       <c r="C41" t="n">
-        <v>1460.732335448234</v>
+        <v>2076.678128293249</v>
       </c>
       <c r="D41" t="n">
-        <v>1460.732335448234</v>
+        <v>1653.385507478249</v>
       </c>
       <c r="E41" t="n">
-        <v>1034.755395596091</v>
+        <v>1227.408567626107</v>
       </c>
       <c r="F41" t="n">
-        <v>609.6312137854914</v>
+        <v>802.2843858155068</v>
       </c>
       <c r="G41" t="n">
-        <v>205.29215137494</v>
+        <v>397.9453234049553</v>
       </c>
       <c r="H41" t="n">
-        <v>64.68215049679215</v>
+        <v>100.0769448789902</v>
       </c>
       <c r="I41" t="n">
-        <v>64.68215049679215</v>
+        <v>100.0769448789902</v>
       </c>
       <c r="J41" t="n">
-        <v>64.68215049679215</v>
+        <v>462.6804036958857</v>
       </c>
       <c r="K41" t="n">
-        <v>780.1904584722912</v>
+        <v>1178.188711671385</v>
       </c>
       <c r="L41" t="n">
-        <v>780.1904584722912</v>
+        <v>2107.813759290661</v>
       </c>
       <c r="M41" t="n">
-        <v>1151.744818897791</v>
+        <v>3112.09986070972</v>
       </c>
       <c r="N41" t="n">
-        <v>1952.186431295594</v>
+        <v>4088.350919196421</v>
       </c>
       <c r="O41" t="n">
-        <v>1952.186431295594</v>
+        <v>4547.761764445326</v>
       </c>
       <c r="P41" t="n">
-        <v>2660.465710453521</v>
+        <v>4547.761764445326</v>
       </c>
       <c r="Q41" t="n">
-        <v>3116.551189957705</v>
+        <v>5003.847243949509</v>
       </c>
       <c r="R41" t="n">
-        <v>3234.107524839607</v>
+        <v>5003.847243949509</v>
       </c>
       <c r="S41" t="n">
-        <v>3129.740230712748</v>
+        <v>4899.479949822649</v>
       </c>
       <c r="T41" t="n">
-        <v>2908.814659757381</v>
+        <v>4752.720165425832</v>
       </c>
       <c r="U41" t="n">
-        <v>2650.459750353793</v>
+        <v>4494.365256022244</v>
       </c>
       <c r="V41" t="n">
-        <v>2292.970335480043</v>
+        <v>4136.875841148494</v>
       </c>
       <c r="W41" t="n">
-        <v>2292.970335480043</v>
+        <v>3740.484491448841</v>
       </c>
       <c r="X41" t="n">
-        <v>2292.970335480043</v>
+        <v>3328.764492616588</v>
       </c>
       <c r="Y41" t="n">
-        <v>1887.633065434934</v>
+        <v>2923.427222571479</v>
       </c>
     </row>
     <row r="42">
@@ -7464,76 +7466,76 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>631.8056415282474</v>
+        <v>667.2004359104454</v>
       </c>
       <c r="C42" t="n">
-        <v>514.2997380457522</v>
+        <v>549.6945324279502</v>
       </c>
       <c r="D42" t="n">
-        <v>410.4597795610372</v>
+        <v>445.8545739432352</v>
       </c>
       <c r="E42" t="n">
-        <v>305.7578458339744</v>
+        <v>341.1526402161724</v>
       </c>
       <c r="F42" t="n">
-        <v>212.1120155168786</v>
+        <v>247.5068098990766</v>
       </c>
       <c r="G42" t="n">
-        <v>118.0582437344826</v>
+        <v>153.4530381166806</v>
       </c>
       <c r="H42" t="n">
-        <v>64.68215049679215</v>
+        <v>100.0769448789902</v>
       </c>
       <c r="I42" t="n">
-        <v>64.68215049679215</v>
+        <v>100.0769448789902</v>
       </c>
       <c r="J42" t="n">
-        <v>64.68215049679215</v>
+        <v>100.0769448789902</v>
       </c>
       <c r="K42" t="n">
-        <v>655.1670770651317</v>
+        <v>100.0769448789902</v>
       </c>
       <c r="L42" t="n">
-        <v>1409.224304214523</v>
+        <v>100.0769448789902</v>
       </c>
       <c r="M42" t="n">
-        <v>1409.224304214523</v>
+        <v>1156.063482855035</v>
       </c>
       <c r="N42" t="n">
-        <v>1409.224304214523</v>
+        <v>1156.063482855035</v>
       </c>
       <c r="O42" t="n">
-        <v>1409.224304214523</v>
+        <v>1908.7645754595</v>
       </c>
       <c r="P42" t="n">
-        <v>1409.224304214523</v>
+        <v>1908.7645754595</v>
       </c>
       <c r="Q42" t="n">
-        <v>1873.369781077302</v>
+        <v>1908.7645754595</v>
       </c>
       <c r="R42" t="n">
-        <v>1873.369781077302</v>
+        <v>1908.7645754595</v>
       </c>
       <c r="S42" t="n">
-        <v>1792.045533638556</v>
+        <v>1827.440328020755</v>
       </c>
       <c r="T42" t="n">
-        <v>1650.165597936235</v>
+        <v>1685.560392318433</v>
       </c>
       <c r="U42" t="n">
-        <v>1465.397401855871</v>
+        <v>1500.792196238069</v>
       </c>
       <c r="V42" t="n">
-        <v>1260.424262995137</v>
+        <v>1295.819057377336</v>
       </c>
       <c r="W42" t="n">
-        <v>1063.902885828355</v>
+        <v>1099.297680210553</v>
       </c>
       <c r="X42" t="n">
-        <v>900.4255395950178</v>
+        <v>935.8203339772158</v>
       </c>
       <c r="Y42" t="n">
-        <v>760.7326509483102</v>
+        <v>796.1274453305082</v>
       </c>
     </row>
     <row r="43">
@@ -7543,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>646.3657311795693</v>
+        <v>3158.723552530694</v>
       </c>
       <c r="C43" t="n">
-        <v>646.3657311795693</v>
+        <v>2986.75098940961</v>
       </c>
       <c r="D43" t="n">
-        <v>646.3657311795693</v>
+        <v>2823.434216536381</v>
       </c>
       <c r="E43" t="n">
-        <v>646.3657311795693</v>
+        <v>2823.434216536381</v>
       </c>
       <c r="F43" t="n">
-        <v>474.5039569541296</v>
+        <v>2823.434216536381</v>
       </c>
       <c r="G43" t="n">
-        <v>308.2469872483618</v>
+        <v>2823.434216536381</v>
       </c>
       <c r="H43" t="n">
-        <v>164.4507187565162</v>
+        <v>2823.434216536381</v>
       </c>
       <c r="I43" t="n">
-        <v>64.68215049679215</v>
+        <v>2823.434216536381</v>
       </c>
       <c r="J43" t="n">
-        <v>122.1734787209502</v>
+        <v>2880.925544760539</v>
       </c>
       <c r="K43" t="n">
-        <v>348.7010799267873</v>
+        <v>3107.453145966376</v>
       </c>
       <c r="L43" t="n">
-        <v>703.3904012212081</v>
+        <v>3462.142467260797</v>
       </c>
       <c r="M43" t="n">
-        <v>1094.576196191459</v>
+        <v>3853.328262231048</v>
       </c>
       <c r="N43" t="n">
-        <v>1472.067707067495</v>
+        <v>4230.819773107083</v>
       </c>
       <c r="O43" t="n">
-        <v>1827.495835747258</v>
+        <v>4586.247901786846</v>
       </c>
       <c r="P43" t="n">
-        <v>2118.095047669159</v>
+        <v>4876.847113708747</v>
       </c>
       <c r="Q43" t="n">
-        <v>2245.09517790992</v>
+        <v>5003.847243949509</v>
       </c>
       <c r="R43" t="n">
-        <v>2198.056564597094</v>
+        <v>5003.847243949509</v>
       </c>
       <c r="S43" t="n">
-        <v>2027.921517116229</v>
+        <v>4833.712196468644</v>
       </c>
       <c r="T43" t="n">
-        <v>2027.921517116229</v>
+        <v>4590.372848694544</v>
       </c>
       <c r="U43" t="n">
-        <v>1862.002235975546</v>
+        <v>4310.188400194848</v>
       </c>
       <c r="V43" t="n">
-        <v>1580.290768583575</v>
+        <v>4028.476932802877</v>
       </c>
       <c r="W43" t="n">
-        <v>1305.438364756088</v>
+        <v>3753.624528975391</v>
       </c>
       <c r="X43" t="n">
-        <v>1062.874468201893</v>
+        <v>3511.060632421196</v>
       </c>
       <c r="Y43" t="n">
-        <v>836.5316998916348</v>
+        <v>3284.717864110938</v>
       </c>
     </row>
     <row r="44">
@@ -7622,76 +7624,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1342.684002146234</v>
+        <v>2503.578858279949</v>
       </c>
       <c r="C44" t="n">
-        <v>915.7832721595344</v>
+        <v>2076.678128293249</v>
       </c>
       <c r="D44" t="n">
-        <v>915.7832721595344</v>
+        <v>1653.385507478249</v>
       </c>
       <c r="E44" t="n">
-        <v>489.8063323073919</v>
+        <v>1227.408567626107</v>
       </c>
       <c r="F44" t="n">
-        <v>64.68215049679215</v>
+        <v>802.2843858155068</v>
       </c>
       <c r="G44" t="n">
-        <v>64.68215049679215</v>
+        <v>397.9453234049553</v>
       </c>
       <c r="H44" t="n">
-        <v>64.68215049679215</v>
+        <v>100.0769448789902</v>
       </c>
       <c r="I44" t="n">
-        <v>64.68215049679215</v>
+        <v>100.0769448789902</v>
       </c>
       <c r="J44" t="n">
-        <v>427.2856093136876</v>
+        <v>462.6804036958857</v>
       </c>
       <c r="K44" t="n">
-        <v>427.2856093136876</v>
+        <v>1178.188711671385</v>
       </c>
       <c r="L44" t="n">
-        <v>1059.582485657916</v>
+        <v>2107.813759290661</v>
       </c>
       <c r="M44" t="n">
-        <v>1860.024098055718</v>
+        <v>2876.781500254684</v>
       </c>
       <c r="N44" t="n">
-        <v>1860.024098055718</v>
+        <v>2876.781500254684</v>
       </c>
       <c r="O44" t="n">
-        <v>2660.465710453521</v>
+        <v>3721.926150405496</v>
       </c>
       <c r="P44" t="n">
-        <v>2660.465710453521</v>
+        <v>4430.205429563423</v>
       </c>
       <c r="Q44" t="n">
-        <v>3116.551189957705</v>
+        <v>4886.290909067607</v>
       </c>
       <c r="R44" t="n">
-        <v>3234.107524839607</v>
+        <v>5003.847243949509</v>
       </c>
       <c r="S44" t="n">
-        <v>3234.107524839607</v>
+        <v>4899.479949822649</v>
       </c>
       <c r="T44" t="n">
-        <v>3234.107524839607</v>
+        <v>4678.554378867282</v>
       </c>
       <c r="U44" t="n">
-        <v>2975.980985014779</v>
+        <v>4420.199469463694</v>
       </c>
       <c r="V44" t="n">
-        <v>2975.980985014779</v>
+        <v>4062.710054589944</v>
       </c>
       <c r="W44" t="n">
-        <v>2579.589635315127</v>
+        <v>3740.484491448841</v>
       </c>
       <c r="X44" t="n">
-        <v>2167.869636482874</v>
+        <v>3328.764492616588</v>
       </c>
       <c r="Y44" t="n">
-        <v>1762.532366437764</v>
+        <v>2923.427222571479</v>
       </c>
     </row>
     <row r="45">
@@ -7701,76 +7703,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>631.8056415282474</v>
+        <v>667.2004359104454</v>
       </c>
       <c r="C45" t="n">
-        <v>514.2997380457522</v>
+        <v>549.6945324279502</v>
       </c>
       <c r="D45" t="n">
-        <v>410.4597795610372</v>
+        <v>445.8545739432352</v>
       </c>
       <c r="E45" t="n">
-        <v>305.7578458339744</v>
+        <v>341.1526402161724</v>
       </c>
       <c r="F45" t="n">
-        <v>212.1120155168786</v>
+        <v>247.5068098990766</v>
       </c>
       <c r="G45" t="n">
-        <v>118.0582437344826</v>
+        <v>153.4530381166806</v>
       </c>
       <c r="H45" t="n">
-        <v>64.68215049679215</v>
+        <v>100.0769448789902</v>
       </c>
       <c r="I45" t="n">
-        <v>64.68215049679215</v>
+        <v>107.523587840902</v>
       </c>
       <c r="J45" t="n">
-        <v>64.68215049679215</v>
+        <v>379.2210771204931</v>
       </c>
       <c r="K45" t="n">
-        <v>64.68215049679215</v>
+        <v>969.7060036888327</v>
       </c>
       <c r="L45" t="n">
-        <v>272.4865562816963</v>
+        <v>969.7060036888327</v>
       </c>
       <c r="M45" t="n">
-        <v>1072.928168679499</v>
+        <v>969.7060036888327</v>
       </c>
       <c r="N45" t="n">
-        <v>1873.369781077302</v>
+        <v>969.7060036888327</v>
       </c>
       <c r="O45" t="n">
-        <v>1873.369781077302</v>
+        <v>1444.619098596721</v>
       </c>
       <c r="P45" t="n">
-        <v>1873.369781077302</v>
+        <v>1444.619098596721</v>
       </c>
       <c r="Q45" t="n">
-        <v>1873.369781077302</v>
+        <v>1908.7645754595</v>
       </c>
       <c r="R45" t="n">
-        <v>1873.369781077302</v>
+        <v>1908.7645754595</v>
       </c>
       <c r="S45" t="n">
-        <v>1792.045533638556</v>
+        <v>1827.440328020755</v>
       </c>
       <c r="T45" t="n">
-        <v>1650.165597936235</v>
+        <v>1685.560392318433</v>
       </c>
       <c r="U45" t="n">
-        <v>1465.397401855871</v>
+        <v>1500.792196238069</v>
       </c>
       <c r="V45" t="n">
-        <v>1260.424262995137</v>
+        <v>1295.819057377336</v>
       </c>
       <c r="W45" t="n">
-        <v>1063.902885828355</v>
+        <v>1099.297680210553</v>
       </c>
       <c r="X45" t="n">
-        <v>900.4255395950178</v>
+        <v>935.8203339772158</v>
       </c>
       <c r="Y45" t="n">
-        <v>760.7326509483102</v>
+        <v>796.1274453305082</v>
       </c>
     </row>
     <row r="46">
@@ -7780,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>1147.863273021029</v>
+        <v>541.3296712223462</v>
       </c>
       <c r="C46" t="n">
-        <v>975.890709899945</v>
+        <v>369.3571081012622</v>
       </c>
       <c r="D46" t="n">
-        <v>812.5739370267157</v>
+        <v>206.0403352280329</v>
       </c>
       <c r="E46" t="n">
-        <v>646.3657311795693</v>
+        <v>100.0769448789902</v>
       </c>
       <c r="F46" t="n">
-        <v>474.5039569541296</v>
+        <v>100.0769448789902</v>
       </c>
       <c r="G46" t="n">
-        <v>308.2469872483618</v>
+        <v>100.0769448789902</v>
       </c>
       <c r="H46" t="n">
-        <v>164.4507187565162</v>
+        <v>100.0769448789902</v>
       </c>
       <c r="I46" t="n">
-        <v>64.68215049679215</v>
+        <v>100.0769448789902</v>
       </c>
       <c r="J46" t="n">
-        <v>122.1734787209502</v>
+        <v>157.5682731031482</v>
       </c>
       <c r="K46" t="n">
-        <v>348.7010799267873</v>
+        <v>384.0958743089853</v>
       </c>
       <c r="L46" t="n">
-        <v>703.3904012212081</v>
+        <v>738.7851956034061</v>
       </c>
       <c r="M46" t="n">
-        <v>1094.576196191459</v>
+        <v>1129.970990573657</v>
       </c>
       <c r="N46" t="n">
-        <v>1472.067707067495</v>
+        <v>1507.462501449693</v>
       </c>
       <c r="O46" t="n">
-        <v>1827.495835747258</v>
+        <v>1862.890630129456</v>
       </c>
       <c r="P46" t="n">
-        <v>2118.095047669159</v>
+        <v>2153.489842051357</v>
       </c>
       <c r="Q46" t="n">
-        <v>2245.09517790992</v>
+        <v>2280.489972292119</v>
       </c>
       <c r="R46" t="n">
-        <v>2198.056564597094</v>
+        <v>2280.489972292119</v>
       </c>
       <c r="S46" t="n">
-        <v>2027.921517116229</v>
+        <v>2280.489972292119</v>
       </c>
       <c r="T46" t="n">
-        <v>2027.921517116229</v>
+        <v>2037.150624518019</v>
       </c>
       <c r="U46" t="n">
-        <v>2027.921517116229</v>
+        <v>1756.966176018323</v>
       </c>
       <c r="V46" t="n">
-        <v>2027.921517116229</v>
+        <v>1475.254708626352</v>
       </c>
       <c r="W46" t="n">
-        <v>1806.935906597548</v>
+        <v>1200.402304798865</v>
       </c>
       <c r="X46" t="n">
-        <v>1564.372010043353</v>
+        <v>957.8384082446697</v>
       </c>
       <c r="Y46" t="n">
-        <v>1338.029241733095</v>
+        <v>731.4956399344118</v>
       </c>
     </row>
   </sheetData>
@@ -7976,31 +7978,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>102.4815180266284</v>
+        <v>29.41995948558652</v>
       </c>
       <c r="K2" t="n">
-        <v>591.9924139104035</v>
+        <v>591.9924139104033</v>
       </c>
       <c r="L2" t="n">
         <v>38.31204243262292</v>
       </c>
       <c r="M2" t="n">
-        <v>37.43126289943181</v>
+        <v>593.6590760150258</v>
       </c>
       <c r="N2" t="n">
-        <v>593.5074359500402</v>
+        <v>37.27962283444602</v>
       </c>
       <c r="O2" t="n">
-        <v>37.3909593560241</v>
+        <v>547.9365584046774</v>
       </c>
       <c r="P2" t="n">
-        <v>593.8031749258255</v>
+        <v>37.5753618102313</v>
       </c>
       <c r="Q2" t="n">
         <v>496.8170781441769</v>
       </c>
       <c r="R2" t="n">
-        <v>35.03264989479647</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -8052,34 +8054,34 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J3" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K3" t="n">
-        <v>268.0669951958125</v>
+        <v>578.6270469489274</v>
       </c>
       <c r="L3" t="n">
         <v>22.51508671422956</v>
       </c>
       <c r="M3" t="n">
-        <v>23.09678051232798</v>
+        <v>579.324593627922</v>
       </c>
       <c r="N3" t="n">
-        <v>577.5708413291358</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O3" t="n">
         <v>23.17188972222222</v>
       </c>
       <c r="P3" t="n">
-        <v>577.9986543204228</v>
+        <v>371.4608596749575</v>
       </c>
       <c r="Q3" t="n">
-        <v>491.5808533018869</v>
+        <v>22.7470382889785</v>
       </c>
       <c r="R3" t="n">
-        <v>23.67291939414415</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -8213,22 +8215,22 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K5" t="n">
-        <v>591.9924139104035</v>
+        <v>180.0440798263965</v>
       </c>
       <c r="L5" t="n">
         <v>38.31204243262292</v>
       </c>
       <c r="M5" t="n">
-        <v>37.43126289943181</v>
+        <v>593.6590760150259</v>
       </c>
       <c r="N5" t="n">
-        <v>110.3411813754879</v>
+        <v>37.27962283444602</v>
       </c>
       <c r="O5" t="n">
-        <v>593.6187724716183</v>
+        <v>37.3909593560241</v>
       </c>
       <c r="P5" t="n">
         <v>593.8031749258255</v>
@@ -8237,7 +8239,7 @@
         <v>496.8170781441769</v>
       </c>
       <c r="R5" t="n">
-        <v>35.03264989479647</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -8292,28 +8294,28 @@
         <v>16.17238675</v>
       </c>
       <c r="J6" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K6" t="n">
         <v>22.39923383333334</v>
       </c>
       <c r="L6" t="n">
-        <v>180.7888499740227</v>
+        <v>578.7428998298237</v>
       </c>
       <c r="M6" t="n">
         <v>23.09678051232798</v>
       </c>
       <c r="N6" t="n">
-        <v>577.5708413291358</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O6" t="n">
-        <v>579.3997028378163</v>
+        <v>23.17188972222222</v>
       </c>
       <c r="P6" t="n">
-        <v>577.9986543204228</v>
+        <v>549.2245073196783</v>
       </c>
       <c r="Q6" t="n">
-        <v>22.7470382889785</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R6" t="n">
         <v>23.67291939414415</v>
@@ -8456,7 +8458,7 @@
         <v>591.9924139104035</v>
       </c>
       <c r="L8" t="n">
-        <v>38.31204243262292</v>
+        <v>87.05611188819479</v>
       </c>
       <c r="M8" t="n">
         <v>593.6590760150259</v>
@@ -8465,7 +8467,7 @@
         <v>593.5074359500402</v>
       </c>
       <c r="O8" t="n">
-        <v>86.13502881159596</v>
+        <v>37.3909593560241</v>
       </c>
       <c r="P8" t="n">
         <v>37.5753618102313</v>
@@ -8526,10 +8528,10 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>23.69424832768873</v>
+        <v>16.17238675</v>
       </c>
       <c r="J9" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K9" t="n">
         <v>578.6270469489275</v>
@@ -8538,22 +8540,22 @@
         <v>22.51508671422956</v>
       </c>
       <c r="M9" t="n">
-        <v>23.09678051232798</v>
+        <v>550.5504466271776</v>
       </c>
       <c r="N9" t="n">
-        <v>577.5708413291358</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O9" t="n">
-        <v>91.07600343998001</v>
+        <v>23.17188972222222</v>
       </c>
       <c r="P9" t="n">
-        <v>577.9986543204228</v>
+        <v>21.77084120482866</v>
       </c>
       <c r="Q9" t="n">
-        <v>22.7470382889785</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R9" t="n">
-        <v>106.5207073584907</v>
+        <v>23.67291939414415</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -8693,16 +8695,16 @@
         <v>758.5002654165255</v>
       </c>
       <c r="L11" t="n">
-        <v>166.0971297967712</v>
+        <v>977.3272420480539</v>
       </c>
       <c r="M11" t="n">
-        <v>37.43126289943181</v>
+        <v>814.1663547822824</v>
       </c>
       <c r="N11" t="n">
         <v>37.27962283444602</v>
       </c>
       <c r="O11" t="n">
-        <v>845.9178405659259</v>
+        <v>891.0724241548241</v>
       </c>
       <c r="P11" t="n">
         <v>753.0089771212694</v>
@@ -8711,7 +8713,7 @@
         <v>496.8170781441769</v>
       </c>
       <c r="R11" t="n">
-        <v>35.03264989479647</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -8772,19 +8774,19 @@
         <v>22.39923383333334</v>
       </c>
       <c r="L12" t="n">
-        <v>22.51508671422956</v>
+        <v>867.7664080100944</v>
       </c>
       <c r="M12" t="n">
         <v>23.09678051232798</v>
       </c>
       <c r="N12" t="n">
-        <v>570.9395345973069</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O12" t="n">
-        <v>831.698770932124</v>
+        <v>23.17188972222222</v>
       </c>
       <c r="P12" t="n">
-        <v>21.77084120482866</v>
+        <v>534.6429075026311</v>
       </c>
       <c r="Q12" t="n">
         <v>491.5808533018869</v>
@@ -8927,28 +8929,28 @@
         <v>29.41995948558652</v>
       </c>
       <c r="K14" t="n">
-        <v>692.8799566205706</v>
+        <v>758.5002654165255</v>
       </c>
       <c r="L14" t="n">
-        <v>846.8389236425247</v>
+        <v>977.3272420480539</v>
       </c>
       <c r="M14" t="n">
-        <v>845.9581441093336</v>
+        <v>1051.861668373228</v>
       </c>
       <c r="N14" t="n">
-        <v>845.8065040443479</v>
+        <v>1023.391803124043</v>
       </c>
       <c r="O14" t="n">
-        <v>37.3909593560241</v>
+        <v>891.0724241548241</v>
       </c>
       <c r="P14" t="n">
-        <v>37.5753618102313</v>
+        <v>474.9037794053545</v>
       </c>
       <c r="Q14" t="n">
         <v>36.12467460459804</v>
       </c>
       <c r="R14" t="n">
-        <v>153.7764225027789</v>
+        <v>35.03264989479647</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -9003,28 +9005,28 @@
         <v>16.17238675</v>
       </c>
       <c r="J15" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K15" t="n">
-        <v>22.39923383333334</v>
+        <v>618.848654609434</v>
       </c>
       <c r="L15" t="n">
-        <v>317.513370698279</v>
+        <v>22.51508671422956</v>
       </c>
       <c r="M15" t="n">
         <v>23.09678051232798</v>
       </c>
       <c r="N15" t="n">
-        <v>829.8699094234435</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O15" t="n">
         <v>23.17188972222222</v>
       </c>
       <c r="P15" t="n">
-        <v>745.2028786174529</v>
+        <v>509.002899659172</v>
       </c>
       <c r="Q15" t="n">
-        <v>22.7470382889785</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R15" t="n">
         <v>23.67291939414415</v>
@@ -9161,10 +9163,10 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>395.6860795026527</v>
+        <v>29.41995948558652</v>
       </c>
       <c r="K17" t="n">
-        <v>758.5002654165255</v>
+        <v>471.8155959159405</v>
       </c>
       <c r="L17" t="n">
         <v>977.3272420480539</v>
@@ -9179,13 +9181,13 @@
         <v>891.0724241548241</v>
       </c>
       <c r="P17" t="n">
-        <v>218.8019602116015</v>
+        <v>753.0089771212694</v>
       </c>
       <c r="Q17" t="n">
         <v>36.12467460459804</v>
       </c>
       <c r="R17" t="n">
-        <v>35.03264989479647</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -9249,13 +9251,13 @@
         <v>22.51508671422956</v>
       </c>
       <c r="M18" t="n">
-        <v>749.7358553685299</v>
+        <v>951.5880457335786</v>
       </c>
       <c r="N18" t="n">
-        <v>1121.661155963915</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O18" t="n">
-        <v>23.17188972222222</v>
+        <v>921.6378271075471</v>
       </c>
       <c r="P18" t="n">
         <v>21.77084120482866</v>
@@ -9416,7 +9418,7 @@
         <v>891.0724241548241</v>
       </c>
       <c r="P20" t="n">
-        <v>585.0680802286672</v>
+        <v>585.0680802286663</v>
       </c>
       <c r="Q20" t="n">
         <v>36.12467460459804</v>
@@ -9477,31 +9479,31 @@
         <v>16.17238675</v>
       </c>
       <c r="J21" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K21" t="n">
-        <v>22.39923383333334</v>
+        <v>618.848654609434</v>
       </c>
       <c r="L21" t="n">
         <v>22.51508671422956</v>
       </c>
       <c r="M21" t="n">
-        <v>749.7358553685299</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N21" t="n">
-        <v>1121.661155963915</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O21" t="n">
-        <v>23.17188972222222</v>
+        <v>172.957937812503</v>
       </c>
       <c r="P21" t="n">
-        <v>21.77084120482866</v>
+        <v>745.2028786174529</v>
       </c>
       <c r="Q21" t="n">
         <v>22.7470382889785</v>
       </c>
       <c r="R21" t="n">
-        <v>23.67291939414415</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9653,13 +9655,13 @@
         <v>891.0724241548241</v>
       </c>
       <c r="P23" t="n">
-        <v>466.324307620685</v>
+        <v>585.0680802286663</v>
       </c>
       <c r="Q23" t="n">
         <v>36.12467460459804</v>
       </c>
       <c r="R23" t="n">
-        <v>153.7764225027789</v>
+        <v>35.03264989479647</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9714,7 +9716,7 @@
         <v>16.17238675</v>
       </c>
       <c r="J24" t="n">
-        <v>295.0530226965566</v>
+        <v>20.61111433333334</v>
       </c>
       <c r="K24" t="n">
         <v>618.848654609434</v>
@@ -9723,22 +9725,22 @@
         <v>22.51508671422956</v>
       </c>
       <c r="M24" t="n">
-        <v>80.69671659425472</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N24" t="n">
         <v>21.34302821354166</v>
       </c>
       <c r="O24" t="n">
-        <v>921.6378271075471</v>
+        <v>23.17188972222222</v>
       </c>
       <c r="P24" t="n">
-        <v>21.77084120482866</v>
+        <v>700.5970200580479</v>
       </c>
       <c r="Q24" t="n">
-        <v>22.7470382889785</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R24" t="n">
-        <v>23.67291939414415</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9872,7 +9874,7 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K26" t="n">
         <v>758.5002654165255</v>
@@ -9881,7 +9883,7 @@
         <v>977.3272420480539</v>
       </c>
       <c r="M26" t="n">
-        <v>1051.861668373228</v>
+        <v>653.6520906270358</v>
       </c>
       <c r="N26" t="n">
         <v>1023.391803124043</v>
@@ -9890,13 +9892,13 @@
         <v>891.0724241548241</v>
       </c>
       <c r="P26" t="n">
-        <v>585.0680802286672</v>
+        <v>37.5753618102313</v>
       </c>
       <c r="Q26" t="n">
-        <v>36.12467460459804</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R26" t="n">
-        <v>35.03264989479647</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -9951,13 +9953,13 @@
         <v>16.17238675</v>
       </c>
       <c r="J27" t="n">
-        <v>295.0530226965566</v>
+        <v>20.61111433333334</v>
       </c>
       <c r="K27" t="n">
-        <v>618.848654609434</v>
+        <v>22.39923383333334</v>
       </c>
       <c r="L27" t="n">
-        <v>22.51508671422956</v>
+        <v>867.7664080100944</v>
       </c>
       <c r="M27" t="n">
         <v>23.09678051232798</v>
@@ -9966,13 +9968,13 @@
         <v>21.34302821354166</v>
       </c>
       <c r="O27" t="n">
-        <v>23.17188972222222</v>
+        <v>921.6378271075471</v>
       </c>
       <c r="P27" t="n">
-        <v>509.0028996591719</v>
+        <v>105.0107851302144</v>
       </c>
       <c r="Q27" t="n">
-        <v>491.5808533018869</v>
+        <v>22.7470382889785</v>
       </c>
       <c r="R27" t="n">
         <v>23.67291939414415</v>
@@ -10112,10 +10114,10 @@
         <v>29.41995948558652</v>
       </c>
       <c r="K29" t="n">
-        <v>35.76460079480934</v>
+        <v>758.5002654165255</v>
       </c>
       <c r="L29" t="n">
-        <v>952.6858336296069</v>
+        <v>977.3272420480539</v>
       </c>
       <c r="M29" t="n">
         <v>1051.861668373228</v>
@@ -10127,13 +10129,13 @@
         <v>891.0724241548241</v>
       </c>
       <c r="P29" t="n">
-        <v>753.0089771212694</v>
+        <v>585.0680802286663</v>
       </c>
       <c r="Q29" t="n">
-        <v>496.8170781441769</v>
+        <v>36.12467460459804</v>
       </c>
       <c r="R29" t="n">
-        <v>153.7764225027789</v>
+        <v>35.03264989479647</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10191,13 +10193,13 @@
         <v>20.61111433333334</v>
       </c>
       <c r="K30" t="n">
-        <v>22.39923383333334</v>
+        <v>618.848654609434</v>
       </c>
       <c r="L30" t="n">
-        <v>22.51508671422956</v>
+        <v>152.7047407943309</v>
       </c>
       <c r="M30" t="n">
-        <v>749.7358553685299</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N30" t="n">
         <v>1121.661155963915</v>
@@ -10364,13 +10366,13 @@
         <v>891.0724241548241</v>
       </c>
       <c r="P32" t="n">
-        <v>585.0680802286672</v>
+        <v>466.3243076206841</v>
       </c>
       <c r="Q32" t="n">
         <v>36.12467460459804</v>
       </c>
       <c r="R32" t="n">
-        <v>35.03264989479647</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10425,31 +10427,31 @@
         <v>16.17238675</v>
       </c>
       <c r="J33" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K33" t="n">
-        <v>22.39923383333334</v>
+        <v>618.848654609434</v>
       </c>
       <c r="L33" t="n">
-        <v>867.7664080100944</v>
+        <v>22.51508671422956</v>
       </c>
       <c r="M33" t="n">
         <v>23.09678051232798</v>
       </c>
       <c r="N33" t="n">
-        <v>104.5829721389275</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O33" t="n">
-        <v>921.6378271075471</v>
+        <v>23.17188972222222</v>
       </c>
       <c r="P33" t="n">
-        <v>21.77084120482866</v>
+        <v>426.1551116948253</v>
       </c>
       <c r="Q33" t="n">
-        <v>22.7470382889785</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R33" t="n">
-        <v>23.67291939414415</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10583,10 +10585,10 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>395.6860795026527</v>
+        <v>29.41995948558652</v>
       </c>
       <c r="K35" t="n">
-        <v>758.5002654165255</v>
+        <v>35.76460079480934</v>
       </c>
       <c r="L35" t="n">
         <v>977.3272420480539</v>
@@ -10601,13 +10603,13 @@
         <v>891.0724241548241</v>
       </c>
       <c r="P35" t="n">
-        <v>37.5753618102313</v>
+        <v>728.3675687028212</v>
       </c>
       <c r="Q35" t="n">
-        <v>217.3512730059682</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R35" t="n">
-        <v>35.03264989479647</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10665,28 +10667,28 @@
         <v>20.61111433333334</v>
       </c>
       <c r="K36" t="n">
-        <v>22.39923383333334</v>
+        <v>618.848654609434</v>
       </c>
       <c r="L36" t="n">
         <v>22.51508671422956</v>
       </c>
       <c r="M36" t="n">
-        <v>749.7358553685299</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N36" t="n">
-        <v>1121.661155963915</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O36" t="n">
         <v>23.17188972222222</v>
       </c>
       <c r="P36" t="n">
-        <v>21.77084120482866</v>
+        <v>700.5970200580485</v>
       </c>
       <c r="Q36" t="n">
-        <v>22.7470382889785</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R36" t="n">
-        <v>23.67291939414415</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10823,7 +10825,7 @@
         <v>29.41995948558652</v>
       </c>
       <c r="K38" t="n">
-        <v>758.5002654165255</v>
+        <v>35.76460079480934</v>
       </c>
       <c r="L38" t="n">
         <v>977.3272420480539</v>
@@ -10838,13 +10840,13 @@
         <v>891.0724241548241</v>
       </c>
       <c r="P38" t="n">
-        <v>585.0680802286672</v>
+        <v>753.0089771212694</v>
       </c>
       <c r="Q38" t="n">
-        <v>36.12467460459804</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R38" t="n">
-        <v>35.03264989479647</v>
+        <v>129.135014084331</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -10899,28 +10901,28 @@
         <v>16.17238675</v>
       </c>
       <c r="J39" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K39" t="n">
         <v>22.39923383333334</v>
       </c>
       <c r="L39" t="n">
-        <v>867.7664080100944</v>
+        <v>22.51508671422956</v>
       </c>
       <c r="M39" t="n">
         <v>23.09678051232798</v>
       </c>
       <c r="N39" t="n">
-        <v>21.34302821354166</v>
+        <v>1121.661155963915</v>
       </c>
       <c r="O39" t="n">
-        <v>536.0439560200246</v>
+        <v>23.17188972222222</v>
       </c>
       <c r="P39" t="n">
         <v>21.77084120482866</v>
       </c>
       <c r="Q39" t="n">
-        <v>491.5808533018869</v>
+        <v>474.9442047819572</v>
       </c>
       <c r="R39" t="n">
         <v>23.67291939414415</v>
@@ -11057,31 +11059,31 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K41" t="n">
         <v>758.5002654165255</v>
       </c>
       <c r="L41" t="n">
-        <v>38.31204243262292</v>
+        <v>977.3272420480539</v>
       </c>
       <c r="M41" t="n">
-        <v>412.7386976726637</v>
+        <v>1051.861668373228</v>
       </c>
       <c r="N41" t="n">
-        <v>845.8065040443479</v>
+        <v>1023.391803124043</v>
       </c>
       <c r="O41" t="n">
-        <v>37.3909593560241</v>
+        <v>501.4423181933018</v>
       </c>
       <c r="P41" t="n">
-        <v>753.0089771212694</v>
+        <v>37.5753618102313</v>
       </c>
       <c r="Q41" t="n">
         <v>496.8170781441769</v>
       </c>
       <c r="R41" t="n">
-        <v>153.7764225027789</v>
+        <v>35.03264989479647</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11139,25 +11141,25 @@
         <v>20.61111433333334</v>
       </c>
       <c r="K42" t="n">
-        <v>618.848654609434</v>
+        <v>22.39923383333334</v>
       </c>
       <c r="L42" t="n">
-        <v>784.1890535317962</v>
+        <v>22.51508671422956</v>
       </c>
       <c r="M42" t="n">
-        <v>23.09678051232798</v>
+        <v>1089.749849175</v>
       </c>
       <c r="N42" t="n">
         <v>21.34302821354166</v>
       </c>
       <c r="O42" t="n">
-        <v>23.17188972222222</v>
+        <v>783.476023666126</v>
       </c>
       <c r="P42" t="n">
         <v>21.77084120482866</v>
       </c>
       <c r="Q42" t="n">
-        <v>491.5808533018869</v>
+        <v>22.7470382889785</v>
       </c>
       <c r="R42" t="n">
         <v>23.67291939414415</v>
@@ -11297,22 +11299,22 @@
         <v>395.6860795026527</v>
       </c>
       <c r="K44" t="n">
-        <v>35.76460079480934</v>
+        <v>758.5002654165255</v>
       </c>
       <c r="L44" t="n">
-        <v>676.995755911641</v>
+        <v>977.3272420480539</v>
       </c>
       <c r="M44" t="n">
-        <v>845.9581441093336</v>
+        <v>814.1663547822824</v>
       </c>
       <c r="N44" t="n">
         <v>37.27962283444602</v>
       </c>
       <c r="O44" t="n">
-        <v>845.9178405659259</v>
+        <v>891.0724241548241</v>
       </c>
       <c r="P44" t="n">
-        <v>37.5753618102313</v>
+        <v>753.0089771212694</v>
       </c>
       <c r="Q44" t="n">
         <v>496.8170781441769</v>
@@ -11370,31 +11372,31 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J45" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K45" t="n">
-        <v>22.39923383333334</v>
+        <v>618.848654609434</v>
       </c>
       <c r="L45" t="n">
-        <v>232.4185269010014</v>
+        <v>22.51508671422956</v>
       </c>
       <c r="M45" t="n">
-        <v>831.6236617222298</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N45" t="n">
-        <v>829.8699094234435</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O45" t="n">
-        <v>23.17188972222222</v>
+        <v>502.8820865988768</v>
       </c>
       <c r="P45" t="n">
         <v>21.77084120482866</v>
       </c>
       <c r="Q45" t="n">
-        <v>22.7470382889785</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R45" t="n">
         <v>23.67291939414415</v>
@@ -23258,22 +23260,22 @@
         <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>422.6317226868329</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>421.717170453621</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>317.2504544234184</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>107.9720312369283</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -23312,7 +23314,7 @@
         <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>255.7713603095518</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -23321,7 +23323,7 @@
         <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>407.6027988439302</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
         <v>0</v>
@@ -23413,28 +23415,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>161.683605144497</v>
+        <v>110.0981677402027</v>
       </c>
       <c r="E13" t="n">
         <v>164.546123788675</v>
       </c>
       <c r="F13" t="n">
-        <v>165.764160956837</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23495,22 +23497,22 @@
         <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>279.8909026866036</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
         <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>421.717170453621</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>420.8729399924937</v>
+        <v>107.9720312369283</v>
       </c>
       <c r="G14" t="n">
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>294.8896947407055</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -23558,7 +23560,7 @@
         <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>407.6027988439302</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
         <v>0</v>
@@ -23656,16 +23658,16 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>110.0981677402027</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G16" t="n">
-        <v>98.59602262526643</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H16" t="n">
         <v>142.3583058069271</v>
@@ -23698,7 +23700,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -23716,10 +23718,10 @@
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>240.1382575886529</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>224.0793406271554</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -23890,7 +23892,7 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
@@ -23935,28 +23937,28 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>117.2205539080143</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>216.0406006991457</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="20">
@@ -24130,7 +24132,7 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>110.0981677402028</v>
       </c>
       <c r="E22" t="n">
         <v>164.546123788675</v>
@@ -24139,7 +24141,7 @@
         <v>170.1431564831852</v>
       </c>
       <c r="G22" t="n">
-        <v>59.69064356315758</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H22" t="n">
         <v>142.3583058069271</v>
@@ -24172,10 +24174,10 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
@@ -24409,22 +24411,22 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T25" t="n">
-        <v>22.1301998828649</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U25" t="n">
         <v>277.3826040146988</v>
       </c>
       <c r="V25" t="n">
-        <v>278.8943527180514</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>272.1038797892121</v>
+        <v>117.2205539080143</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
@@ -24598,28 +24600,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>118.5577190788904</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>151.4609019843753</v>
       </c>
       <c r="D28" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24646,7 +24648,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
@@ -24664,10 +24666,10 @@
         <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="29">
@@ -24835,7 +24837,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
@@ -24853,10 +24855,10 @@
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>99.2582465869462</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24883,28 +24885,28 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>278.8943527180514</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
         <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y31" t="n">
-        <v>115.7088052046616</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="32">
@@ -25075,22 +25077,22 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>71.98949189919249</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>142.3583058069271</v>
+        <v>16.93792262753465</v>
       </c>
       <c r="I34" t="n">
         <v>98.77088257712678</v>
@@ -25123,16 +25125,16 @@
         <v>46.56822717969858</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W34" t="n">
         <v>0</v>
@@ -25315,7 +25317,7 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>59.8399274958679</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
@@ -25324,7 +25326,7 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H37" t="n">
         <v>142.3583058069271</v>
@@ -25360,16 +25362,16 @@
         <v>46.56822717969858</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>229.7855238263079</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>278.8943527180514</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
         <v>0</v>
@@ -25378,7 +25380,7 @@
         <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>224.0793406271554</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -25546,13 +25548,13 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>41.52700769166887</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>161.683605144497</v>
+        <v>110.098167740202</v>
       </c>
       <c r="E40" t="n">
         <v>164.546123788675</v>
@@ -25561,13 +25563,13 @@
         <v>170.1431564831852</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H40" t="n">
         <v>142.3583058069271</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25625,13 +25627,13 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>415.6498806486147</v>
+        <v>0</v>
       </c>
       <c r="C41" t="n">
         <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>419.0596946068497</v>
+        <v>0</v>
       </c>
       <c r="E41" t="n">
         <v>0</v>
@@ -25643,7 +25645,7 @@
         <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>155.6857938713392</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
         <v>34.5479025439635</v>
@@ -25679,7 +25681,7 @@
         <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>73.42412869296442</v>
       </c>
       <c r="U41" t="n">
         <v>0</v>
@@ -25688,10 +25690,10 @@
         <v>0</v>
       </c>
       <c r="W41" t="n">
-        <v>392.4274362026566</v>
+        <v>0</v>
       </c>
       <c r="X41" t="n">
-        <v>407.6027988439302</v>
+        <v>0</v>
       </c>
       <c r="Y41" t="n">
         <v>0</v>
@@ -25783,28 +25785,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>63.52994056050353</v>
       </c>
       <c r="C43" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
         <v>164.546123788675</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25831,16 +25833,16 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>113.1225156854227</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -25868,7 +25870,7 @@
         <v>0</v>
       </c>
       <c r="D44" t="n">
-        <v>419.0596946068497</v>
+        <v>0</v>
       </c>
       <c r="E44" t="n">
         <v>0</v>
@@ -25877,10 +25879,10 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>400.2956717864458</v>
+        <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>294.8896947407055</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
         <v>34.5479025439635</v>
@@ -25913,19 +25915,19 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>103.323621185591</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>218.7163152458132</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>0.2260858829722281</v>
+        <v>0</v>
       </c>
       <c r="V44" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W44" t="n">
-        <v>0</v>
+        <v>73.42412869296453</v>
       </c>
       <c r="X44" t="n">
         <v>0</v>
@@ -26029,19 +26031,19 @@
         <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>59.64236734312273</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26068,22 +26070,22 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T46" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>278.8943527180514</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>53.32812537571778</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
         <v>0</v>
@@ -26147,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>522102.8309287423</v>
+        <v>693360.7310321606</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>522102.8309287423</v>
+        <v>693360.7310321606</v>
       </c>
     </row>
     <row r="7">
@@ -26171,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>704130.1238390965</v>
+        <v>704130.1238390964</v>
       </c>
     </row>
     <row r="9">
@@ -26195,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>704130.1238390965</v>
+        <v>704130.1238390964</v>
       </c>
     </row>
     <row r="12">
@@ -26203,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>704130.1238390964</v>
+        <v>704130.1238390965</v>
       </c>
     </row>
     <row r="13">
@@ -26211,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>704130.1238390964</v>
+        <v>704130.1238390965</v>
       </c>
     </row>
     <row r="14">
@@ -26227,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>522102.8309287424</v>
+        <v>693360.7310321607</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>522102.8309287424</v>
+        <v>693360.7310321607</v>
       </c>
     </row>
   </sheetData>
@@ -26311,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>378587.7342072562</v>
+        <v>378587.7342072561</v>
       </c>
       <c r="C2" t="n">
         <v>378587.7342072559</v>
       </c>
       <c r="D2" t="n">
-        <v>378587.7342072561</v>
+        <v>378587.7342072559</v>
       </c>
       <c r="E2" t="n">
-        <v>270895.6328017849</v>
+        <v>359733.2891431421</v>
       </c>
       <c r="F2" t="n">
-        <v>270895.632801785</v>
+        <v>359733.2891431421</v>
       </c>
       <c r="G2" t="n">
         <v>365319.7620393408</v>
       </c>
       <c r="H2" t="n">
+        <v>365319.7620393407</v>
+      </c>
+      <c r="I2" t="n">
+        <v>365319.7620393406</v>
+      </c>
+      <c r="J2" t="n">
+        <v>365319.7620393407</v>
+      </c>
+      <c r="K2" t="n">
+        <v>365319.7620393407</v>
+      </c>
+      <c r="L2" t="n">
         <v>365319.7620393408</v>
-      </c>
-      <c r="I2" t="n">
-        <v>365319.7620393408</v>
-      </c>
-      <c r="J2" t="n">
-        <v>365319.7620393409</v>
-      </c>
-      <c r="K2" t="n">
-        <v>365319.7620393409</v>
-      </c>
-      <c r="L2" t="n">
-        <v>365319.7620393409</v>
       </c>
       <c r="M2" t="n">
         <v>365319.7620393408</v>
       </c>
       <c r="N2" t="n">
-        <v>365319.7620393408</v>
+        <v>365319.7620393407</v>
       </c>
       <c r="O2" t="n">
-        <v>270895.632801785</v>
+        <v>359733.2891431423</v>
       </c>
       <c r="P2" t="n">
-        <v>270895.6328017849</v>
+        <v>359733.2891431421</v>
       </c>
     </row>
     <row r="3">
@@ -26372,13 +26374,13 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>75330.9511534622</v>
+        <v>207432.2876165613</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>128890.3998115405</v>
+        <v>7625.622083481104</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26396,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>62873.93696537385</v>
+        <v>173130.4912056398</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26424,40 +26426,40 @@
         <v>191243.7287526203</v>
       </c>
       <c r="E4" t="n">
-        <v>64241.80185904328</v>
+        <v>85368.2252784991</v>
       </c>
       <c r="F4" t="n">
-        <v>64241.80185904327</v>
+        <v>85368.22527849913</v>
       </c>
       <c r="G4" t="n">
-        <v>86696.74064784776</v>
+        <v>86696.74064784775</v>
       </c>
       <c r="H4" t="n">
-        <v>86696.74064784776</v>
+        <v>86696.74064784775</v>
       </c>
       <c r="I4" t="n">
         <v>86696.74064784776</v>
       </c>
       <c r="J4" t="n">
+        <v>86696.74064784775</v>
+      </c>
+      <c r="K4" t="n">
         <v>86696.74064784776</v>
-      </c>
-      <c r="K4" t="n">
-        <v>86696.74064784778</v>
       </c>
       <c r="L4" t="n">
         <v>86696.74064784776</v>
       </c>
       <c r="M4" t="n">
-        <v>86696.74064784778</v>
+        <v>86696.74064784776</v>
       </c>
       <c r="N4" t="n">
-        <v>86696.74064784776</v>
+        <v>86696.74064784775</v>
       </c>
       <c r="O4" t="n">
-        <v>64241.80185904328</v>
+        <v>85368.2252784991</v>
       </c>
       <c r="P4" t="n">
-        <v>64241.80185904328</v>
+        <v>85368.2252784991</v>
       </c>
     </row>
     <row r="5">
@@ -26467,7 +26469,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>67446.25103742813</v>
+        <v>67446.25103742811</v>
       </c>
       <c r="C5" t="n">
         <v>67446.25103742813</v>
@@ -26476,40 +26478,40 @@
         <v>67446.25103742813</v>
       </c>
       <c r="E5" t="n">
-        <v>49158.43437756203</v>
+        <v>76058.47810803253</v>
       </c>
       <c r="F5" t="n">
-        <v>49158.43437756203</v>
+        <v>76058.47810803253</v>
       </c>
       <c r="G5" t="n">
-        <v>77750.06218842969</v>
+        <v>77750.06218842967</v>
       </c>
       <c r="H5" t="n">
-        <v>77750.06218842969</v>
+        <v>77750.06218842967</v>
       </c>
       <c r="I5" t="n">
-        <v>77750.06218842969</v>
+        <v>77750.06218842967</v>
       </c>
       <c r="J5" t="n">
-        <v>77750.06218842969</v>
+        <v>77750.06218842967</v>
       </c>
       <c r="K5" t="n">
-        <v>77750.06218842969</v>
+        <v>77750.06218842967</v>
       </c>
       <c r="L5" t="n">
-        <v>77750.06218842969</v>
+        <v>77750.06218842967</v>
       </c>
       <c r="M5" t="n">
-        <v>77750.06218842969</v>
+        <v>77750.06218842967</v>
       </c>
       <c r="N5" t="n">
-        <v>77750.06218842969</v>
+        <v>77750.06218842967</v>
       </c>
       <c r="O5" t="n">
-        <v>49158.43437756203</v>
+        <v>76058.47810803253</v>
       </c>
       <c r="P5" t="n">
-        <v>49158.43437756203</v>
+        <v>76058.47810803253</v>
       </c>
     </row>
     <row r="6">
@@ -26519,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-66506.97899752948</v>
+        <v>-66506.97899752959</v>
       </c>
       <c r="C6" t="n">
         <v>119897.7544172075</v>
       </c>
       <c r="D6" t="n">
-        <v>119897.7544172076</v>
+        <v>119897.7544172075</v>
       </c>
       <c r="E6" t="n">
-        <v>82164.4454117174</v>
+        <v>-9125.701859950728</v>
       </c>
       <c r="F6" t="n">
-        <v>157495.3965651797</v>
+        <v>198306.5857566104</v>
       </c>
       <c r="G6" t="n">
-        <v>71982.55939152282</v>
+        <v>193247.3371195823</v>
       </c>
       <c r="H6" t="n">
         <v>200872.9592030633</v>
       </c>
       <c r="I6" t="n">
+        <v>200872.9592030632</v>
+      </c>
+      <c r="J6" t="n">
+        <v>55339.28926824685</v>
+      </c>
+      <c r="K6" t="n">
         <v>200872.9592030633</v>
-      </c>
-      <c r="J6" t="n">
-        <v>55339.28926824695</v>
-      </c>
-      <c r="K6" t="n">
-        <v>200872.9592030634</v>
       </c>
       <c r="L6" t="n">
         <v>200872.9592030634</v>
       </c>
       <c r="M6" t="n">
-        <v>137999.0222376895</v>
+        <v>27742.46799742355</v>
       </c>
       <c r="N6" t="n">
         <v>200872.9592030633</v>
       </c>
       <c r="O6" t="n">
-        <v>157495.3965651797</v>
+        <v>198306.5857566107</v>
       </c>
       <c r="P6" t="n">
-        <v>157495.3965651796</v>
+        <v>198306.5857566105</v>
       </c>
     </row>
   </sheetData>
@@ -26787,7 +26789,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>556.2278131155941</v>
+        <v>556.227813115594</v>
       </c>
       <c r="C4" t="n">
         <v>556.2278131155941</v>
@@ -26796,10 +26798,10 @@
         <v>556.2278131155941</v>
       </c>
       <c r="E4" t="n">
-        <v>808.5268812099018</v>
+        <v>1250.961810987377</v>
       </c>
       <c r="F4" t="n">
-        <v>808.5268812099018</v>
+        <v>1250.961810987377</v>
       </c>
       <c r="G4" t="n">
         <v>1278.783917572857</v>
@@ -26826,10 +26828,10 @@
         <v>1278.783917572857</v>
       </c>
       <c r="O4" t="n">
-        <v>808.5268812099018</v>
+        <v>1250.961810987377</v>
       </c>
       <c r="P4" t="n">
-        <v>808.5268812099018</v>
+        <v>1250.961810987377</v>
       </c>
     </row>
   </sheetData>
@@ -27009,7 +27011,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>556.2278131155941</v>
+        <v>556.227813115594</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27018,13 +27020,13 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>252.2990680943076</v>
+        <v>694.733997871783</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>470.257036362955</v>
+        <v>27.82210658547933</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -27033,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>556.2278131155941</v>
+        <v>556.227813115594</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>252.2990680943076</v>
+        <v>694.733997871783</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27255,7 +27257,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>556.2278131155941</v>
+        <v>556.227813115594</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27264,13 +27266,13 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>252.2990680943076</v>
+        <v>694.733997871783</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>470.257036362955</v>
+        <v>27.82210658547933</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27376,28 +27378,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="D2" t="n">
-        <v>400</v>
+        <v>272.3699127117754</v>
       </c>
       <c r="E2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27430,16 +27432,16 @@
         <v>103.323621185591</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>218.7163152458132</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>255.7713603095518</v>
       </c>
       <c r="V2" t="n">
-        <v>273.7967702455328</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W2" t="n">
-        <v>392.4274362026566</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
         <v>400</v>
@@ -27534,7 +27536,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>76.94521197376015</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27546,16 +27548,16 @@
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>4.249871216794162</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27585,13 +27587,13 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -27603,7 +27605,7 @@
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>224.0793406271554</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -27616,10 +27618,10 @@
         <v>400</v>
       </c>
       <c r="C5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
@@ -27631,10 +27633,10 @@
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>294.8896947407055</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27664,13 +27666,13 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>103.323621185591</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>218.7163152458132</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>255.7713603095518</v>
       </c>
       <c r="V5" t="n">
         <v>353.914520725013</v>
@@ -27679,10 +27681,10 @@
         <v>392.4274362026566</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="Y5" t="n">
-        <v>128.316175965405</v>
+        <v>279.9424765091183</v>
       </c>
     </row>
     <row r="6">
@@ -27771,7 +27773,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
@@ -27822,19 +27824,19 @@
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U7" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
         <v>278.8943527180514</v>
       </c>
       <c r="W7" t="n">
-        <v>105.9697706471321</v>
+        <v>162.2770323843603</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
@@ -27850,16 +27852,16 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="C8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
@@ -27868,7 +27870,7 @@
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>294.8896947407055</v>
       </c>
       <c r="I8" t="n">
         <v>34.5479025439635</v>
@@ -27901,10 +27903,10 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>103.323621185591</v>
+        <v>53.8285004100398</v>
       </c>
       <c r="T8" t="n">
-        <v>64.11088921096811</v>
+        <v>218.7163152458132</v>
       </c>
       <c r="U8" t="n">
         <v>255.7713603095518</v>
@@ -27916,7 +27918,7 @@
         <v>392.4274362026566</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="Y8" t="n">
         <v>400</v>
@@ -28020,7 +28022,7 @@
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
@@ -28071,7 +28073,7 @@
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>27.88597268088884</v>
+        <v>198.029129164074</v>
       </c>
       <c r="X10" t="n">
         <v>240.1382575886529</v>
@@ -34696,31 +34698,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>73.06155854104185</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>556.2278131155941</v>
+        <v>556.227813115594</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>556.227813115594</v>
       </c>
       <c r="N2" t="n">
-        <v>556.2278131155941</v>
+        <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>0</v>
+        <v>510.5455990486533</v>
       </c>
       <c r="P2" t="n">
-        <v>556.2278131155941</v>
+        <v>0</v>
       </c>
       <c r="Q2" t="n">
         <v>460.6924035395789</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>118.7437726079824</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34772,34 +34774,34 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K3" t="n">
-        <v>245.6677613624791</v>
+        <v>556.227813115594</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>556.227813115594</v>
       </c>
       <c r="N3" t="n">
-        <v>556.2278131155941</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>556.2278131155941</v>
+        <v>349.6900184701288</v>
       </c>
       <c r="Q3" t="n">
-        <v>468.8338150129084</v>
+        <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>82.84778796434657</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -34933,22 +34935,22 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K5" t="n">
+        <v>144.2794790315872</v>
+      </c>
+      <c r="L5" t="n">
+        <v>0</v>
+      </c>
+      <c r="M5" t="n">
         <v>556.2278131155941</v>
       </c>
-      <c r="L5" t="n">
-        <v>0</v>
-      </c>
-      <c r="M5" t="n">
-        <v>0</v>
-      </c>
       <c r="N5" t="n">
-        <v>73.0615585410419</v>
+        <v>0</v>
       </c>
       <c r="O5" t="n">
-        <v>556.2278131155941</v>
+        <v>0</v>
       </c>
       <c r="P5" t="n">
         <v>556.2278131155941</v>
@@ -34957,7 +34959,7 @@
         <v>460.6924035395789</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>118.7437726079824</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35012,28 +35014,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
       </c>
       <c r="L6" t="n">
-        <v>158.2737632597931</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="M6" t="n">
         <v>0</v>
       </c>
       <c r="N6" t="n">
-        <v>556.2278131155941</v>
+        <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>556.2278131155941</v>
+        <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>556.2278131155941</v>
+        <v>527.4536661148496</v>
       </c>
       <c r="Q6" t="n">
-        <v>0</v>
+        <v>468.8338150129084</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35176,7 +35178,7 @@
         <v>556.2278131155941</v>
       </c>
       <c r="L8" t="n">
-        <v>0</v>
+        <v>48.74406945557187</v>
       </c>
       <c r="M8" t="n">
         <v>556.2278131155941</v>
@@ -35185,7 +35187,7 @@
         <v>556.2278131155941</v>
       </c>
       <c r="O8" t="n">
-        <v>48.74406945557187</v>
+        <v>0</v>
       </c>
       <c r="P8" t="n">
         <v>0</v>
@@ -35246,10 +35248,10 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>7.521861577688728</v>
+        <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K9" t="n">
         <v>556.2278131155941</v>
@@ -35258,22 +35260,22 @@
         <v>0</v>
       </c>
       <c r="M9" t="n">
-        <v>0</v>
+        <v>527.4536661148496</v>
       </c>
       <c r="N9" t="n">
-        <v>556.2278131155941</v>
+        <v>0</v>
       </c>
       <c r="O9" t="n">
-        <v>67.9041137177578</v>
+        <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>556.2278131155941</v>
+        <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>0</v>
+        <v>468.8338150129084</v>
       </c>
       <c r="R9" t="n">
-        <v>82.84778796434657</v>
+        <v>0</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -35413,16 +35415,16 @@
         <v>722.7356646217162</v>
       </c>
       <c r="L11" t="n">
-        <v>127.7850873641483</v>
+        <v>939.015199615431</v>
       </c>
       <c r="M11" t="n">
-        <v>0</v>
+        <v>776.7350918828506</v>
       </c>
       <c r="N11" t="n">
         <v>0</v>
       </c>
       <c r="O11" t="n">
-        <v>808.5268812099018</v>
+        <v>853.6814647988001</v>
       </c>
       <c r="P11" t="n">
         <v>715.433615311038</v>
@@ -35431,7 +35433,7 @@
         <v>460.6924035395789</v>
       </c>
       <c r="R11" t="n">
-        <v>0</v>
+        <v>118.7437726079824</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35492,19 +35494,19 @@
         <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>845.2513212958648</v>
       </c>
       <c r="M12" t="n">
         <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>549.5965063837652</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>808.5268812099018</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>512.8720662978025</v>
       </c>
       <c r="Q12" t="n">
         <v>468.8338150129084</v>
@@ -35647,28 +35649,28 @@
         <v>0</v>
       </c>
       <c r="K14" t="n">
-        <v>657.1153558257613</v>
+        <v>722.7356646217162</v>
       </c>
       <c r="L14" t="n">
-        <v>808.5268812099018</v>
+        <v>939.015199615431</v>
       </c>
       <c r="M14" t="n">
-        <v>808.5268812099018</v>
+        <v>1014.430405473796</v>
       </c>
       <c r="N14" t="n">
-        <v>808.5268812099018</v>
+        <v>986.1121802895968</v>
       </c>
       <c r="O14" t="n">
-        <v>0</v>
+        <v>853.6814647988001</v>
       </c>
       <c r="P14" t="n">
-        <v>0</v>
+        <v>437.3284175951232</v>
       </c>
       <c r="Q14" t="n">
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>118.7437726079824</v>
+        <v>0</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35723,28 +35725,28 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>596.4494207761006</v>
       </c>
       <c r="L15" t="n">
-        <v>294.9982839840495</v>
+        <v>0</v>
       </c>
       <c r="M15" t="n">
         <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>808.5268812099018</v>
+        <v>0</v>
       </c>
       <c r="O15" t="n">
         <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>723.4320374126243</v>
+        <v>487.2320584543434</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>468.8338150129084</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35881,10 +35883,10 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>366.2661200170662</v>
+        <v>0</v>
       </c>
       <c r="K17" t="n">
-        <v>722.7356646217162</v>
+        <v>436.0509951211312</v>
       </c>
       <c r="L17" t="n">
         <v>939.015199615431</v>
@@ -35899,13 +35901,13 @@
         <v>853.6814647988001</v>
       </c>
       <c r="P17" t="n">
-        <v>181.2265984013702</v>
+        <v>715.433615311038</v>
       </c>
       <c r="Q17" t="n">
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>0</v>
+        <v>118.7437726079824</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35969,13 +35971,13 @@
         <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>726.6390748562019</v>
+        <v>928.4912652212506</v>
       </c>
       <c r="N18" t="n">
-        <v>1100.318127750374</v>
+        <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>0</v>
+        <v>898.4659373853249</v>
       </c>
       <c r="P18" t="n">
         <v>0</v>
@@ -36136,7 +36138,7 @@
         <v>853.6814647988001</v>
       </c>
       <c r="P20" t="n">
-        <v>547.4927184184359</v>
+        <v>547.4927184184349</v>
       </c>
       <c r="Q20" t="n">
         <v>0</v>
@@ -36197,31 +36199,31 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>596.4494207761006</v>
       </c>
       <c r="L21" t="n">
         <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>726.6390748562019</v>
+        <v>0</v>
       </c>
       <c r="N21" t="n">
-        <v>1100.318127750374</v>
+        <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>0</v>
+        <v>149.7860480902807</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>723.4320374126243</v>
       </c>
       <c r="Q21" t="n">
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>82.84778796434657</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36373,13 +36375,13 @@
         <v>853.6814647988001</v>
       </c>
       <c r="P23" t="n">
-        <v>428.7489458104537</v>
+        <v>547.4927184184349</v>
       </c>
       <c r="Q23" t="n">
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>118.7437726079824</v>
+        <v>0</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36434,7 +36436,7 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>274.4419083632233</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
         <v>596.4494207761006</v>
@@ -36443,22 +36445,22 @@
         <v>0</v>
       </c>
       <c r="M24" t="n">
-        <v>57.59993608192674</v>
+        <v>0</v>
       </c>
       <c r="N24" t="n">
         <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>898.4659373853249</v>
+        <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>678.8261788532192</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>468.8338150129084</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>82.84778796434657</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36592,7 +36594,7 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K26" t="n">
         <v>722.7356646217162</v>
@@ -36601,7 +36603,7 @@
         <v>939.015199615431</v>
       </c>
       <c r="M26" t="n">
-        <v>1014.430405473796</v>
+        <v>616.220827727604</v>
       </c>
       <c r="N26" t="n">
         <v>986.1121802895968</v>
@@ -36610,13 +36612,13 @@
         <v>853.6814647988001</v>
       </c>
       <c r="P26" t="n">
-        <v>547.4927184184359</v>
+        <v>0</v>
       </c>
       <c r="Q26" t="n">
-        <v>0</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>118.7437726079824</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36671,13 +36673,13 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>274.4419083632233</v>
+        <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>596.4494207761006</v>
+        <v>0</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>845.2513212958648</v>
       </c>
       <c r="M27" t="n">
         <v>0</v>
@@ -36686,13 +36688,13 @@
         <v>0</v>
       </c>
       <c r="O27" t="n">
-        <v>0</v>
+        <v>898.4659373853249</v>
       </c>
       <c r="P27" t="n">
-        <v>487.2320584543432</v>
+        <v>83.23994392538575</v>
       </c>
       <c r="Q27" t="n">
-        <v>468.8338150129084</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36832,10 +36834,10 @@
         <v>0</v>
       </c>
       <c r="K29" t="n">
-        <v>0</v>
+        <v>722.7356646217162</v>
       </c>
       <c r="L29" t="n">
-        <v>914.373791196984</v>
+        <v>939.015199615431</v>
       </c>
       <c r="M29" t="n">
         <v>1014.430405473796</v>
@@ -36847,13 +36849,13 @@
         <v>853.6814647988001</v>
       </c>
       <c r="P29" t="n">
-        <v>715.433615311038</v>
+        <v>547.4927184184349</v>
       </c>
       <c r="Q29" t="n">
-        <v>460.6924035395789</v>
+        <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>118.7437726079824</v>
+        <v>0</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36911,13 +36913,13 @@
         <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>596.4494207761006</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>130.1896540801013</v>
       </c>
       <c r="M30" t="n">
-        <v>726.6390748562019</v>
+        <v>0</v>
       </c>
       <c r="N30" t="n">
         <v>1100.318127750374</v>
@@ -37084,13 +37086,13 @@
         <v>853.6814647988001</v>
       </c>
       <c r="P32" t="n">
-        <v>547.4927184184359</v>
+        <v>428.7489458104528</v>
       </c>
       <c r="Q32" t="n">
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>118.7437726079824</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37145,31 +37147,31 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>596.4494207761006</v>
       </c>
       <c r="L33" t="n">
-        <v>845.2513212958648</v>
+        <v>0</v>
       </c>
       <c r="M33" t="n">
         <v>0</v>
       </c>
       <c r="N33" t="n">
-        <v>83.23994392538586</v>
+        <v>0</v>
       </c>
       <c r="O33" t="n">
-        <v>898.4659373853249</v>
+        <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>404.3842704899966</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>468.8338150129084</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>82.84778796434657</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37303,10 +37305,10 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>366.2661200170662</v>
+        <v>0</v>
       </c>
       <c r="K35" t="n">
-        <v>722.7356646217162</v>
+        <v>0</v>
       </c>
       <c r="L35" t="n">
         <v>939.015199615431</v>
@@ -37321,13 +37323,13 @@
         <v>853.6814647988001</v>
       </c>
       <c r="P35" t="n">
-        <v>0</v>
+        <v>690.79220689259</v>
       </c>
       <c r="Q35" t="n">
-        <v>181.2265984013702</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R35" t="n">
-        <v>0</v>
+        <v>118.7437726079824</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37385,28 +37387,28 @@
         <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>596.4494207761006</v>
       </c>
       <c r="L36" t="n">
         <v>0</v>
       </c>
       <c r="M36" t="n">
-        <v>726.6390748562019</v>
+        <v>0</v>
       </c>
       <c r="N36" t="n">
-        <v>1100.318127750374</v>
+        <v>0</v>
       </c>
       <c r="O36" t="n">
         <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>678.8261788532199</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>468.8338150129084</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>82.84778796434657</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37543,7 +37545,7 @@
         <v>0</v>
       </c>
       <c r="K38" t="n">
-        <v>722.7356646217162</v>
+        <v>0</v>
       </c>
       <c r="L38" t="n">
         <v>939.015199615431</v>
@@ -37558,13 +37560,13 @@
         <v>853.6814647988001</v>
       </c>
       <c r="P38" t="n">
-        <v>547.4927184184359</v>
+        <v>715.433615311038</v>
       </c>
       <c r="Q38" t="n">
-        <v>0</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R38" t="n">
-        <v>0</v>
+        <v>94.1023641895345</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37619,28 +37621,28 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K39" t="n">
         <v>0</v>
       </c>
       <c r="L39" t="n">
-        <v>845.2513212958648</v>
+        <v>0</v>
       </c>
       <c r="M39" t="n">
         <v>0</v>
       </c>
       <c r="N39" t="n">
-        <v>0</v>
+        <v>1100.318127750374</v>
       </c>
       <c r="O39" t="n">
-        <v>512.8720662978023</v>
+        <v>0</v>
       </c>
       <c r="P39" t="n">
         <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>468.8338150129084</v>
+        <v>452.1971664929787</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37777,31 +37779,31 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K41" t="n">
         <v>722.7356646217162</v>
       </c>
       <c r="L41" t="n">
-        <v>0</v>
+        <v>939.015199615431</v>
       </c>
       <c r="M41" t="n">
-        <v>375.3074347732319</v>
+        <v>1014.430405473796</v>
       </c>
       <c r="N41" t="n">
-        <v>808.5268812099018</v>
+        <v>986.1121802895968</v>
       </c>
       <c r="O41" t="n">
-        <v>0</v>
+        <v>464.0513588372777</v>
       </c>
       <c r="P41" t="n">
-        <v>715.433615311038</v>
+        <v>0</v>
       </c>
       <c r="Q41" t="n">
         <v>460.6924035395789</v>
       </c>
       <c r="R41" t="n">
-        <v>118.7437726079824</v>
+        <v>0</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37859,25 +37861,25 @@
         <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>596.4494207761006</v>
+        <v>0</v>
       </c>
       <c r="L42" t="n">
-        <v>761.6739668175666</v>
+        <v>0</v>
       </c>
       <c r="M42" t="n">
-        <v>0</v>
+        <v>1066.653068662672</v>
       </c>
       <c r="N42" t="n">
         <v>0</v>
       </c>
       <c r="O42" t="n">
-        <v>0</v>
+        <v>760.3041339439038</v>
       </c>
       <c r="P42" t="n">
         <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>468.8338150129084</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -38017,22 +38019,22 @@
         <v>366.2661200170662</v>
       </c>
       <c r="K44" t="n">
-        <v>0</v>
+        <v>722.7356646217162</v>
       </c>
       <c r="L44" t="n">
-        <v>638.6837134790181</v>
+        <v>939.015199615431</v>
       </c>
       <c r="M44" t="n">
-        <v>808.5268812099018</v>
+        <v>776.7350918828506</v>
       </c>
       <c r="N44" t="n">
         <v>0</v>
       </c>
       <c r="O44" t="n">
-        <v>808.5268812099018</v>
+        <v>853.6814647988001</v>
       </c>
       <c r="P44" t="n">
-        <v>0</v>
+        <v>715.433615311038</v>
       </c>
       <c r="Q44" t="n">
         <v>460.6924035395789</v>
@@ -38090,31 +38092,31 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>596.4494207761006</v>
       </c>
       <c r="L45" t="n">
-        <v>209.9034401867719</v>
+        <v>0</v>
       </c>
       <c r="M45" t="n">
-        <v>808.5268812099018</v>
+        <v>0</v>
       </c>
       <c r="N45" t="n">
-        <v>808.5268812099018</v>
+        <v>0</v>
       </c>
       <c r="O45" t="n">
-        <v>0</v>
+        <v>479.7101968766546</v>
       </c>
       <c r="P45" t="n">
         <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>468.8338150129084</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>

--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/90/Output_6_26.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/90/Output_6_26.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1002060.534902899</v>
+        <v>1001342.54478804</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>11857191.11602537</v>
+        <v>11857191.11602538</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>698313.68307607</v>
+        <v>698313.6830760739</v>
       </c>
     </row>
     <row r="9">
@@ -658,22 +658,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>15.64988064861473</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C2" t="n">
         <v>22.63172268683286</v>
       </c>
       <c r="D2" t="n">
-        <v>146.6897818950742</v>
+        <v>19.05969460684969</v>
       </c>
       <c r="E2" t="n">
-        <v>421.717170453621</v>
+        <v>21.71717045362101</v>
       </c>
       <c r="F2" t="n">
-        <v>420.8729399924937</v>
+        <v>20.87293999249374</v>
       </c>
       <c r="G2" t="n">
-        <v>400.2956717864458</v>
+        <v>0.2956717864458369</v>
       </c>
       <c r="H2" t="n">
         <v>294.8896947407055</v>
@@ -709,7 +709,7 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>103.323621185591</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
@@ -718,16 +718,16 @@
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W2" t="n">
         <v>392.4274362026566</v>
       </c>
       <c r="X2" t="n">
-        <v>7.602798843930202</v>
+        <v>77.99474422155161</v>
       </c>
       <c r="Y2" t="n">
-        <v>1.283897344658556</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="3">
@@ -816,7 +816,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
         <v>170.2528374898731</v>
@@ -828,16 +828,16 @@
         <v>164.546123788675</v>
       </c>
       <c r="F4" t="n">
-        <v>165.893285266391</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -867,13 +867,13 @@
         <v>46.56822717969858</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>55.67345343008589</v>
       </c>
       <c r="T4" t="n">
         <v>240.905954296359</v>
       </c>
       <c r="U4" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
         <v>278.8943527180514</v>
@@ -895,25 +895,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>15.64988064861473</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C5" t="n">
-        <v>422.6317226868329</v>
+        <v>22.63172268683286</v>
       </c>
       <c r="D5" t="n">
-        <v>419.0596946068497</v>
+        <v>19.05969460684969</v>
       </c>
       <c r="E5" t="n">
-        <v>421.717170453621</v>
+        <v>21.71717045362101</v>
       </c>
       <c r="F5" t="n">
-        <v>20.87293999249374</v>
+        <v>43.39272202142465</v>
       </c>
       <c r="G5" t="n">
         <v>400.2956717864458</v>
       </c>
       <c r="H5" t="n">
-        <v>294.8896947407055</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>34.5479025439635</v>
@@ -958,13 +958,13 @@
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X5" t="n">
-        <v>7.602798843930202</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y5" t="n">
-        <v>121.3414208355403</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="6">
@@ -1101,7 +1101,7 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
@@ -1110,13 +1110,13 @@
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>161.673798810038</v>
       </c>
       <c r="W7" t="n">
-        <v>109.8268474048518</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X7" t="n">
         <v>240.1382575886529</v>
@@ -1135,10 +1135,10 @@
         <v>15.64988064861473</v>
       </c>
       <c r="C8" t="n">
-        <v>422.6317226868329</v>
+        <v>22.63172268683286</v>
       </c>
       <c r="D8" t="n">
-        <v>419.0596946068497</v>
+        <v>19.05969460684969</v>
       </c>
       <c r="E8" t="n">
         <v>421.717170453621</v>
@@ -1147,7 +1147,7 @@
         <v>420.8729399924937</v>
       </c>
       <c r="G8" t="n">
-        <v>400.2956717864458</v>
+        <v>0.2956717864458369</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -1183,22 +1183,22 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>49.49512077555119</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>218.7163152458132</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>255.7713603095518</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X8" t="n">
-        <v>7.602798843930202</v>
+        <v>36.26828713644658</v>
       </c>
       <c r="Y8" t="n">
         <v>1.283897344658556</v>
@@ -1290,7 +1290,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C10" t="n">
         <v>170.2528374898731</v>
@@ -1338,28 +1338,28 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>278.8943527180514</v>
+        <v>161.6737988100371</v>
       </c>
       <c r="W10" t="n">
-        <v>74.07475062513807</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="11">
@@ -1387,7 +1387,7 @@
         <v>400.2956717864458</v>
       </c>
       <c r="H11" t="n">
-        <v>186.9176635037772</v>
+        <v>186.9176635037728</v>
       </c>
       <c r="I11" t="n">
         <v>34.5479025439635</v>
@@ -1533,16 +1533,16 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D13" t="n">
-        <v>51.5854374042943</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -1575,16 +1575,16 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>277.3826040146988</v>
+        <v>123.9086344760393</v>
       </c>
       <c r="V13" t="n">
         <v>278.8943527180514</v>
@@ -1618,7 +1618,7 @@
         <v>421.717170453621</v>
       </c>
       <c r="F14" t="n">
-        <v>312.9009087555655</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G14" t="n">
         <v>400.2956717864458</v>
@@ -1660,7 +1660,7 @@
         <v>103.323621185591</v>
       </c>
       <c r="T14" t="n">
-        <v>218.7163152458132</v>
+        <v>110.7442840088803</v>
       </c>
       <c r="U14" t="n">
         <v>255.7713603095518</v>
@@ -1770,19 +1770,19 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D16" t="n">
-        <v>51.5854374042943</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1812,16 +1812,16 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
         <v>278.8943527180514</v>
@@ -1833,7 +1833,7 @@
         <v>240.1382575886529</v>
       </c>
       <c r="Y16" t="n">
-        <v>224.0793406271554</v>
+        <v>205.6296692962677</v>
       </c>
     </row>
     <row r="17">
@@ -1861,10 +1861,10 @@
         <v>400.2956717864458</v>
       </c>
       <c r="H17" t="n">
-        <v>294.8896947407055</v>
+        <v>294.8896947407063</v>
       </c>
       <c r="I17" t="n">
-        <v>34.54790254396345</v>
+        <v>34.5479025439635</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -2004,22 +2004,22 @@
         <v>188.264309024945</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.9261600196103</v>
       </c>
       <c r="D19" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
         <v>170.1431564831852</v>
       </c>
       <c r="G19" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>98.77088257712678</v>
@@ -2049,10 +2049,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>240.905954296359</v>
@@ -2064,13 +2064,13 @@
         <v>278.8943527180514</v>
       </c>
       <c r="W19" t="n">
-        <v>56.06327909006642</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="20">
@@ -2080,7 +2080,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>415.649880648615</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C20" t="n">
         <v>422.6317226868329</v>
@@ -2244,22 +2244,22 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D22" t="n">
-        <v>51.58543740429418</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2286,19 +2286,19 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>168.4336970060565</v>
+        <v>161.6737988100371</v>
       </c>
       <c r="T22" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>278.8943527180514</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
         <v>272.1038797892121</v>
@@ -2481,22 +2481,22 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D25" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
         <v>170.1431564831852</v>
       </c>
       <c r="G25" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>98.77088257712678</v>
+        <v>49.87597792716544</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2523,22 +2523,22 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V25" t="n">
         <v>278.8943527180514</v>
       </c>
       <c r="W25" t="n">
-        <v>154.8833258811978</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X25" t="n">
         <v>240.1382575886529</v>
@@ -2712,16 +2712,16 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C28" t="n">
-        <v>18.79193550549784</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D28" t="n">
         <v>161.683605144497</v>
       </c>
       <c r="E28" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
         <v>170.1431564831852</v>
@@ -2730,10 +2730,10 @@
         <v>164.5944000087102</v>
       </c>
       <c r="H28" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>98.77088257712678</v>
+        <v>11.07215425001587</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2763,10 +2763,10 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
         <v>277.3826040146988</v>
@@ -2778,10 +2778,10 @@
         <v>272.1038797892121</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="29">
@@ -2949,25 +2949,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C31" t="n">
         <v>170.2528374898731</v>
       </c>
       <c r="D31" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
         <v>170.1431564831852</v>
       </c>
       <c r="G31" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>43.10005921998094</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -2997,10 +2997,10 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>168.4336970060565</v>
+        <v>96.44420510686429</v>
       </c>
       <c r="T31" t="n">
         <v>240.905954296359</v>
@@ -3015,10 +3015,10 @@
         <v>272.1038797892121</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="32">
@@ -3192,19 +3192,19 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D34" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
         <v>170.1431564831852</v>
       </c>
       <c r="G34" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>125.4203831793925</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -3237,16 +3237,16 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>96.44420510686429</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U34" t="n">
         <v>277.3826040146988</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W34" t="n">
         <v>272.1038797892121</v>
@@ -3423,28 +3423,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
         <v>170.1431564831852</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3471,13 +3471,13 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T37" t="n">
-        <v>11.12043047005107</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U37" t="n">
         <v>277.3826040146988</v>
@@ -3492,7 +3492,7 @@
         <v>240.1382575886529</v>
       </c>
       <c r="Y37" t="n">
-        <v>224.0793406271554</v>
+        <v>58.31517967031825</v>
       </c>
     </row>
     <row r="38">
@@ -3562,7 +3562,7 @@
         <v>255.7713603095518</v>
       </c>
       <c r="V38" t="n">
-        <v>353.914520725013</v>
+        <v>353.9145207250137</v>
       </c>
       <c r="W38" t="n">
         <v>392.4274362026566</v>
@@ -3666,13 +3666,13 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D40" t="n">
-        <v>51.58543740429501</v>
+        <v>70.14557982003988</v>
       </c>
       <c r="E40" t="n">
         <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
@@ -3681,7 +3681,7 @@
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3708,13 +3708,13 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
         <v>168.4336970060565</v>
       </c>
       <c r="T40" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
         <v>277.3826040146988</v>
@@ -3793,7 +3793,7 @@
         <v>103.323621185591</v>
       </c>
       <c r="T41" t="n">
-        <v>145.2921865528488</v>
+        <v>145.2921865528443</v>
       </c>
       <c r="U41" t="n">
         <v>255.7713603095518</v>
@@ -3897,19 +3897,19 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>124.7343684644415</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C43" t="n">
         <v>170.2528374898731</v>
       </c>
       <c r="D43" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
@@ -3948,7 +3948,7 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>168.4336970060565</v>
+        <v>96.44420510686383</v>
       </c>
       <c r="T43" t="n">
         <v>240.905954296359</v>
@@ -4033,13 +4033,13 @@
         <v>218.7163152458132</v>
       </c>
       <c r="U44" t="n">
-        <v>255.7713603095518</v>
+        <v>182.3472316165828</v>
       </c>
       <c r="V44" t="n">
         <v>353.914520725013</v>
       </c>
       <c r="W44" t="n">
-        <v>319.003307509692</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X44" t="n">
         <v>407.6027988439302</v>
@@ -4140,16 +4140,16 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D46" t="n">
-        <v>161.683605144497</v>
+        <v>3.554365680749926</v>
       </c>
       <c r="E46" t="n">
-        <v>104.9037564455522</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -4185,7 +4185,7 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T46" t="n">
         <v>240.905954296359</v>
@@ -4200,7 +4200,7 @@
         <v>272.1038797892121</v>
       </c>
       <c r="X46" t="n">
-        <v>240.1382575886529</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
         <v>224.0793406271554</v>
@@ -4306,19 +4306,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1803.735481715043</v>
+        <v>462.6949895047144</v>
       </c>
       <c r="C2" t="n">
-        <v>1780.875155768747</v>
+        <v>439.8346635584186</v>
       </c>
       <c r="D2" t="n">
-        <v>1632.703658905035</v>
+        <v>420.5824467838229</v>
       </c>
       <c r="E2" t="n">
-        <v>1206.726719052893</v>
+        <v>398.6459109720846</v>
       </c>
       <c r="F2" t="n">
-        <v>781.6025372422929</v>
+        <v>377.5621332018889</v>
       </c>
       <c r="G2" t="n">
         <v>377.2634748317415</v>
@@ -4327,55 +4327,55 @@
         <v>79.39509630577632</v>
       </c>
       <c r="I2" t="n">
-        <v>44.49822504924752</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="J2" t="n">
-        <v>44.49822504924752</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="K2" t="n">
-        <v>595.1637600336855</v>
+        <v>595.1637600336857</v>
       </c>
       <c r="L2" t="n">
-        <v>595.1637600336855</v>
+        <v>1145.829295018124</v>
       </c>
       <c r="M2" t="n">
-        <v>1145.829295018124</v>
+        <v>1696.494830002562</v>
       </c>
       <c r="N2" t="n">
-        <v>1145.829295018124</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="O2" t="n">
-        <v>1651.26943807629</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="P2" t="n">
-        <v>1651.26943807629</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="Q2" t="n">
-        <v>2107.354917580473</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="R2" t="n">
-        <v>2224.911252462376</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="S2" t="n">
-        <v>2224.911252462376</v>
+        <v>2120.543958335517</v>
       </c>
       <c r="T2" t="n">
-        <v>2224.911252462376</v>
+        <v>2120.543958335517</v>
       </c>
       <c r="U2" t="n">
-        <v>2224.911252462376</v>
+        <v>2120.543958335517</v>
       </c>
       <c r="V2" t="n">
-        <v>2224.911252462376</v>
+        <v>1763.054543461766</v>
       </c>
       <c r="W2" t="n">
-        <v>1828.519902762723</v>
+        <v>1366.663193762113</v>
       </c>
       <c r="X2" t="n">
-        <v>1820.840307970874</v>
+        <v>1287.880623841354</v>
       </c>
       <c r="Y2" t="n">
-        <v>1819.543441966169</v>
+        <v>882.5433537962444</v>
       </c>
     </row>
     <row r="3">
@@ -4397,40 +4397,40 @@
         <v>285.5739203864298</v>
       </c>
       <c r="F3" t="n">
-        <v>191.9280900693339</v>
+        <v>191.928090069334</v>
       </c>
       <c r="G3" t="n">
-        <v>97.87431828693794</v>
+        <v>97.87431828693795</v>
       </c>
       <c r="H3" t="n">
-        <v>44.49822504924752</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="I3" t="n">
-        <v>51.94486801115936</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="J3" t="n">
-        <v>323.6423572907505</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="K3" t="n">
-        <v>874.3078922751886</v>
+        <v>595.1637600336857</v>
       </c>
       <c r="L3" t="n">
-        <v>874.3078922751886</v>
+        <v>595.1637600336857</v>
       </c>
       <c r="M3" t="n">
-        <v>1424.973427259627</v>
+        <v>595.1637600336857</v>
       </c>
       <c r="N3" t="n">
-        <v>1424.973427259627</v>
+        <v>1145.829295018124</v>
       </c>
       <c r="O3" t="n">
-        <v>1424.973427259627</v>
+        <v>1696.494830002562</v>
       </c>
       <c r="P3" t="n">
-        <v>1771.166545545054</v>
+        <v>1696.494830002562</v>
       </c>
       <c r="Q3" t="n">
-        <v>1771.166545545054</v>
+        <v>1853.185855629757</v>
       </c>
       <c r="R3" t="n">
         <v>1853.185855629757</v>
@@ -4464,28 +4464,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>713.5647419072639</v>
+        <v>1127.679347573484</v>
       </c>
       <c r="C4" t="n">
-        <v>541.5921787861798</v>
+        <v>955.7067844524004</v>
       </c>
       <c r="D4" t="n">
-        <v>378.2754059129505</v>
+        <v>792.3900115791711</v>
       </c>
       <c r="E4" t="n">
-        <v>212.0672000658041</v>
+        <v>626.1818057320246</v>
       </c>
       <c r="F4" t="n">
-        <v>44.49822504924748</v>
+        <v>454.3200315065851</v>
       </c>
       <c r="G4" t="n">
-        <v>44.49822504924748</v>
+        <v>288.0630618008172</v>
       </c>
       <c r="H4" t="n">
-        <v>44.49822504924748</v>
+        <v>144.2667933089716</v>
       </c>
       <c r="I4" t="n">
-        <v>44.49822504924748</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="J4" t="n">
         <v>101.9895532734055</v>
@@ -4506,34 +4506,34 @@
         <v>1807.311910299713</v>
       </c>
       <c r="P4" t="n">
-        <v>2097.911122221614</v>
+        <v>2097.911122221615</v>
       </c>
       <c r="Q4" t="n">
-        <v>2224.911252462376</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="R4" t="n">
-        <v>2177.872639149549</v>
+        <v>2177.87263914955</v>
       </c>
       <c r="S4" t="n">
-        <v>2177.872639149549</v>
+        <v>2121.636827604008</v>
       </c>
       <c r="T4" t="n">
-        <v>1934.533291375449</v>
+        <v>1878.297479829908</v>
       </c>
       <c r="U4" t="n">
-        <v>1654.348842875753</v>
+        <v>1878.297479829908</v>
       </c>
       <c r="V4" t="n">
-        <v>1372.637375483782</v>
+        <v>1596.586012437937</v>
       </c>
       <c r="W4" t="n">
-        <v>1372.637375483782</v>
+        <v>1596.586012437937</v>
       </c>
       <c r="X4" t="n">
-        <v>1130.073478929588</v>
+        <v>1354.022115883742</v>
       </c>
       <c r="Y4" t="n">
-        <v>903.7307106193296</v>
+        <v>1127.679347573484</v>
       </c>
     </row>
     <row r="5">
@@ -4543,22 +4543,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>2078.856605666331</v>
+        <v>591.614269593831</v>
       </c>
       <c r="C5" t="n">
-        <v>1651.955875679631</v>
+        <v>568.7539436475352</v>
       </c>
       <c r="D5" t="n">
-        <v>1228.663254864631</v>
+        <v>549.5017268729395</v>
       </c>
       <c r="E5" t="n">
-        <v>802.6863150124886</v>
+        <v>527.5651910612011</v>
       </c>
       <c r="F5" t="n">
-        <v>781.6025372422929</v>
+        <v>483.7341587163277</v>
       </c>
       <c r="G5" t="n">
-        <v>377.2634748317415</v>
+        <v>79.39509630577632</v>
       </c>
       <c r="H5" t="n">
         <v>79.39509630577632</v>
@@ -4567,7 +4567,7 @@
         <v>44.49822504924753</v>
       </c>
       <c r="J5" t="n">
-        <v>407.101683866143</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="K5" t="n">
         <v>549.9383681074144</v>
@@ -4576,10 +4576,10 @@
         <v>549.9383681074144</v>
       </c>
       <c r="M5" t="n">
-        <v>1100.603903091853</v>
+        <v>549.9383681074144</v>
       </c>
       <c r="N5" t="n">
-        <v>1100.603903091853</v>
+        <v>549.9383681074144</v>
       </c>
       <c r="O5" t="n">
         <v>1100.603903091853</v>
@@ -4606,13 +4606,13 @@
         <v>2224.911252462377</v>
       </c>
       <c r="W5" t="n">
-        <v>2224.911252462377</v>
+        <v>1828.519902762723</v>
       </c>
       <c r="X5" t="n">
-        <v>2217.231657670528</v>
+        <v>1416.799903930471</v>
       </c>
       <c r="Y5" t="n">
-        <v>2094.664565917457</v>
+        <v>1011.462633885361</v>
       </c>
     </row>
     <row r="6">
@@ -4643,31 +4643,31 @@
         <v>44.49822504924753</v>
       </c>
       <c r="I6" t="n">
-        <v>44.49822504924753</v>
+        <v>51.94486801115937</v>
       </c>
       <c r="J6" t="n">
-        <v>316.1957143288386</v>
+        <v>323.6423572907505</v>
       </c>
       <c r="K6" t="n">
-        <v>316.1957143288386</v>
+        <v>874.3078922751886</v>
       </c>
       <c r="L6" t="n">
-        <v>866.8612493132769</v>
+        <v>874.3078922751886</v>
       </c>
       <c r="M6" t="n">
-        <v>866.8612493132769</v>
+        <v>874.3078922751886</v>
       </c>
       <c r="N6" t="n">
-        <v>866.8612493132769</v>
+        <v>874.3078922751886</v>
       </c>
       <c r="O6" t="n">
-        <v>866.8612493132769</v>
+        <v>874.3078922751886</v>
       </c>
       <c r="P6" t="n">
-        <v>1389.040378766978</v>
+        <v>1424.973427259627</v>
       </c>
       <c r="Q6" t="n">
-        <v>1853.185855629757</v>
+        <v>1771.166545545054</v>
       </c>
       <c r="R6" t="n">
         <v>1853.185855629757</v>
@@ -4749,19 +4749,19 @@
         <v>2224.911252462376</v>
       </c>
       <c r="R7" t="n">
-        <v>2177.872639149549</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="S7" t="n">
-        <v>2177.872639149549</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="T7" t="n">
-        <v>2177.872639149549</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="U7" t="n">
-        <v>1897.688190649853</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="V7" t="n">
-        <v>1897.688190649853</v>
+        <v>2061.60438497749</v>
       </c>
       <c r="W7" t="n">
         <v>1786.751981150003</v>
@@ -4780,19 +4780,19 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2150.131759924241</v>
+        <v>938.0105478030285</v>
       </c>
       <c r="C8" t="n">
-        <v>1723.231029937541</v>
+        <v>915.1502218567327</v>
       </c>
       <c r="D8" t="n">
-        <v>1299.938409122541</v>
+        <v>895.898005082137</v>
       </c>
       <c r="E8" t="n">
-        <v>873.9614692703988</v>
+        <v>469.9210652299946</v>
       </c>
       <c r="F8" t="n">
-        <v>448.8372874597989</v>
+        <v>44.79688341939484</v>
       </c>
       <c r="G8" t="n">
         <v>44.49822504924753</v>
@@ -4804,52 +4804,52 @@
         <v>44.49822504924753</v>
       </c>
       <c r="J8" t="n">
-        <v>407.101683866143</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="K8" t="n">
-        <v>957.7672188505812</v>
+        <v>595.1637600336857</v>
       </c>
       <c r="L8" t="n">
-        <v>1006.023847611597</v>
+        <v>1145.829295018124</v>
       </c>
       <c r="M8" t="n">
-        <v>1556.689382596036</v>
+        <v>1696.494830002562</v>
       </c>
       <c r="N8" t="n">
-        <v>2107.354917580474</v>
+        <v>1696.494830002562</v>
       </c>
       <c r="O8" t="n">
-        <v>2107.354917580474</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="P8" t="n">
-        <v>2107.354917580474</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="Q8" t="n">
-        <v>2107.354917580474</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="R8" t="n">
         <v>2224.911252462377</v>
       </c>
       <c r="S8" t="n">
-        <v>2174.916180971921</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="T8" t="n">
-        <v>2174.916180971921</v>
+        <v>2003.98568150701</v>
       </c>
       <c r="U8" t="n">
-        <v>2174.916180971921</v>
+        <v>1745.630772103422</v>
       </c>
       <c r="V8" t="n">
-        <v>2174.916180971921</v>
+        <v>1388.141357229671</v>
       </c>
       <c r="W8" t="n">
-        <v>2174.916180971921</v>
+        <v>991.7500075300184</v>
       </c>
       <c r="X8" t="n">
-        <v>2167.236586180072</v>
+        <v>955.1153740588602</v>
       </c>
       <c r="Y8" t="n">
-        <v>2165.939720175367</v>
+        <v>953.8185080541546</v>
       </c>
     </row>
     <row r="9">
@@ -4880,31 +4880,31 @@
         <v>44.49822504924753</v>
       </c>
       <c r="I9" t="n">
-        <v>44.49822504924753</v>
+        <v>51.94486801115937</v>
       </c>
       <c r="J9" t="n">
-        <v>316.1957143288386</v>
+        <v>323.6423572907505</v>
       </c>
       <c r="K9" t="n">
-        <v>866.8612493132769</v>
+        <v>756.3555336978366</v>
       </c>
       <c r="L9" t="n">
-        <v>866.8612493132769</v>
+        <v>756.3555336978366</v>
       </c>
       <c r="M9" t="n">
-        <v>1389.040378766978</v>
+        <v>756.3555336978366</v>
       </c>
       <c r="N9" t="n">
-        <v>1389.040378766978</v>
+        <v>756.3555336978366</v>
       </c>
       <c r="O9" t="n">
-        <v>1389.040378766978</v>
+        <v>756.3555336978366</v>
       </c>
       <c r="P9" t="n">
-        <v>1389.040378766978</v>
+        <v>1307.021068682275</v>
       </c>
       <c r="Q9" t="n">
-        <v>1853.185855629757</v>
+        <v>1771.166545545054</v>
       </c>
       <c r="R9" t="n">
         <v>1853.185855629757</v>
@@ -4986,28 +4986,28 @@
         <v>2224.911252462376</v>
       </c>
       <c r="R10" t="n">
-        <v>2177.872639149549</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="S10" t="n">
-        <v>2007.737591668684</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="T10" t="n">
-        <v>1764.398243894584</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="U10" t="n">
-        <v>1484.213795394888</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="V10" t="n">
-        <v>1202.502328002917</v>
+        <v>2061.60438497749</v>
       </c>
       <c r="W10" t="n">
-        <v>1127.679347573484</v>
+        <v>1786.751981150003</v>
       </c>
       <c r="X10" t="n">
-        <v>1127.679347573484</v>
+        <v>1544.188084595808</v>
       </c>
       <c r="Y10" t="n">
-        <v>1127.679347573484</v>
+        <v>1317.84531628555</v>
       </c>
     </row>
     <row r="11">
@@ -5017,76 +5017,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2429.413071721398</v>
+        <v>2429.413071721394</v>
       </c>
       <c r="C11" t="n">
-        <v>2002.512341734699</v>
+        <v>2002.512341734694</v>
       </c>
       <c r="D11" t="n">
-        <v>1579.219720919699</v>
+        <v>1579.219720919694</v>
       </c>
       <c r="E11" t="n">
-        <v>1153.242781067556</v>
+        <v>1153.242781067552</v>
       </c>
       <c r="F11" t="n">
-        <v>728.1185992569565</v>
+        <v>728.1185992569519</v>
       </c>
       <c r="G11" t="n">
-        <v>323.7795368464051</v>
+        <v>323.7795368464006</v>
       </c>
       <c r="H11" t="n">
-        <v>134.973816135519</v>
+        <v>134.9738161355189</v>
       </c>
       <c r="I11" t="n">
-        <v>100.0769448789902</v>
+        <v>100.0769448789901</v>
       </c>
       <c r="J11" t="n">
-        <v>462.6804036958857</v>
+        <v>100.0769448789901</v>
       </c>
       <c r="K11" t="n">
-        <v>1178.188711671385</v>
+        <v>100.0769448789901</v>
       </c>
       <c r="L11" t="n">
-        <v>2107.813759290661</v>
+        <v>1029.701992498267</v>
       </c>
       <c r="M11" t="n">
-        <v>2876.781500254684</v>
+        <v>2033.988093917325</v>
       </c>
       <c r="N11" t="n">
-        <v>2876.781500254684</v>
+        <v>2876.781500254679</v>
       </c>
       <c r="O11" t="n">
-        <v>3721.926150405496</v>
+        <v>3721.926150405491</v>
       </c>
       <c r="P11" t="n">
-        <v>4430.205429563423</v>
+        <v>4430.205429563419</v>
       </c>
       <c r="Q11" t="n">
-        <v>4886.290909067607</v>
+        <v>4886.290909067602</v>
       </c>
       <c r="R11" t="n">
-        <v>5003.847243949509</v>
+        <v>5003.847243949504</v>
       </c>
       <c r="S11" t="n">
-        <v>4899.479949822649</v>
+        <v>4899.479949822645</v>
       </c>
       <c r="T11" t="n">
-        <v>4678.554378867282</v>
+        <v>4678.554378867278</v>
       </c>
       <c r="U11" t="n">
-        <v>4420.199469463694</v>
+        <v>4420.19946946369</v>
       </c>
       <c r="V11" t="n">
-        <v>4062.710054589944</v>
+        <v>4062.710054589939</v>
       </c>
       <c r="W11" t="n">
-        <v>3666.318704890291</v>
+        <v>3666.318704890286</v>
       </c>
       <c r="X11" t="n">
-        <v>3254.598706058038</v>
+        <v>3254.598706058034</v>
       </c>
       <c r="Y11" t="n">
-        <v>2849.261436012929</v>
+        <v>2849.261436012924</v>
       </c>
     </row>
     <row r="12">
@@ -5096,58 +5096,58 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>667.2004359104454</v>
+        <v>667.2004359104453</v>
       </c>
       <c r="C12" t="n">
-        <v>549.6945324279502</v>
+        <v>549.6945324279501</v>
       </c>
       <c r="D12" t="n">
-        <v>445.8545739432352</v>
+        <v>445.8545739432351</v>
       </c>
       <c r="E12" t="n">
-        <v>341.1526402161724</v>
+        <v>341.1526402161723</v>
       </c>
       <c r="F12" t="n">
-        <v>247.5068098990766</v>
+        <v>247.5068098990765</v>
       </c>
       <c r="G12" t="n">
-        <v>153.4530381166806</v>
+        <v>153.4530381166805</v>
       </c>
       <c r="H12" t="n">
-        <v>100.0769448789902</v>
+        <v>100.0769448789901</v>
       </c>
       <c r="I12" t="n">
-        <v>100.0769448789902</v>
+        <v>107.5235878409019</v>
       </c>
       <c r="J12" t="n">
-        <v>100.0769448789902</v>
+        <v>379.221077120493</v>
       </c>
       <c r="K12" t="n">
-        <v>100.0769448789902</v>
+        <v>969.7060036888327</v>
       </c>
       <c r="L12" t="n">
-        <v>936.8757529618963</v>
+        <v>969.7060036888327</v>
       </c>
       <c r="M12" t="n">
-        <v>936.8757529618963</v>
+        <v>969.7060036888327</v>
       </c>
       <c r="N12" t="n">
-        <v>936.8757529618963</v>
+        <v>969.7060036888327</v>
       </c>
       <c r="O12" t="n">
-        <v>936.8757529618963</v>
+        <v>969.7060036888327</v>
       </c>
       <c r="P12" t="n">
-        <v>1444.619098596721</v>
+        <v>1685.903720727331</v>
       </c>
       <c r="Q12" t="n">
-        <v>1908.7645754595</v>
+        <v>1826.745265374797</v>
       </c>
       <c r="R12" t="n">
         <v>1908.7645754595</v>
       </c>
       <c r="S12" t="n">
-        <v>1827.440328020755</v>
+        <v>1827.440328020754</v>
       </c>
       <c r="T12" t="n">
         <v>1685.560392318433</v>
@@ -5156,16 +5156,16 @@
         <v>1500.792196238069</v>
       </c>
       <c r="V12" t="n">
-        <v>1295.819057377336</v>
+        <v>1295.819057377335</v>
       </c>
       <c r="W12" t="n">
         <v>1099.297680210553</v>
       </c>
       <c r="X12" t="n">
-        <v>935.8203339772158</v>
+        <v>935.8203339772157</v>
       </c>
       <c r="Y12" t="n">
-        <v>796.1274453305082</v>
+        <v>796.1274453305081</v>
       </c>
     </row>
     <row r="13">
@@ -5175,37 +5175,37 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>324.1560104286543</v>
+        <v>939.6932306516574</v>
       </c>
       <c r="C13" t="n">
-        <v>152.1834473075703</v>
+        <v>767.7206675305733</v>
       </c>
       <c r="D13" t="n">
-        <v>100.0769448789902</v>
+        <v>604.403894657344</v>
       </c>
       <c r="E13" t="n">
-        <v>100.0769448789902</v>
+        <v>438.1956888101976</v>
       </c>
       <c r="F13" t="n">
-        <v>100.0769448789902</v>
+        <v>266.333914584758</v>
       </c>
       <c r="G13" t="n">
-        <v>100.0769448789902</v>
+        <v>100.0769448789901</v>
       </c>
       <c r="H13" t="n">
-        <v>100.0769448789902</v>
+        <v>100.0769448789901</v>
       </c>
       <c r="I13" t="n">
-        <v>100.0769448789902</v>
+        <v>100.0769448789901</v>
       </c>
       <c r="J13" t="n">
-        <v>157.5682731031482</v>
+        <v>157.5682731031481</v>
       </c>
       <c r="K13" t="n">
         <v>384.0958743089853</v>
       </c>
       <c r="L13" t="n">
-        <v>738.7851956034061</v>
+        <v>738.785195603406</v>
       </c>
       <c r="M13" t="n">
         <v>1129.970990573657</v>
@@ -5217,34 +5217,34 @@
         <v>1862.890630129456</v>
       </c>
       <c r="P13" t="n">
-        <v>2153.489842051357</v>
+        <v>2153.489842051356</v>
       </c>
       <c r="Q13" t="n">
-        <v>2280.489972292119</v>
+        <v>2280.489972292118</v>
       </c>
       <c r="R13" t="n">
-        <v>2233.451358979292</v>
+        <v>2280.489972292118</v>
       </c>
       <c r="S13" t="n">
-        <v>2063.316311498427</v>
+        <v>2280.489972292118</v>
       </c>
       <c r="T13" t="n">
-        <v>1819.976963724327</v>
+        <v>2280.489972292118</v>
       </c>
       <c r="U13" t="n">
-        <v>1539.792515224631</v>
+        <v>2155.329735447634</v>
       </c>
       <c r="V13" t="n">
-        <v>1258.08104783266</v>
+        <v>1873.618268055663</v>
       </c>
       <c r="W13" t="n">
-        <v>983.2286440051728</v>
+        <v>1598.765864228176</v>
       </c>
       <c r="X13" t="n">
-        <v>740.6647474509779</v>
+        <v>1356.201967673981</v>
       </c>
       <c r="Y13" t="n">
-        <v>514.3219791407199</v>
+        <v>1129.859199363723</v>
       </c>
     </row>
     <row r="14">
@@ -5254,76 +5254,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2429.413071721398</v>
+        <v>2538.475729536478</v>
       </c>
       <c r="C14" t="n">
-        <v>2002.512341734699</v>
+        <v>2111.574999549778</v>
       </c>
       <c r="D14" t="n">
-        <v>1579.219720919699</v>
+        <v>1688.282378734778</v>
       </c>
       <c r="E14" t="n">
-        <v>1153.242781067556</v>
+        <v>1262.305438882635</v>
       </c>
       <c r="F14" t="n">
-        <v>837.1812570720356</v>
+        <v>837.1812570720355</v>
       </c>
       <c r="G14" t="n">
         <v>432.8421946614841</v>
       </c>
       <c r="H14" t="n">
-        <v>134.973816135519</v>
+        <v>134.9738161355189</v>
       </c>
       <c r="I14" t="n">
-        <v>100.0769448789902</v>
+        <v>100.0769448789901</v>
       </c>
       <c r="J14" t="n">
-        <v>100.0769448789902</v>
+        <v>462.6804036958856</v>
       </c>
       <c r="K14" t="n">
-        <v>815.5852528544892</v>
+        <v>1178.188711671385</v>
       </c>
       <c r="L14" t="n">
-        <v>1745.210300473766</v>
+        <v>2107.813759290661</v>
       </c>
       <c r="M14" t="n">
-        <v>2749.496401892824</v>
+        <v>3112.09986070972</v>
       </c>
       <c r="N14" t="n">
-        <v>3725.747460379525</v>
+        <v>4088.350919196421</v>
       </c>
       <c r="O14" t="n">
-        <v>4570.892110530337</v>
+        <v>4933.495569347233</v>
       </c>
       <c r="P14" t="n">
-        <v>5003.847243949509</v>
+        <v>5003.847243949504</v>
       </c>
       <c r="Q14" t="n">
-        <v>5003.847243949509</v>
+        <v>5003.847243949504</v>
       </c>
       <c r="R14" t="n">
-        <v>5003.847243949509</v>
+        <v>5003.847243949504</v>
       </c>
       <c r="S14" t="n">
-        <v>4899.479949822649</v>
+        <v>4899.479949822645</v>
       </c>
       <c r="T14" t="n">
-        <v>4678.554378867282</v>
+        <v>4787.617036682362</v>
       </c>
       <c r="U14" t="n">
-        <v>4420.199469463694</v>
+        <v>4529.262127278774</v>
       </c>
       <c r="V14" t="n">
-        <v>4062.710054589944</v>
+        <v>4171.772712405023</v>
       </c>
       <c r="W14" t="n">
-        <v>3666.318704890291</v>
+        <v>3775.38136270537</v>
       </c>
       <c r="X14" t="n">
-        <v>3254.598706058038</v>
+        <v>3363.661363873117</v>
       </c>
       <c r="Y14" t="n">
-        <v>2849.261436012929</v>
+        <v>2958.324093828008</v>
       </c>
     </row>
     <row r="15">
@@ -5333,58 +5333,58 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>667.2004359104454</v>
+        <v>667.2004359104453</v>
       </c>
       <c r="C15" t="n">
-        <v>549.6945324279502</v>
+        <v>549.6945324279501</v>
       </c>
       <c r="D15" t="n">
-        <v>445.8545739432352</v>
+        <v>445.8545739432351</v>
       </c>
       <c r="E15" t="n">
-        <v>341.1526402161724</v>
+        <v>341.1526402161723</v>
       </c>
       <c r="F15" t="n">
-        <v>247.5068098990766</v>
+        <v>247.5068098990765</v>
       </c>
       <c r="G15" t="n">
-        <v>153.4530381166806</v>
+        <v>153.4530381166805</v>
       </c>
       <c r="H15" t="n">
-        <v>100.0769448789902</v>
+        <v>100.0769448789901</v>
       </c>
       <c r="I15" t="n">
-        <v>100.0769448789902</v>
+        <v>107.5235878409019</v>
       </c>
       <c r="J15" t="n">
-        <v>371.7744341585812</v>
+        <v>379.221077120493</v>
       </c>
       <c r="K15" t="n">
-        <v>962.2593607269208</v>
+        <v>379.221077120493</v>
       </c>
       <c r="L15" t="n">
-        <v>962.2593607269208</v>
+        <v>379.221077120493</v>
       </c>
       <c r="M15" t="n">
-        <v>962.2593607269208</v>
+        <v>379.221077120493</v>
       </c>
       <c r="N15" t="n">
-        <v>962.2593607269208</v>
+        <v>379.221077120493</v>
       </c>
       <c r="O15" t="n">
-        <v>962.2593607269208</v>
+        <v>646.4020714735193</v>
       </c>
       <c r="P15" t="n">
-        <v>1444.619098596721</v>
+        <v>1362.599788512017</v>
       </c>
       <c r="Q15" t="n">
-        <v>1908.7645754595</v>
+        <v>1826.745265374797</v>
       </c>
       <c r="R15" t="n">
         <v>1908.7645754595</v>
       </c>
       <c r="S15" t="n">
-        <v>1827.440328020755</v>
+        <v>1827.440328020754</v>
       </c>
       <c r="T15" t="n">
         <v>1685.560392318433</v>
@@ -5393,16 +5393,16 @@
         <v>1500.792196238069</v>
       </c>
       <c r="V15" t="n">
-        <v>1295.819057377336</v>
+        <v>1295.819057377335</v>
       </c>
       <c r="W15" t="n">
         <v>1099.297680210553</v>
       </c>
       <c r="X15" t="n">
-        <v>935.8203339772158</v>
+        <v>935.8203339772157</v>
       </c>
       <c r="Y15" t="n">
-        <v>796.1274453305082</v>
+        <v>796.1274453305081</v>
       </c>
     </row>
     <row r="16">
@@ -5412,37 +5412,37 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>324.1560104286543</v>
+        <v>1083.489499143503</v>
       </c>
       <c r="C16" t="n">
-        <v>152.1834473075703</v>
+        <v>911.5169360224189</v>
       </c>
       <c r="D16" t="n">
-        <v>100.0769448789902</v>
+        <v>748.2001631491896</v>
       </c>
       <c r="E16" t="n">
-        <v>100.0769448789902</v>
+        <v>581.9919573020431</v>
       </c>
       <c r="F16" t="n">
-        <v>100.0769448789902</v>
+        <v>410.1301830766035</v>
       </c>
       <c r="G16" t="n">
-        <v>100.0769448789902</v>
+        <v>243.8732133708357</v>
       </c>
       <c r="H16" t="n">
-        <v>100.0769448789902</v>
+        <v>100.0769448789901</v>
       </c>
       <c r="I16" t="n">
-        <v>100.0769448789902</v>
+        <v>100.0769448789901</v>
       </c>
       <c r="J16" t="n">
-        <v>157.5682731031482</v>
+        <v>157.5682731031481</v>
       </c>
       <c r="K16" t="n">
         <v>384.0958743089853</v>
       </c>
       <c r="L16" t="n">
-        <v>738.7851956034061</v>
+        <v>738.785195603406</v>
       </c>
       <c r="M16" t="n">
         <v>1129.970990573657</v>
@@ -5454,34 +5454,34 @@
         <v>1862.890630129456</v>
       </c>
       <c r="P16" t="n">
-        <v>2153.489842051357</v>
+        <v>2153.489842051356</v>
       </c>
       <c r="Q16" t="n">
-        <v>2280.489972292119</v>
+        <v>2280.489972292118</v>
       </c>
       <c r="R16" t="n">
-        <v>2233.451358979292</v>
+        <v>2280.489972292118</v>
       </c>
       <c r="S16" t="n">
-        <v>2063.316311498427</v>
+        <v>2280.489972292118</v>
       </c>
       <c r="T16" t="n">
-        <v>1819.976963724327</v>
+        <v>2280.489972292118</v>
       </c>
       <c r="U16" t="n">
-        <v>1539.792515224631</v>
+        <v>2280.489972292118</v>
       </c>
       <c r="V16" t="n">
-        <v>1258.08104783266</v>
+        <v>1998.778504900147</v>
       </c>
       <c r="W16" t="n">
-        <v>983.2286440051728</v>
+        <v>1723.92610107266</v>
       </c>
       <c r="X16" t="n">
-        <v>740.6647474509779</v>
+        <v>1481.362204518465</v>
       </c>
       <c r="Y16" t="n">
-        <v>514.3219791407199</v>
+        <v>1273.655467855569</v>
       </c>
     </row>
     <row r="17">
@@ -5491,22 +5491,22 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2540.701498063316</v>
+        <v>2540.701498063317</v>
       </c>
       <c r="C17" t="n">
-        <v>2113.800768076616</v>
+        <v>2113.800768076617</v>
       </c>
       <c r="D17" t="n">
-        <v>1690.508147261616</v>
+        <v>1690.508147261617</v>
       </c>
       <c r="E17" t="n">
-        <v>1264.531207409474</v>
+        <v>1264.531207409475</v>
       </c>
       <c r="F17" t="n">
-        <v>839.4070255988738</v>
+        <v>839.4070255988747</v>
       </c>
       <c r="G17" t="n">
-        <v>435.0679631883224</v>
+        <v>435.0679631883233</v>
       </c>
       <c r="H17" t="n">
         <v>137.1995846623573</v>
@@ -5515,52 +5515,52 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J17" t="n">
-        <v>102.3027134058285</v>
+        <v>464.9061722227241</v>
       </c>
       <c r="K17" t="n">
-        <v>533.9931985757484</v>
+        <v>464.9061722227241</v>
       </c>
       <c r="L17" t="n">
-        <v>1463.618246195025</v>
+        <v>1007.532766690843</v>
       </c>
       <c r="M17" t="n">
-        <v>2467.904347614083</v>
+        <v>2011.818868109901</v>
       </c>
       <c r="N17" t="n">
-        <v>3444.155406100784</v>
+        <v>2988.069926596602</v>
       </c>
       <c r="O17" t="n">
-        <v>4289.300056251596</v>
+        <v>3833.214576747414</v>
       </c>
       <c r="P17" t="n">
-        <v>4997.579335409524</v>
+        <v>4541.493855905342</v>
       </c>
       <c r="Q17" t="n">
-        <v>4997.579335409524</v>
+        <v>4997.579335409525</v>
       </c>
       <c r="R17" t="n">
-        <v>5115.135670291426</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="S17" t="n">
-        <v>5010.768376164567</v>
+        <v>5010.768376164568</v>
       </c>
       <c r="T17" t="n">
-        <v>4789.842805209199</v>
+        <v>4789.8428052092</v>
       </c>
       <c r="U17" t="n">
         <v>4531.487895805612</v>
       </c>
       <c r="V17" t="n">
-        <v>4173.998480931861</v>
+        <v>4173.998480931862</v>
       </c>
       <c r="W17" t="n">
-        <v>3777.607131232208</v>
+        <v>3777.607131232209</v>
       </c>
       <c r="X17" t="n">
         <v>3365.887132399956</v>
       </c>
       <c r="Y17" t="n">
-        <v>2960.549862354846</v>
+        <v>2960.549862354847</v>
       </c>
     </row>
     <row r="18">
@@ -5591,31 +5591,31 @@
         <v>102.3027134058285</v>
       </c>
       <c r="I18" t="n">
-        <v>102.3027134058285</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="J18" t="n">
-        <v>102.3027134058285</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="K18" t="n">
-        <v>102.3027134058285</v>
+        <v>700.2342829360799</v>
       </c>
       <c r="L18" t="n">
-        <v>102.3027134058285</v>
+        <v>700.2342829360799</v>
       </c>
       <c r="M18" t="n">
-        <v>1021.509065974867</v>
+        <v>700.2342829360799</v>
       </c>
       <c r="N18" t="n">
-        <v>1021.509065974867</v>
+        <v>700.2342829360799</v>
       </c>
       <c r="O18" t="n">
-        <v>1910.990343986338</v>
+        <v>700.2342829360799</v>
       </c>
       <c r="P18" t="n">
-        <v>1910.990343986338</v>
+        <v>1416.431999974578</v>
       </c>
       <c r="Q18" t="n">
-        <v>1910.990343986338</v>
+        <v>1880.577476837357</v>
       </c>
       <c r="R18" t="n">
         <v>1910.990343986338</v>
@@ -5649,22 +5649,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>1013.511272808981</v>
+        <v>543.5554397491844</v>
       </c>
       <c r="C19" t="n">
-        <v>1013.511272808981</v>
+        <v>373.9330558909921</v>
       </c>
       <c r="D19" t="n">
-        <v>850.1944999357521</v>
+        <v>373.9330558909921</v>
       </c>
       <c r="E19" t="n">
-        <v>683.9862940886056</v>
+        <v>373.9330558909921</v>
       </c>
       <c r="F19" t="n">
-        <v>512.124519863166</v>
+        <v>202.0712816655526</v>
       </c>
       <c r="G19" t="n">
-        <v>345.8675501573982</v>
+        <v>202.0712816655526</v>
       </c>
       <c r="H19" t="n">
         <v>202.0712816655526</v>
@@ -5673,10 +5673,10 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J19" t="n">
-        <v>159.7940416299865</v>
+        <v>159.7940416299866</v>
       </c>
       <c r="K19" t="n">
-        <v>386.3216428358237</v>
+        <v>386.3216428358238</v>
       </c>
       <c r="L19" t="n">
         <v>741.0109641302445</v>
@@ -5697,28 +5697,28 @@
         <v>2282.715740818957</v>
       </c>
       <c r="R19" t="n">
-        <v>2235.67712750613</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="S19" t="n">
-        <v>2065.542080025265</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="T19" t="n">
-        <v>1822.202732251165</v>
+        <v>2039.376393044857</v>
       </c>
       <c r="U19" t="n">
-        <v>1542.018283751469</v>
+        <v>1759.191944545161</v>
       </c>
       <c r="V19" t="n">
-        <v>1260.306816359498</v>
+        <v>1477.48047715319</v>
       </c>
       <c r="W19" t="n">
-        <v>1203.677241521047</v>
+        <v>1202.628073325703</v>
       </c>
       <c r="X19" t="n">
-        <v>1203.677241521047</v>
+        <v>960.064176771508</v>
       </c>
       <c r="Y19" t="n">
-        <v>1203.677241521047</v>
+        <v>733.72140846125</v>
       </c>
     </row>
     <row r="20">
@@ -5728,10 +5728,10 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2540.701498063316</v>
+        <v>2540.701498063315</v>
       </c>
       <c r="C20" t="n">
-        <v>2113.800768076616</v>
+        <v>2113.800768076615</v>
       </c>
       <c r="D20" t="n">
         <v>1690.508147261616</v>
@@ -5740,49 +5740,49 @@
         <v>1264.531207409474</v>
       </c>
       <c r="F20" t="n">
-        <v>839.4070255988738</v>
+        <v>839.4070255988736</v>
       </c>
       <c r="G20" t="n">
-        <v>435.0679631883225</v>
+        <v>435.0679631883222</v>
       </c>
       <c r="H20" t="n">
-        <v>137.1995846623573</v>
+        <v>137.1995846623568</v>
       </c>
       <c r="I20" t="n">
         <v>102.3027134058285</v>
       </c>
       <c r="J20" t="n">
-        <v>102.3027134058285</v>
+        <v>464.9061722227241</v>
       </c>
       <c r="K20" t="n">
-        <v>817.8110213813276</v>
+        <v>1180.414480198223</v>
       </c>
       <c r="L20" t="n">
-        <v>1747.436069000604</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="M20" t="n">
-        <v>2751.722170419663</v>
+        <v>2988.069926596602</v>
       </c>
       <c r="N20" t="n">
-        <v>3727.973228906364</v>
+        <v>2988.069926596602</v>
       </c>
       <c r="O20" t="n">
-        <v>4573.117879057176</v>
+        <v>3833.214576747414</v>
       </c>
       <c r="P20" t="n">
-        <v>5115.135670291426</v>
+        <v>4541.493855905342</v>
       </c>
       <c r="Q20" t="n">
-        <v>5115.135670291426</v>
+        <v>4997.579335409525</v>
       </c>
       <c r="R20" t="n">
-        <v>5115.135670291426</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="S20" t="n">
-        <v>5010.768376164567</v>
+        <v>5010.768376164568</v>
       </c>
       <c r="T20" t="n">
-        <v>4789.842805209199</v>
+        <v>4789.8428052092</v>
       </c>
       <c r="U20" t="n">
         <v>4531.487895805612</v>
@@ -5794,7 +5794,7 @@
         <v>3777.607131232208</v>
       </c>
       <c r="X20" t="n">
-        <v>3365.887132399956</v>
+        <v>3365.887132399955</v>
       </c>
       <c r="Y20" t="n">
         <v>2960.549862354846</v>
@@ -5831,28 +5831,28 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J21" t="n">
-        <v>374.0002026854196</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="K21" t="n">
-        <v>964.4851292537592</v>
+        <v>692.7876399741681</v>
       </c>
       <c r="L21" t="n">
-        <v>964.4851292537592</v>
+        <v>1529.586448057074</v>
       </c>
       <c r="M21" t="n">
-        <v>964.4851292537592</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="N21" t="n">
-        <v>964.4851292537592</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="O21" t="n">
-        <v>1112.773316863137</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="P21" t="n">
-        <v>1828.971033901635</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="Q21" t="n">
-        <v>1828.971033901635</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="R21" t="n">
         <v>1910.990343986338</v>
@@ -5886,34 +5886,34 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>326.3817789554925</v>
+        <v>1185.483835930065</v>
       </c>
       <c r="C22" t="n">
-        <v>154.4092158344085</v>
+        <v>1013.511272808982</v>
       </c>
       <c r="D22" t="n">
-        <v>102.3027134058285</v>
+        <v>850.1944999357522</v>
       </c>
       <c r="E22" t="n">
-        <v>102.3027134058285</v>
+        <v>683.9862940886057</v>
       </c>
       <c r="F22" t="n">
-        <v>102.3027134058285</v>
+        <v>512.1245198631661</v>
       </c>
       <c r="G22" t="n">
-        <v>102.3027134058285</v>
+        <v>345.8675501573982</v>
       </c>
       <c r="H22" t="n">
-        <v>102.3027134058285</v>
+        <v>202.0712816655526</v>
       </c>
       <c r="I22" t="n">
         <v>102.3027134058285</v>
       </c>
       <c r="J22" t="n">
-        <v>159.7940416299865</v>
+        <v>159.7940416299866</v>
       </c>
       <c r="K22" t="n">
-        <v>386.3216428358237</v>
+        <v>386.3216428358238</v>
       </c>
       <c r="L22" t="n">
         <v>741.0109641302445</v>
@@ -5934,28 +5934,28 @@
         <v>2282.715740818957</v>
       </c>
       <c r="R22" t="n">
-        <v>2235.67712750613</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="S22" t="n">
-        <v>2065.542080025265</v>
+        <v>2119.408873334071</v>
       </c>
       <c r="T22" t="n">
-        <v>1822.202732251165</v>
+        <v>2119.408873334071</v>
       </c>
       <c r="U22" t="n">
-        <v>1542.018283751469</v>
+        <v>2119.408873334071</v>
       </c>
       <c r="V22" t="n">
-        <v>1260.306816359498</v>
+        <v>2119.408873334071</v>
       </c>
       <c r="W22" t="n">
-        <v>985.454412532011</v>
+        <v>1844.556469506584</v>
       </c>
       <c r="X22" t="n">
-        <v>742.8905159778161</v>
+        <v>1601.992572952389</v>
       </c>
       <c r="Y22" t="n">
-        <v>516.5477476675582</v>
+        <v>1375.649804642131</v>
       </c>
     </row>
     <row r="23">
@@ -5965,10 +5965,10 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2540.701498063316</v>
+        <v>2540.701498063315</v>
       </c>
       <c r="C23" t="n">
-        <v>2113.800768076616</v>
+        <v>2113.800768076615</v>
       </c>
       <c r="D23" t="n">
         <v>1690.508147261616</v>
@@ -5977,49 +5977,49 @@
         <v>1264.531207409474</v>
       </c>
       <c r="F23" t="n">
-        <v>839.4070255988739</v>
+        <v>839.4070255988736</v>
       </c>
       <c r="G23" t="n">
-        <v>435.0679631883225</v>
+        <v>435.0679631883222</v>
       </c>
       <c r="H23" t="n">
-        <v>137.1995846623573</v>
+        <v>137.1995846623568</v>
       </c>
       <c r="I23" t="n">
         <v>102.3027134058285</v>
       </c>
       <c r="J23" t="n">
-        <v>102.3027134058285</v>
+        <v>464.9061722227241</v>
       </c>
       <c r="K23" t="n">
-        <v>817.8110213813276</v>
+        <v>1180.414480198223</v>
       </c>
       <c r="L23" t="n">
-        <v>1747.436069000604</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="M23" t="n">
-        <v>2751.722170419663</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="N23" t="n">
-        <v>3727.973228906364</v>
+        <v>2988.069926596602</v>
       </c>
       <c r="O23" t="n">
-        <v>4573.117879057176</v>
+        <v>3833.214576747414</v>
       </c>
       <c r="P23" t="n">
-        <v>5115.135670291426</v>
+        <v>4541.493855905342</v>
       </c>
       <c r="Q23" t="n">
-        <v>5115.135670291426</v>
+        <v>4997.579335409525</v>
       </c>
       <c r="R23" t="n">
-        <v>5115.135670291426</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="S23" t="n">
-        <v>5010.768376164567</v>
+        <v>5010.768376164568</v>
       </c>
       <c r="T23" t="n">
-        <v>4789.842805209199</v>
+        <v>4789.8428052092</v>
       </c>
       <c r="U23" t="n">
         <v>4531.487895805612</v>
@@ -6044,76 +6044,76 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>3873.571530742372</v>
+        <v>669.4262044372838</v>
       </c>
       <c r="C24" t="n">
-        <v>3756.065627259877</v>
+        <v>551.9203009547886</v>
       </c>
       <c r="D24" t="n">
-        <v>3652.225668775162</v>
+        <v>448.0803424700736</v>
       </c>
       <c r="E24" t="n">
-        <v>3547.5237350481</v>
+        <v>343.3784087430108</v>
       </c>
       <c r="F24" t="n">
-        <v>3453.877904731004</v>
+        <v>249.7325784259149</v>
       </c>
       <c r="G24" t="n">
-        <v>3359.824132948608</v>
+        <v>155.678806643519</v>
       </c>
       <c r="H24" t="n">
-        <v>3306.448039710918</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I24" t="n">
-        <v>3306.448039710918</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J24" t="n">
-        <v>3306.448039710918</v>
+        <v>374.0002026854196</v>
       </c>
       <c r="K24" t="n">
-        <v>3896.932966279257</v>
+        <v>374.0002026854196</v>
       </c>
       <c r="L24" t="n">
-        <v>3896.932966279257</v>
+        <v>374.0002026854196</v>
       </c>
       <c r="M24" t="n">
-        <v>3896.932966279257</v>
+        <v>1364.825557038856</v>
       </c>
       <c r="N24" t="n">
-        <v>3896.932966279257</v>
+        <v>1364.825557038856</v>
       </c>
       <c r="O24" t="n">
-        <v>3896.932966279257</v>
+        <v>1364.825557038856</v>
       </c>
       <c r="P24" t="n">
-        <v>4568.970883343944</v>
+        <v>1364.825557038856</v>
       </c>
       <c r="Q24" t="n">
-        <v>5033.116360206724</v>
+        <v>1828.971033901635</v>
       </c>
       <c r="R24" t="n">
-        <v>5115.135670291426</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="S24" t="n">
-        <v>5033.811422852681</v>
+        <v>1829.666096547593</v>
       </c>
       <c r="T24" t="n">
-        <v>4891.931487150359</v>
+        <v>1687.786160845271</v>
       </c>
       <c r="U24" t="n">
-        <v>4707.163291069996</v>
+        <v>1503.017964764908</v>
       </c>
       <c r="V24" t="n">
-        <v>4502.190152209263</v>
+        <v>1298.044825904174</v>
       </c>
       <c r="W24" t="n">
-        <v>4305.66877504248</v>
+        <v>1101.523448737391</v>
       </c>
       <c r="X24" t="n">
-        <v>4142.191428809143</v>
+        <v>938.0461025040541</v>
       </c>
       <c r="Y24" t="n">
-        <v>4002.498540162435</v>
+        <v>798.3532138573465</v>
       </c>
     </row>
     <row r="25">
@@ -6123,34 +6123,34 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>1185.483835930065</v>
+        <v>496.5168264363576</v>
       </c>
       <c r="C25" t="n">
-        <v>1013.511272808981</v>
+        <v>324.5442633152736</v>
       </c>
       <c r="D25" t="n">
-        <v>850.1944999357521</v>
+        <v>324.5442633152736</v>
       </c>
       <c r="E25" t="n">
-        <v>683.9862940886056</v>
+        <v>324.5442633152736</v>
       </c>
       <c r="F25" t="n">
-        <v>512.124519863166</v>
+        <v>152.682489089834</v>
       </c>
       <c r="G25" t="n">
-        <v>345.8675501573982</v>
+        <v>152.682489089834</v>
       </c>
       <c r="H25" t="n">
-        <v>202.0712816655526</v>
+        <v>152.682489089834</v>
       </c>
       <c r="I25" t="n">
         <v>102.3027134058285</v>
       </c>
       <c r="J25" t="n">
-        <v>159.7940416299865</v>
+        <v>159.7940416299866</v>
       </c>
       <c r="K25" t="n">
-        <v>386.3216428358237</v>
+        <v>386.3216428358238</v>
       </c>
       <c r="L25" t="n">
         <v>741.0109641302445</v>
@@ -6171,28 +6171,28 @@
         <v>2282.715740818957</v>
       </c>
       <c r="R25" t="n">
-        <v>2282.715740818957</v>
+        <v>2235.67712750613</v>
       </c>
       <c r="S25" t="n">
-        <v>2282.715740818957</v>
+        <v>2235.67712750613</v>
       </c>
       <c r="T25" t="n">
-        <v>2282.715740818957</v>
+        <v>1992.33777973203</v>
       </c>
       <c r="U25" t="n">
-        <v>2282.715740818957</v>
+        <v>1712.153331232334</v>
       </c>
       <c r="V25" t="n">
-        <v>2001.004273426986</v>
+        <v>1430.441863840363</v>
       </c>
       <c r="W25" t="n">
-        <v>1844.556469506584</v>
+        <v>1155.589460012876</v>
       </c>
       <c r="X25" t="n">
-        <v>1601.992572952389</v>
+        <v>913.0255634586812</v>
       </c>
       <c r="Y25" t="n">
-        <v>1375.649804642131</v>
+        <v>686.6827951484232</v>
       </c>
     </row>
     <row r="26">
@@ -6202,10 +6202,10 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2540.701498063316</v>
+        <v>2540.701498063315</v>
       </c>
       <c r="C26" t="n">
-        <v>2113.800768076616</v>
+        <v>2113.800768076615</v>
       </c>
       <c r="D26" t="n">
         <v>1690.508147261616</v>
@@ -6214,19 +6214,19 @@
         <v>1264.531207409474</v>
       </c>
       <c r="F26" t="n">
-        <v>839.4070255988739</v>
+        <v>839.4070255988736</v>
       </c>
       <c r="G26" t="n">
-        <v>435.0679631883225</v>
+        <v>435.0679631883222</v>
       </c>
       <c r="H26" t="n">
-        <v>137.1995846623573</v>
+        <v>137.1995846623568</v>
       </c>
       <c r="I26" t="n">
         <v>102.3027134058285</v>
       </c>
       <c r="J26" t="n">
-        <v>464.906172222724</v>
+        <v>464.9061722227241</v>
       </c>
       <c r="K26" t="n">
         <v>1180.414480198223</v>
@@ -6235,28 +6235,28 @@
         <v>2110.0395278175</v>
       </c>
       <c r="M26" t="n">
-        <v>2720.098147267828</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="N26" t="n">
-        <v>3696.349205754529</v>
+        <v>3086.290586304201</v>
       </c>
       <c r="O26" t="n">
-        <v>4541.493855905341</v>
+        <v>3931.435236455013</v>
       </c>
       <c r="P26" t="n">
-        <v>4541.493855905341</v>
+        <v>4639.71451561294</v>
       </c>
       <c r="Q26" t="n">
-        <v>4997.579335409524</v>
+        <v>5095.799995117123</v>
       </c>
       <c r="R26" t="n">
-        <v>5115.135670291426</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="S26" t="n">
-        <v>5010.768376164567</v>
+        <v>5010.768376164568</v>
       </c>
       <c r="T26" t="n">
-        <v>4789.842805209199</v>
+        <v>4789.8428052092</v>
       </c>
       <c r="U26" t="n">
         <v>4531.487895805612</v>
@@ -6302,31 +6302,31 @@
         <v>102.3027134058285</v>
       </c>
       <c r="I27" t="n">
-        <v>102.3027134058285</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="J27" t="n">
-        <v>102.3027134058285</v>
+        <v>381.4468456473314</v>
       </c>
       <c r="K27" t="n">
-        <v>102.3027134058285</v>
+        <v>971.931772215671</v>
       </c>
       <c r="L27" t="n">
-        <v>939.1015214887346</v>
+        <v>971.931772215671</v>
       </c>
       <c r="M27" t="n">
-        <v>939.1015214887346</v>
+        <v>971.931772215671</v>
       </c>
       <c r="N27" t="n">
-        <v>939.1015214887346</v>
+        <v>971.931772215671</v>
       </c>
       <c r="O27" t="n">
-        <v>1828.582799500206</v>
+        <v>971.931772215671</v>
       </c>
       <c r="P27" t="n">
-        <v>1910.990343986338</v>
+        <v>1364.825557038856</v>
       </c>
       <c r="Q27" t="n">
-        <v>1910.990343986338</v>
+        <v>1828.971033901635</v>
       </c>
       <c r="R27" t="n">
         <v>1910.990343986338</v>
@@ -6360,34 +6360,34 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>1032.493025844838</v>
+        <v>786.8947875232845</v>
       </c>
       <c r="C28" t="n">
-        <v>1013.511272808981</v>
+        <v>614.9222244022005</v>
       </c>
       <c r="D28" t="n">
-        <v>850.1944999357521</v>
+        <v>451.6054515289712</v>
       </c>
       <c r="E28" t="n">
-        <v>683.9862940886056</v>
+        <v>451.6054515289712</v>
       </c>
       <c r="F28" t="n">
-        <v>512.124519863166</v>
+        <v>279.7436773035316</v>
       </c>
       <c r="G28" t="n">
-        <v>345.8675501573982</v>
+        <v>113.4867075977638</v>
       </c>
       <c r="H28" t="n">
-        <v>202.0712816655526</v>
+        <v>113.4867075977638</v>
       </c>
       <c r="I28" t="n">
         <v>102.3027134058285</v>
       </c>
       <c r="J28" t="n">
-        <v>159.7940416299865</v>
+        <v>159.7940416299866</v>
       </c>
       <c r="K28" t="n">
-        <v>386.3216428358237</v>
+        <v>386.3216428358238</v>
       </c>
       <c r="L28" t="n">
         <v>741.0109641302445</v>
@@ -6411,25 +6411,25 @@
         <v>2282.715740818957</v>
       </c>
       <c r="S28" t="n">
-        <v>2112.580693338092</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="T28" t="n">
-        <v>1869.241345563992</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="U28" t="n">
-        <v>1589.056897064296</v>
+        <v>2002.531292319261</v>
       </c>
       <c r="V28" t="n">
-        <v>1307.345429672325</v>
+        <v>1720.81982492729</v>
       </c>
       <c r="W28" t="n">
-        <v>1032.493025844838</v>
+        <v>1445.967421099803</v>
       </c>
       <c r="X28" t="n">
-        <v>1032.493025844838</v>
+        <v>1203.403524545608</v>
       </c>
       <c r="Y28" t="n">
-        <v>1032.493025844838</v>
+        <v>977.0607562353503</v>
       </c>
     </row>
     <row r="29">
@@ -6439,10 +6439,10 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2540.701498063316</v>
+        <v>2540.701498063315</v>
       </c>
       <c r="C29" t="n">
-        <v>2113.800768076616</v>
+        <v>2113.800768076615</v>
       </c>
       <c r="D29" t="n">
         <v>1690.508147261616</v>
@@ -6451,49 +6451,49 @@
         <v>1264.531207409474</v>
       </c>
       <c r="F29" t="n">
-        <v>839.4070255988738</v>
+        <v>839.4070255988736</v>
       </c>
       <c r="G29" t="n">
-        <v>435.0679631883225</v>
+        <v>435.0679631883222</v>
       </c>
       <c r="H29" t="n">
-        <v>137.1995846623573</v>
+        <v>137.1995846623568</v>
       </c>
       <c r="I29" t="n">
         <v>102.3027134058285</v>
       </c>
       <c r="J29" t="n">
-        <v>102.3027134058285</v>
+        <v>464.9061722227241</v>
       </c>
       <c r="K29" t="n">
-        <v>817.8110213813276</v>
+        <v>1180.414480198223</v>
       </c>
       <c r="L29" t="n">
-        <v>1747.436069000604</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="M29" t="n">
-        <v>2751.722170419663</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="N29" t="n">
-        <v>3727.973228906364</v>
+        <v>2988.069926596602</v>
       </c>
       <c r="O29" t="n">
-        <v>4573.117879057176</v>
+        <v>3833.214576747414</v>
       </c>
       <c r="P29" t="n">
-        <v>5115.135670291426</v>
+        <v>4541.493855905342</v>
       </c>
       <c r="Q29" t="n">
-        <v>5115.135670291426</v>
+        <v>4997.579335409525</v>
       </c>
       <c r="R29" t="n">
-        <v>5115.135670291426</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="S29" t="n">
-        <v>5010.768376164567</v>
+        <v>5010.768376164568</v>
       </c>
       <c r="T29" t="n">
-        <v>4789.842805209199</v>
+        <v>4789.8428052092</v>
       </c>
       <c r="U29" t="n">
         <v>4531.487895805612</v>
@@ -6539,31 +6539,31 @@
         <v>102.3027134058285</v>
       </c>
       <c r="I30" t="n">
-        <v>102.3027134058285</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="J30" t="n">
-        <v>102.3027134058285</v>
+        <v>381.4468456473314</v>
       </c>
       <c r="K30" t="n">
-        <v>692.7876399741681</v>
+        <v>971.931772215671</v>
       </c>
       <c r="L30" t="n">
-        <v>821.6753975134684</v>
+        <v>1112.773316863137</v>
       </c>
       <c r="M30" t="n">
-        <v>821.6753975134684</v>
+        <v>1112.773316863137</v>
       </c>
       <c r="N30" t="n">
-        <v>1910.990343986338</v>
+        <v>1112.773316863137</v>
       </c>
       <c r="O30" t="n">
-        <v>1910.990343986338</v>
+        <v>1112.773316863137</v>
       </c>
       <c r="P30" t="n">
-        <v>1910.990343986338</v>
+        <v>1828.971033901635</v>
       </c>
       <c r="Q30" t="n">
-        <v>1910.990343986338</v>
+        <v>1828.971033901635</v>
       </c>
       <c r="R30" t="n">
         <v>1910.990343986338</v>
@@ -6597,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>3817.874342004481</v>
+        <v>446.1370507523521</v>
       </c>
       <c r="C31" t="n">
-        <v>3645.901778883397</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="D31" t="n">
-        <v>3482.585006010168</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="E31" t="n">
-        <v>3316.376800163021</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="F31" t="n">
-        <v>3144.515025937582</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="G31" t="n">
-        <v>2978.258056231814</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="H31" t="n">
-        <v>2934.722642878298</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I31" t="n">
-        <v>2934.722642878298</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J31" t="n">
-        <v>2992.213971102456</v>
+        <v>159.7940416299866</v>
       </c>
       <c r="K31" t="n">
-        <v>3218.741572308293</v>
+        <v>386.3216428358238</v>
       </c>
       <c r="L31" t="n">
-        <v>3573.430893602714</v>
+        <v>741.0109641302445</v>
       </c>
       <c r="M31" t="n">
-        <v>3964.616688572965</v>
+        <v>1132.196759100495</v>
       </c>
       <c r="N31" t="n">
-        <v>4342.108199449</v>
+        <v>1509.688269976531</v>
       </c>
       <c r="O31" t="n">
-        <v>4697.536328128764</v>
+        <v>1865.116398656294</v>
       </c>
       <c r="P31" t="n">
-        <v>4988.135540050665</v>
+        <v>2155.715610578195</v>
       </c>
       <c r="Q31" t="n">
-        <v>5115.135670291426</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="R31" t="n">
-        <v>5068.0970569786</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="S31" t="n">
-        <v>4897.962009497734</v>
+        <v>2185.297351822124</v>
       </c>
       <c r="T31" t="n">
-        <v>4654.622661723634</v>
+        <v>1941.958004048024</v>
       </c>
       <c r="U31" t="n">
-        <v>4374.438213223939</v>
+        <v>1661.773555548329</v>
       </c>
       <c r="V31" t="n">
-        <v>4092.726745831968</v>
+        <v>1380.062088156358</v>
       </c>
       <c r="W31" t="n">
-        <v>3817.874342004481</v>
+        <v>1105.20968432887</v>
       </c>
       <c r="X31" t="n">
-        <v>3817.874342004481</v>
+        <v>862.6457877746757</v>
       </c>
       <c r="Y31" t="n">
-        <v>3817.874342004481</v>
+        <v>636.3030194644177</v>
       </c>
     </row>
     <row r="32">
@@ -6676,10 +6676,10 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2540.701498063316</v>
+        <v>2540.701498063315</v>
       </c>
       <c r="C32" t="n">
-        <v>2113.800768076616</v>
+        <v>2113.800768076615</v>
       </c>
       <c r="D32" t="n">
         <v>1690.508147261616</v>
@@ -6688,49 +6688,49 @@
         <v>1264.531207409474</v>
       </c>
       <c r="F32" t="n">
-        <v>839.4070255988739</v>
+        <v>839.4070255988736</v>
       </c>
       <c r="G32" t="n">
-        <v>435.0679631883225</v>
+        <v>435.0679631883222</v>
       </c>
       <c r="H32" t="n">
-        <v>137.1995846623573</v>
+        <v>137.1995846623568</v>
       </c>
       <c r="I32" t="n">
         <v>102.3027134058285</v>
       </c>
       <c r="J32" t="n">
-        <v>102.3027134058285</v>
+        <v>464.9061722227241</v>
       </c>
       <c r="K32" t="n">
-        <v>817.8110213813276</v>
+        <v>1180.414480198223</v>
       </c>
       <c r="L32" t="n">
-        <v>1747.436069000604</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="M32" t="n">
-        <v>2751.722170419663</v>
+        <v>2988.069926596602</v>
       </c>
       <c r="N32" t="n">
-        <v>3727.973228906364</v>
+        <v>2988.069926596602</v>
       </c>
       <c r="O32" t="n">
-        <v>4573.117879057176</v>
+        <v>3833.214576747414</v>
       </c>
       <c r="P32" t="n">
-        <v>4997.579335409524</v>
+        <v>4541.493855905342</v>
       </c>
       <c r="Q32" t="n">
-        <v>4997.579335409524</v>
+        <v>4997.579335409525</v>
       </c>
       <c r="R32" t="n">
-        <v>5115.135670291426</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="S32" t="n">
-        <v>5010.768376164567</v>
+        <v>5010.768376164568</v>
       </c>
       <c r="T32" t="n">
-        <v>4789.842805209199</v>
+        <v>4789.8428052092</v>
       </c>
       <c r="U32" t="n">
         <v>4531.487895805612</v>
@@ -6776,25 +6776,25 @@
         <v>102.3027134058285</v>
       </c>
       <c r="I33" t="n">
-        <v>102.3027134058285</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="J33" t="n">
-        <v>374.0002026854196</v>
+        <v>381.4468456473314</v>
       </c>
       <c r="K33" t="n">
-        <v>964.4851292537592</v>
+        <v>648.6278400003578</v>
       </c>
       <c r="L33" t="n">
-        <v>964.4851292537592</v>
+        <v>648.6278400003578</v>
       </c>
       <c r="M33" t="n">
-        <v>964.4851292537592</v>
+        <v>648.6278400003578</v>
       </c>
       <c r="N33" t="n">
-        <v>964.4851292537592</v>
+        <v>648.6278400003578</v>
       </c>
       <c r="O33" t="n">
-        <v>964.4851292537592</v>
+        <v>648.6278400003578</v>
       </c>
       <c r="P33" t="n">
         <v>1364.825557038856</v>
@@ -6834,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>3901.026184387725</v>
+        <v>446.1370507523521</v>
       </c>
       <c r="C34" t="n">
-        <v>3729.053621266641</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="D34" t="n">
-        <v>3565.736848393412</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="E34" t="n">
-        <v>3399.528642546265</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="F34" t="n">
-        <v>3227.666868320826</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="G34" t="n">
-        <v>3061.409898615058</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="H34" t="n">
-        <v>2934.722642878298</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I34" t="n">
-        <v>2934.722642878298</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J34" t="n">
-        <v>2992.213971102456</v>
+        <v>159.7940416299866</v>
       </c>
       <c r="K34" t="n">
-        <v>3218.741572308293</v>
+        <v>386.3216428358238</v>
       </c>
       <c r="L34" t="n">
-        <v>3573.430893602714</v>
+        <v>741.0109641302445</v>
       </c>
       <c r="M34" t="n">
-        <v>3964.616688572965</v>
+        <v>1132.196759100495</v>
       </c>
       <c r="N34" t="n">
-        <v>4342.108199449</v>
+        <v>1509.688269976531</v>
       </c>
       <c r="O34" t="n">
-        <v>4697.536328128764</v>
+        <v>1865.116398656294</v>
       </c>
       <c r="P34" t="n">
-        <v>4988.135540050665</v>
+        <v>2155.715610578195</v>
       </c>
       <c r="Q34" t="n">
-        <v>5115.135670291426</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="R34" t="n">
-        <v>5115.135670291426</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="S34" t="n">
-        <v>5115.135670291426</v>
+        <v>2185.297351822124</v>
       </c>
       <c r="T34" t="n">
-        <v>5115.135670291426</v>
+        <v>1941.958004048024</v>
       </c>
       <c r="U34" t="n">
-        <v>4834.951221791731</v>
+        <v>1661.773555548329</v>
       </c>
       <c r="V34" t="n">
-        <v>4834.951221791731</v>
+        <v>1380.062088156358</v>
       </c>
       <c r="W34" t="n">
-        <v>4560.098817964244</v>
+        <v>1105.20968432887</v>
       </c>
       <c r="X34" t="n">
-        <v>4317.534921410049</v>
+        <v>862.6457877746757</v>
       </c>
       <c r="Y34" t="n">
-        <v>4091.192153099791</v>
+        <v>636.3030194644177</v>
       </c>
     </row>
     <row r="35">
@@ -6913,10 +6913,10 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2540.701498063316</v>
+        <v>2540.701498063315</v>
       </c>
       <c r="C35" t="n">
-        <v>2113.800768076616</v>
+        <v>2113.800768076615</v>
       </c>
       <c r="D35" t="n">
         <v>1690.508147261616</v>
@@ -6925,49 +6925,49 @@
         <v>1264.531207409474</v>
       </c>
       <c r="F35" t="n">
-        <v>839.4070255988739</v>
+        <v>839.4070255988736</v>
       </c>
       <c r="G35" t="n">
-        <v>435.0679631883225</v>
+        <v>435.0679631883222</v>
       </c>
       <c r="H35" t="n">
-        <v>137.1995846623573</v>
+        <v>137.1995846623568</v>
       </c>
       <c r="I35" t="n">
         <v>102.3027134058285</v>
       </c>
       <c r="J35" t="n">
-        <v>102.3027134058285</v>
+        <v>464.9061722227241</v>
       </c>
       <c r="K35" t="n">
-        <v>102.3027134058285</v>
+        <v>1180.414480198223</v>
       </c>
       <c r="L35" t="n">
-        <v>1031.927761025105</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="M35" t="n">
-        <v>2036.213862444163</v>
+        <v>2988.069926596602</v>
       </c>
       <c r="N35" t="n">
-        <v>3012.464920930865</v>
+        <v>2988.069926596602</v>
       </c>
       <c r="O35" t="n">
-        <v>3857.609571081677</v>
+        <v>3833.214576747414</v>
       </c>
       <c r="P35" t="n">
-        <v>4541.493855905341</v>
+        <v>4541.493855905342</v>
       </c>
       <c r="Q35" t="n">
-        <v>4997.579335409524</v>
+        <v>4997.579335409525</v>
       </c>
       <c r="R35" t="n">
-        <v>5115.135670291426</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="S35" t="n">
-        <v>5010.768376164567</v>
+        <v>5010.768376164568</v>
       </c>
       <c r="T35" t="n">
-        <v>4789.842805209199</v>
+        <v>4789.8428052092</v>
       </c>
       <c r="U35" t="n">
         <v>4531.487895805612</v>
@@ -7013,25 +7013,25 @@
         <v>102.3027134058285</v>
       </c>
       <c r="I36" t="n">
-        <v>102.3027134058285</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="J36" t="n">
-        <v>102.3027134058285</v>
+        <v>381.4468456473314</v>
       </c>
       <c r="K36" t="n">
-        <v>692.7876399741681</v>
+        <v>971.931772215671</v>
       </c>
       <c r="L36" t="n">
-        <v>692.7876399741681</v>
+        <v>971.931772215671</v>
       </c>
       <c r="M36" t="n">
-        <v>692.7876399741681</v>
+        <v>971.931772215671</v>
       </c>
       <c r="N36" t="n">
-        <v>692.7876399741681</v>
+        <v>971.931772215671</v>
       </c>
       <c r="O36" t="n">
-        <v>692.7876399741681</v>
+        <v>971.931772215671</v>
       </c>
       <c r="P36" t="n">
         <v>1364.825557038856</v>
@@ -7071,34 +7071,34 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>775.6620294727279</v>
+        <v>683.9862940886057</v>
       </c>
       <c r="C37" t="n">
-        <v>603.6894663516439</v>
+        <v>683.9862940886057</v>
       </c>
       <c r="D37" t="n">
-        <v>440.3726934784146</v>
+        <v>683.9862940886057</v>
       </c>
       <c r="E37" t="n">
-        <v>274.1644876312681</v>
+        <v>683.9862940886057</v>
       </c>
       <c r="F37" t="n">
-        <v>102.3027134058285</v>
+        <v>512.1245198631661</v>
       </c>
       <c r="G37" t="n">
-        <v>102.3027134058285</v>
+        <v>345.8675501573982</v>
       </c>
       <c r="H37" t="n">
-        <v>102.3027134058285</v>
+        <v>202.0712816655526</v>
       </c>
       <c r="I37" t="n">
         <v>102.3027134058285</v>
       </c>
       <c r="J37" t="n">
-        <v>159.7940416299865</v>
+        <v>159.7940416299866</v>
       </c>
       <c r="K37" t="n">
-        <v>386.3216428358237</v>
+        <v>386.3216428358238</v>
       </c>
       <c r="L37" t="n">
         <v>741.0109641302445</v>
@@ -7119,28 +7119,28 @@
         <v>2282.715740818957</v>
       </c>
       <c r="R37" t="n">
-        <v>2282.715740818957</v>
+        <v>2235.67712750613</v>
       </c>
       <c r="S37" t="n">
-        <v>2282.715740818957</v>
+        <v>2065.542080025265</v>
       </c>
       <c r="T37" t="n">
-        <v>2271.4829827684</v>
+        <v>1822.202732251165</v>
       </c>
       <c r="U37" t="n">
-        <v>1991.298534268705</v>
+        <v>1542.018283751469</v>
       </c>
       <c r="V37" t="n">
-        <v>1709.587066876733</v>
+        <v>1260.306816359498</v>
       </c>
       <c r="W37" t="n">
-        <v>1434.734663049246</v>
+        <v>985.454412532011</v>
       </c>
       <c r="X37" t="n">
-        <v>1192.170766495052</v>
+        <v>742.8905159778161</v>
       </c>
       <c r="Y37" t="n">
-        <v>965.8279981847936</v>
+        <v>683.9862940886057</v>
       </c>
     </row>
     <row r="38">
@@ -7162,7 +7162,7 @@
         <v>1264.531207409474</v>
       </c>
       <c r="F38" t="n">
-        <v>839.4070255988739</v>
+        <v>839.4070255988738</v>
       </c>
       <c r="G38" t="n">
         <v>435.0679631883225</v>
@@ -7174,37 +7174,37 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J38" t="n">
-        <v>102.3027134058285</v>
+        <v>464.9061722227241</v>
       </c>
       <c r="K38" t="n">
-        <v>102.3027134058285</v>
+        <v>1180.414480198223</v>
       </c>
       <c r="L38" t="n">
-        <v>1031.927761025105</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="M38" t="n">
-        <v>2036.213862444163</v>
+        <v>3114.325629236558</v>
       </c>
       <c r="N38" t="n">
-        <v>3012.464920930865</v>
+        <v>3114.325629236558</v>
       </c>
       <c r="O38" t="n">
-        <v>3857.609571081677</v>
+        <v>3950.770911629316</v>
       </c>
       <c r="P38" t="n">
-        <v>4565.888850239604</v>
+        <v>4659.050190787244</v>
       </c>
       <c r="Q38" t="n">
-        <v>5021.974329743787</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="R38" t="n">
-        <v>5115.135670291426</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="S38" t="n">
-        <v>5010.768376164567</v>
+        <v>5010.768376164568</v>
       </c>
       <c r="T38" t="n">
-        <v>4789.842805209199</v>
+        <v>4789.8428052092</v>
       </c>
       <c r="U38" t="n">
         <v>4531.487895805612</v>
@@ -7250,31 +7250,31 @@
         <v>102.3027134058285</v>
       </c>
       <c r="I39" t="n">
-        <v>102.3027134058285</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="J39" t="n">
-        <v>374.0002026854196</v>
+        <v>381.4468456473314</v>
       </c>
       <c r="K39" t="n">
-        <v>374.0002026854196</v>
+        <v>381.4468456473314</v>
       </c>
       <c r="L39" t="n">
-        <v>374.0002026854196</v>
+        <v>381.4468456473314</v>
       </c>
       <c r="M39" t="n">
-        <v>374.0002026854196</v>
+        <v>381.4468456473314</v>
       </c>
       <c r="N39" t="n">
-        <v>1463.315149158289</v>
+        <v>381.4468456473314</v>
       </c>
       <c r="O39" t="n">
-        <v>1463.315149158289</v>
+        <v>648.6278400003578</v>
       </c>
       <c r="P39" t="n">
-        <v>1463.315149158289</v>
+        <v>1364.825557038856</v>
       </c>
       <c r="Q39" t="n">
-        <v>1910.990343986338</v>
+        <v>1828.971033901635</v>
       </c>
       <c r="R39" t="n">
         <v>1910.990343986338</v>
@@ -7308,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>3158.801708427963</v>
+        <v>616.7597400424195</v>
       </c>
       <c r="C40" t="n">
-        <v>2986.829145306879</v>
+        <v>444.7871769213355</v>
       </c>
       <c r="D40" t="n">
-        <v>2934.722642878298</v>
+        <v>373.9330558909921</v>
       </c>
       <c r="E40" t="n">
-        <v>2934.722642878298</v>
+        <v>373.9330558909921</v>
       </c>
       <c r="F40" t="n">
-        <v>2934.722642878298</v>
+        <v>202.0712816655526</v>
       </c>
       <c r="G40" t="n">
-        <v>2934.722642878298</v>
+        <v>202.0712816655526</v>
       </c>
       <c r="H40" t="n">
-        <v>2934.722642878298</v>
+        <v>202.0712816655526</v>
       </c>
       <c r="I40" t="n">
-        <v>2934.722642878298</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J40" t="n">
-        <v>2992.213971102456</v>
+        <v>159.7940416299866</v>
       </c>
       <c r="K40" t="n">
-        <v>3218.741572308293</v>
+        <v>386.3216428358238</v>
       </c>
       <c r="L40" t="n">
-        <v>3573.430893602714</v>
+        <v>741.0109641302445</v>
       </c>
       <c r="M40" t="n">
-        <v>3964.616688572965</v>
+        <v>1132.196759100495</v>
       </c>
       <c r="N40" t="n">
-        <v>4342.108199449</v>
+        <v>1509.688269976531</v>
       </c>
       <c r="O40" t="n">
-        <v>4697.536328128764</v>
+        <v>1865.116398656294</v>
       </c>
       <c r="P40" t="n">
-        <v>4988.135540050665</v>
+        <v>2155.715610578195</v>
       </c>
       <c r="Q40" t="n">
-        <v>5115.135670291426</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="R40" t="n">
-        <v>5068.0970569786</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="S40" t="n">
-        <v>4897.962009497734</v>
+        <v>2112.580693338092</v>
       </c>
       <c r="T40" t="n">
-        <v>4654.622661723634</v>
+        <v>2112.580693338092</v>
       </c>
       <c r="U40" t="n">
-        <v>4374.438213223939</v>
+        <v>1832.396244838396</v>
       </c>
       <c r="V40" t="n">
-        <v>4092.726745831968</v>
+        <v>1550.684777446425</v>
       </c>
       <c r="W40" t="n">
-        <v>3817.874342004481</v>
+        <v>1275.832373618938</v>
       </c>
       <c r="X40" t="n">
-        <v>3575.310445450286</v>
+        <v>1033.268477064743</v>
       </c>
       <c r="Y40" t="n">
-        <v>3348.967677140028</v>
+        <v>806.9257087544852</v>
       </c>
     </row>
     <row r="41">
@@ -7399,19 +7399,19 @@
         <v>1227.408567626107</v>
       </c>
       <c r="F41" t="n">
-        <v>802.2843858155068</v>
+        <v>802.2843858155067</v>
       </c>
       <c r="G41" t="n">
         <v>397.9453234049553</v>
       </c>
       <c r="H41" t="n">
-        <v>100.0769448789902</v>
+        <v>100.0769448789901</v>
       </c>
       <c r="I41" t="n">
-        <v>100.0769448789902</v>
+        <v>100.0769448789901</v>
       </c>
       <c r="J41" t="n">
-        <v>462.6804036958857</v>
+        <v>462.6804036958856</v>
       </c>
       <c r="K41" t="n">
         <v>1178.188711671385</v>
@@ -7420,25 +7420,25 @@
         <v>2107.813759290661</v>
       </c>
       <c r="M41" t="n">
-        <v>3112.09986070972</v>
+        <v>2994.337835136581</v>
       </c>
       <c r="N41" t="n">
-        <v>4088.350919196421</v>
+        <v>2994.337835136581</v>
       </c>
       <c r="O41" t="n">
-        <v>4547.761764445326</v>
+        <v>3839.482485287394</v>
       </c>
       <c r="P41" t="n">
-        <v>4547.761764445326</v>
+        <v>4547.761764445321</v>
       </c>
       <c r="Q41" t="n">
-        <v>5003.847243949509</v>
+        <v>5003.847243949504</v>
       </c>
       <c r="R41" t="n">
-        <v>5003.847243949509</v>
+        <v>5003.847243949504</v>
       </c>
       <c r="S41" t="n">
-        <v>4899.479949822649</v>
+        <v>4899.479949822645</v>
       </c>
       <c r="T41" t="n">
         <v>4752.720165425832</v>
@@ -7466,58 +7466,58 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>667.2004359104454</v>
+        <v>667.2004359104453</v>
       </c>
       <c r="C42" t="n">
-        <v>549.6945324279502</v>
+        <v>549.6945324279501</v>
       </c>
       <c r="D42" t="n">
-        <v>445.8545739432352</v>
+        <v>445.8545739432351</v>
       </c>
       <c r="E42" t="n">
-        <v>341.1526402161724</v>
+        <v>341.1526402161723</v>
       </c>
       <c r="F42" t="n">
-        <v>247.5068098990766</v>
+        <v>247.5068098990765</v>
       </c>
       <c r="G42" t="n">
-        <v>153.4530381166806</v>
+        <v>153.4530381166805</v>
       </c>
       <c r="H42" t="n">
-        <v>100.0769448789902</v>
+        <v>100.0769448789901</v>
       </c>
       <c r="I42" t="n">
-        <v>100.0769448789902</v>
+        <v>107.5235878409019</v>
       </c>
       <c r="J42" t="n">
-        <v>100.0769448789902</v>
+        <v>379.221077120493</v>
       </c>
       <c r="K42" t="n">
-        <v>100.0769448789902</v>
+        <v>646.4020714735193</v>
       </c>
       <c r="L42" t="n">
-        <v>100.0769448789902</v>
+        <v>646.4020714735193</v>
       </c>
       <c r="M42" t="n">
-        <v>1156.063482855035</v>
+        <v>646.4020714735193</v>
       </c>
       <c r="N42" t="n">
-        <v>1156.063482855035</v>
+        <v>646.4020714735193</v>
       </c>
       <c r="O42" t="n">
-        <v>1908.7645754595</v>
+        <v>646.4020714735193</v>
       </c>
       <c r="P42" t="n">
-        <v>1908.7645754595</v>
+        <v>1362.599788512017</v>
       </c>
       <c r="Q42" t="n">
-        <v>1908.7645754595</v>
+        <v>1826.745265374797</v>
       </c>
       <c r="R42" t="n">
         <v>1908.7645754595</v>
       </c>
       <c r="S42" t="n">
-        <v>1827.440328020755</v>
+        <v>1827.440328020754</v>
       </c>
       <c r="T42" t="n">
         <v>1685.560392318433</v>
@@ -7526,16 +7526,16 @@
         <v>1500.792196238069</v>
       </c>
       <c r="V42" t="n">
-        <v>1295.819057377336</v>
+        <v>1295.819057377335</v>
       </c>
       <c r="W42" t="n">
         <v>1099.297680210553</v>
       </c>
       <c r="X42" t="n">
-        <v>935.8203339772158</v>
+        <v>935.8203339772157</v>
       </c>
       <c r="Y42" t="n">
-        <v>796.1274453305082</v>
+        <v>796.1274453305081</v>
       </c>
     </row>
     <row r="43">
@@ -7545,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>3158.723552530694</v>
+        <v>443.9112822255137</v>
       </c>
       <c r="C43" t="n">
-        <v>2986.75098940961</v>
+        <v>271.9387191044297</v>
       </c>
       <c r="D43" t="n">
-        <v>2823.434216536381</v>
+        <v>271.9387191044297</v>
       </c>
       <c r="E43" t="n">
-        <v>2823.434216536381</v>
+        <v>271.9387191044297</v>
       </c>
       <c r="F43" t="n">
-        <v>2823.434216536381</v>
+        <v>100.0769448789901</v>
       </c>
       <c r="G43" t="n">
-        <v>2823.434216536381</v>
+        <v>100.0769448789901</v>
       </c>
       <c r="H43" t="n">
-        <v>2823.434216536381</v>
+        <v>100.0769448789901</v>
       </c>
       <c r="I43" t="n">
-        <v>2823.434216536381</v>
+        <v>100.0769448789901</v>
       </c>
       <c r="J43" t="n">
-        <v>2880.925544760539</v>
+        <v>157.5682731031481</v>
       </c>
       <c r="K43" t="n">
-        <v>3107.453145966376</v>
+        <v>384.0958743089853</v>
       </c>
       <c r="L43" t="n">
-        <v>3462.142467260797</v>
+        <v>738.785195603406</v>
       </c>
       <c r="M43" t="n">
-        <v>3853.328262231048</v>
+        <v>1129.970990573657</v>
       </c>
       <c r="N43" t="n">
-        <v>4230.819773107083</v>
+        <v>1507.462501449693</v>
       </c>
       <c r="O43" t="n">
-        <v>4586.247901786846</v>
+        <v>1862.890630129456</v>
       </c>
       <c r="P43" t="n">
-        <v>4876.847113708747</v>
+        <v>2153.489842051356</v>
       </c>
       <c r="Q43" t="n">
-        <v>5003.847243949509</v>
+        <v>2280.489972292118</v>
       </c>
       <c r="R43" t="n">
-        <v>5003.847243949509</v>
+        <v>2280.489972292118</v>
       </c>
       <c r="S43" t="n">
-        <v>4833.712196468644</v>
+        <v>2183.071583295286</v>
       </c>
       <c r="T43" t="n">
-        <v>4590.372848694544</v>
+        <v>1939.732235521186</v>
       </c>
       <c r="U43" t="n">
-        <v>4310.188400194848</v>
+        <v>1659.54778702149</v>
       </c>
       <c r="V43" t="n">
-        <v>4028.476932802877</v>
+        <v>1377.836319629519</v>
       </c>
       <c r="W43" t="n">
-        <v>3753.624528975391</v>
+        <v>1102.983915802032</v>
       </c>
       <c r="X43" t="n">
-        <v>3511.060632421196</v>
+        <v>860.4200192478372</v>
       </c>
       <c r="Y43" t="n">
-        <v>3284.717864110938</v>
+        <v>634.0772509375793</v>
       </c>
     </row>
     <row r="44">
@@ -7636,19 +7636,19 @@
         <v>1227.408567626107</v>
       </c>
       <c r="F44" t="n">
-        <v>802.2843858155068</v>
+        <v>802.2843858155067</v>
       </c>
       <c r="G44" t="n">
         <v>397.9453234049553</v>
       </c>
       <c r="H44" t="n">
-        <v>100.0769448789902</v>
+        <v>100.0769448789901</v>
       </c>
       <c r="I44" t="n">
-        <v>100.0769448789902</v>
+        <v>100.0769448789901</v>
       </c>
       <c r="J44" t="n">
-        <v>462.6804036958857</v>
+        <v>462.6804036958856</v>
       </c>
       <c r="K44" t="n">
         <v>1178.188711671385</v>
@@ -7657,34 +7657,34 @@
         <v>2107.813759290661</v>
       </c>
       <c r="M44" t="n">
-        <v>2876.781500254684</v>
+        <v>2994.337835136581</v>
       </c>
       <c r="N44" t="n">
-        <v>2876.781500254684</v>
+        <v>2994.337835136581</v>
       </c>
       <c r="O44" t="n">
-        <v>3721.926150405496</v>
+        <v>3839.482485287394</v>
       </c>
       <c r="P44" t="n">
-        <v>4430.205429563423</v>
+        <v>4547.761764445321</v>
       </c>
       <c r="Q44" t="n">
-        <v>4886.290909067607</v>
+        <v>5003.847243949504</v>
       </c>
       <c r="R44" t="n">
-        <v>5003.847243949509</v>
+        <v>5003.847243949504</v>
       </c>
       <c r="S44" t="n">
-        <v>4899.479949822649</v>
+        <v>4899.479949822645</v>
       </c>
       <c r="T44" t="n">
-        <v>4678.554378867282</v>
+        <v>4678.554378867278</v>
       </c>
       <c r="U44" t="n">
-        <v>4420.199469463694</v>
+        <v>4494.365256022244</v>
       </c>
       <c r="V44" t="n">
-        <v>4062.710054589944</v>
+        <v>4136.875841148494</v>
       </c>
       <c r="W44" t="n">
         <v>3740.484491448841</v>
@@ -7703,31 +7703,31 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>667.2004359104454</v>
+        <v>667.2004359104453</v>
       </c>
       <c r="C45" t="n">
-        <v>549.6945324279502</v>
+        <v>549.6945324279501</v>
       </c>
       <c r="D45" t="n">
-        <v>445.8545739432352</v>
+        <v>445.8545739432351</v>
       </c>
       <c r="E45" t="n">
-        <v>341.1526402161724</v>
+        <v>341.1526402161723</v>
       </c>
       <c r="F45" t="n">
-        <v>247.5068098990766</v>
+        <v>247.5068098990765</v>
       </c>
       <c r="G45" t="n">
-        <v>153.4530381166806</v>
+        <v>153.4530381166805</v>
       </c>
       <c r="H45" t="n">
-        <v>100.0769448789902</v>
+        <v>100.0769448789901</v>
       </c>
       <c r="I45" t="n">
-        <v>107.523587840902</v>
+        <v>107.5235878409019</v>
       </c>
       <c r="J45" t="n">
-        <v>379.2210771204931</v>
+        <v>379.221077120493</v>
       </c>
       <c r="K45" t="n">
         <v>969.7060036888327</v>
@@ -7742,19 +7742,19 @@
         <v>969.7060036888327</v>
       </c>
       <c r="O45" t="n">
-        <v>1444.619098596721</v>
+        <v>969.7060036888327</v>
       </c>
       <c r="P45" t="n">
-        <v>1444.619098596721</v>
+        <v>1362.599788512017</v>
       </c>
       <c r="Q45" t="n">
-        <v>1908.7645754595</v>
+        <v>1826.745265374797</v>
       </c>
       <c r="R45" t="n">
         <v>1908.7645754595</v>
       </c>
       <c r="S45" t="n">
-        <v>1827.440328020755</v>
+        <v>1827.440328020754</v>
       </c>
       <c r="T45" t="n">
         <v>1685.560392318433</v>
@@ -7763,16 +7763,16 @@
         <v>1500.792196238069</v>
       </c>
       <c r="V45" t="n">
-        <v>1295.819057377336</v>
+        <v>1295.819057377335</v>
       </c>
       <c r="W45" t="n">
         <v>1099.297680210553</v>
       </c>
       <c r="X45" t="n">
-        <v>935.8203339772158</v>
+        <v>935.8203339772157</v>
       </c>
       <c r="Y45" t="n">
-        <v>796.1274453305082</v>
+        <v>796.1274453305081</v>
       </c>
     </row>
     <row r="46">
@@ -7782,37 +7782,37 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>541.3296712223462</v>
+        <v>613.7585202956755</v>
       </c>
       <c r="C46" t="n">
-        <v>369.3571081012622</v>
+        <v>441.7859571745914</v>
       </c>
       <c r="D46" t="n">
-        <v>206.0403352280329</v>
+        <v>438.1956888101976</v>
       </c>
       <c r="E46" t="n">
-        <v>100.0769448789902</v>
+        <v>438.1956888101976</v>
       </c>
       <c r="F46" t="n">
-        <v>100.0769448789902</v>
+        <v>266.333914584758</v>
       </c>
       <c r="G46" t="n">
-        <v>100.0769448789902</v>
+        <v>100.0769448789901</v>
       </c>
       <c r="H46" t="n">
-        <v>100.0769448789902</v>
+        <v>100.0769448789901</v>
       </c>
       <c r="I46" t="n">
-        <v>100.0769448789902</v>
+        <v>100.0769448789901</v>
       </c>
       <c r="J46" t="n">
-        <v>157.5682731031482</v>
+        <v>157.5682731031481</v>
       </c>
       <c r="K46" t="n">
         <v>384.0958743089853</v>
       </c>
       <c r="L46" t="n">
-        <v>738.7851956034061</v>
+        <v>738.785195603406</v>
       </c>
       <c r="M46" t="n">
         <v>1129.970990573657</v>
@@ -7824,34 +7824,34 @@
         <v>1862.890630129456</v>
       </c>
       <c r="P46" t="n">
-        <v>2153.489842051357</v>
+        <v>2153.489842051356</v>
       </c>
       <c r="Q46" t="n">
-        <v>2280.489972292119</v>
+        <v>2280.489972292118</v>
       </c>
       <c r="R46" t="n">
-        <v>2280.489972292119</v>
+        <v>2280.489972292118</v>
       </c>
       <c r="S46" t="n">
-        <v>2280.489972292119</v>
+        <v>2110.354924811253</v>
       </c>
       <c r="T46" t="n">
-        <v>2037.150624518019</v>
+        <v>1867.015577037153</v>
       </c>
       <c r="U46" t="n">
-        <v>1756.966176018323</v>
+        <v>1586.831128537457</v>
       </c>
       <c r="V46" t="n">
-        <v>1475.254708626352</v>
+        <v>1305.119661145486</v>
       </c>
       <c r="W46" t="n">
-        <v>1200.402304798865</v>
+        <v>1030.267257317999</v>
       </c>
       <c r="X46" t="n">
-        <v>957.8384082446697</v>
+        <v>1030.267257317999</v>
       </c>
       <c r="Y46" t="n">
-        <v>731.4956399344118</v>
+        <v>803.9244890077412</v>
       </c>
     </row>
   </sheetData>
@@ -7981,28 +7981,28 @@
         <v>29.41995948558652</v>
       </c>
       <c r="K2" t="n">
-        <v>591.9924139104033</v>
+        <v>591.9924139104035</v>
       </c>
       <c r="L2" t="n">
-        <v>38.31204243262292</v>
+        <v>594.539855548217</v>
       </c>
       <c r="M2" t="n">
-        <v>593.6590760150258</v>
+        <v>593.6590760150259</v>
       </c>
       <c r="N2" t="n">
-        <v>37.27962283444602</v>
+        <v>571.0335849150666</v>
       </c>
       <c r="O2" t="n">
-        <v>547.9365584046774</v>
+        <v>37.3909593560241</v>
       </c>
       <c r="P2" t="n">
         <v>37.5753618102313</v>
       </c>
       <c r="Q2" t="n">
-        <v>496.8170781441769</v>
+        <v>36.12467460459804</v>
       </c>
       <c r="R2" t="n">
-        <v>153.7764225027789</v>
+        <v>35.03264989479647</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -8054,34 +8054,34 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>23.69424832768873</v>
+        <v>16.17238675</v>
       </c>
       <c r="J3" t="n">
-        <v>295.0530226965566</v>
+        <v>20.61111433333334</v>
       </c>
       <c r="K3" t="n">
-        <v>578.6270469489274</v>
+        <v>578.6270469489275</v>
       </c>
       <c r="L3" t="n">
         <v>22.51508671422956</v>
       </c>
       <c r="M3" t="n">
-        <v>579.324593627922</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N3" t="n">
-        <v>21.34302821354166</v>
+        <v>577.5708413291358</v>
       </c>
       <c r="O3" t="n">
-        <v>23.17188972222222</v>
+        <v>579.3997028378163</v>
       </c>
       <c r="P3" t="n">
-        <v>371.4608596749575</v>
+        <v>21.77084120482866</v>
       </c>
       <c r="Q3" t="n">
-        <v>22.7470382889785</v>
+        <v>181.0208015487716</v>
       </c>
       <c r="R3" t="n">
-        <v>106.5207073584907</v>
+        <v>23.67291939414415</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -8154,7 +8154,7 @@
         <v>381.5174992961649</v>
       </c>
       <c r="P4" t="n">
-        <v>315.9153581548562</v>
+        <v>315.915358154857</v>
       </c>
       <c r="Q4" t="n">
         <v>152.9025226039384</v>
@@ -8215,22 +8215,22 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>395.6860795026527</v>
+        <v>29.41995948558652</v>
       </c>
       <c r="K5" t="n">
-        <v>180.0440798263965</v>
+        <v>546.3101998434627</v>
       </c>
       <c r="L5" t="n">
         <v>38.31204243262292</v>
       </c>
       <c r="M5" t="n">
-        <v>593.6590760150259</v>
+        <v>37.43126289943181</v>
       </c>
       <c r="N5" t="n">
         <v>37.27962283444602</v>
       </c>
       <c r="O5" t="n">
-        <v>37.3909593560241</v>
+        <v>593.6187724716183</v>
       </c>
       <c r="P5" t="n">
         <v>593.8031749258255</v>
@@ -8291,16 +8291,16 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J6" t="n">
         <v>295.0530226965566</v>
       </c>
       <c r="K6" t="n">
-        <v>22.39923383333334</v>
+        <v>578.6270469489275</v>
       </c>
       <c r="L6" t="n">
-        <v>578.7428998298237</v>
+        <v>22.51508671422956</v>
       </c>
       <c r="M6" t="n">
         <v>23.09678051232798</v>
@@ -8312,13 +8312,13 @@
         <v>23.17188972222222</v>
       </c>
       <c r="P6" t="n">
-        <v>549.2245073196783</v>
+        <v>577.9986543204228</v>
       </c>
       <c r="Q6" t="n">
-        <v>491.5808533018869</v>
+        <v>372.4370567591071</v>
       </c>
       <c r="R6" t="n">
-        <v>23.67291939414415</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -8452,22 +8452,22 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>395.6860795026527</v>
+        <v>29.41995948558652</v>
       </c>
       <c r="K8" t="n">
         <v>591.9924139104035</v>
       </c>
       <c r="L8" t="n">
-        <v>87.05611188819479</v>
+        <v>594.539855548217</v>
       </c>
       <c r="M8" t="n">
         <v>593.6590760150259</v>
       </c>
       <c r="N8" t="n">
-        <v>593.5074359500402</v>
+        <v>37.27962283444602</v>
       </c>
       <c r="O8" t="n">
-        <v>37.3909593560241</v>
+        <v>571.1449214366446</v>
       </c>
       <c r="P8" t="n">
         <v>37.5753618102313</v>
@@ -8476,7 +8476,7 @@
         <v>36.12467460459804</v>
       </c>
       <c r="R8" t="n">
-        <v>153.7764225027789</v>
+        <v>35.03264989479647</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -8528,19 +8528,19 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J9" t="n">
         <v>295.0530226965566</v>
       </c>
       <c r="K9" t="n">
-        <v>578.6270469489275</v>
+        <v>459.4832504061476</v>
       </c>
       <c r="L9" t="n">
         <v>22.51508671422956</v>
       </c>
       <c r="M9" t="n">
-        <v>550.5504466271776</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N9" t="n">
         <v>21.34302821354166</v>
@@ -8549,13 +8549,13 @@
         <v>23.17188972222222</v>
       </c>
       <c r="P9" t="n">
-        <v>21.77084120482866</v>
+        <v>577.9986543204228</v>
       </c>
       <c r="Q9" t="n">
         <v>491.5808533018869</v>
       </c>
       <c r="R9" t="n">
-        <v>23.67291939414415</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -8689,19 +8689,19 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>395.6860795026527</v>
+        <v>29.41995948558652</v>
       </c>
       <c r="K11" t="n">
-        <v>758.5002654165255</v>
+        <v>35.76460079480934</v>
       </c>
       <c r="L11" t="n">
         <v>977.3272420480539</v>
       </c>
       <c r="M11" t="n">
-        <v>814.1663547822824</v>
+        <v>1051.861668373228</v>
       </c>
       <c r="N11" t="n">
-        <v>37.27962283444602</v>
+        <v>888.5860938822785</v>
       </c>
       <c r="O11" t="n">
         <v>891.0724241548241</v>
@@ -8765,16 +8765,16 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J12" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K12" t="n">
-        <v>22.39923383333334</v>
+        <v>618.848654609434</v>
       </c>
       <c r="L12" t="n">
-        <v>867.7664080100944</v>
+        <v>22.51508671422956</v>
       </c>
       <c r="M12" t="n">
         <v>23.09678051232798</v>
@@ -8786,13 +8786,13 @@
         <v>23.17188972222222</v>
       </c>
       <c r="P12" t="n">
-        <v>534.6429075026311</v>
+        <v>745.2028786174529</v>
       </c>
       <c r="Q12" t="n">
-        <v>491.5808533018869</v>
+        <v>165.0112248015704</v>
       </c>
       <c r="R12" t="n">
-        <v>23.67291939414415</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -8926,7 +8926,7 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K14" t="n">
         <v>758.5002654165255</v>
@@ -8944,7 +8944,7 @@
         <v>891.0724241548241</v>
       </c>
       <c r="P14" t="n">
-        <v>474.9037794053545</v>
+        <v>108.6376593882833</v>
       </c>
       <c r="Q14" t="n">
         <v>36.12467460459804</v>
@@ -9002,13 +9002,13 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J15" t="n">
         <v>295.0530226965566</v>
       </c>
       <c r="K15" t="n">
-        <v>618.848654609434</v>
+        <v>22.39923383333334</v>
       </c>
       <c r="L15" t="n">
         <v>22.51508671422956</v>
@@ -9020,16 +9020,16 @@
         <v>21.34302821354166</v>
       </c>
       <c r="O15" t="n">
-        <v>23.17188972222222</v>
+        <v>293.0516819980063</v>
       </c>
       <c r="P15" t="n">
-        <v>509.002899659172</v>
+        <v>745.2028786174529</v>
       </c>
       <c r="Q15" t="n">
         <v>491.5808533018869</v>
       </c>
       <c r="R15" t="n">
-        <v>23.67291939414415</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9163,13 +9163,13 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K17" t="n">
-        <v>471.8155959159405</v>
+        <v>35.76460079480934</v>
       </c>
       <c r="L17" t="n">
-        <v>977.3272420480539</v>
+        <v>586.4197136125407</v>
       </c>
       <c r="M17" t="n">
         <v>1051.861668373228</v>
@@ -9184,7 +9184,7 @@
         <v>753.0089771212694</v>
       </c>
       <c r="Q17" t="n">
-        <v>36.12467460459804</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R17" t="n">
         <v>153.7764225027789</v>
@@ -9239,34 +9239,34 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J18" t="n">
         <v>20.61111433333334</v>
       </c>
       <c r="K18" t="n">
-        <v>22.39923383333334</v>
+        <v>618.848654609434</v>
       </c>
       <c r="L18" t="n">
         <v>22.51508671422956</v>
       </c>
       <c r="M18" t="n">
-        <v>951.5880457335786</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N18" t="n">
         <v>21.34302821354166</v>
       </c>
       <c r="O18" t="n">
-        <v>921.6378271075471</v>
+        <v>23.17188972222222</v>
       </c>
       <c r="P18" t="n">
-        <v>21.77084120482866</v>
+        <v>745.2028786174529</v>
       </c>
       <c r="Q18" t="n">
-        <v>22.7470382889785</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R18" t="n">
-        <v>23.67291939414415</v>
+        <v>54.3929872213976</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9400,7 +9400,7 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K20" t="n">
         <v>758.5002654165255</v>
@@ -9409,22 +9409,22 @@
         <v>977.3272420480539</v>
       </c>
       <c r="M20" t="n">
-        <v>1051.861668373228</v>
+        <v>924.3306556055956</v>
       </c>
       <c r="N20" t="n">
-        <v>1023.391803124043</v>
+        <v>37.27962283444602</v>
       </c>
       <c r="O20" t="n">
         <v>891.0724241548241</v>
       </c>
       <c r="P20" t="n">
-        <v>585.0680802286663</v>
+        <v>753.0089771212694</v>
       </c>
       <c r="Q20" t="n">
-        <v>36.12467460459804</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R20" t="n">
-        <v>35.03264989479647</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9479,31 +9479,31 @@
         <v>16.17238675</v>
       </c>
       <c r="J21" t="n">
-        <v>295.0530226965566</v>
+        <v>20.61111433333334</v>
       </c>
       <c r="K21" t="n">
         <v>618.848654609434</v>
       </c>
       <c r="L21" t="n">
-        <v>22.51508671422956</v>
+        <v>867.7664080100944</v>
       </c>
       <c r="M21" t="n">
-        <v>23.09678051232798</v>
+        <v>408.3532410469382</v>
       </c>
       <c r="N21" t="n">
         <v>21.34302821354166</v>
       </c>
       <c r="O21" t="n">
-        <v>172.957937812503</v>
+        <v>23.17188972222222</v>
       </c>
       <c r="P21" t="n">
-        <v>745.2028786174529</v>
+        <v>21.77084120482866</v>
       </c>
       <c r="Q21" t="n">
         <v>22.7470382889785</v>
       </c>
       <c r="R21" t="n">
-        <v>106.5207073584907</v>
+        <v>23.67291939414415</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9637,7 +9637,7 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K23" t="n">
         <v>758.5002654165255</v>
@@ -9646,22 +9646,22 @@
         <v>977.3272420480539</v>
       </c>
       <c r="M23" t="n">
-        <v>1051.861668373228</v>
+        <v>37.43126289943181</v>
       </c>
       <c r="N23" t="n">
-        <v>1023.391803124043</v>
+        <v>924.1790155406098</v>
       </c>
       <c r="O23" t="n">
         <v>891.0724241548241</v>
       </c>
       <c r="P23" t="n">
-        <v>585.0680802286663</v>
+        <v>753.0089771212694</v>
       </c>
       <c r="Q23" t="n">
-        <v>36.12467460459804</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R23" t="n">
-        <v>35.03264989479647</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9716,16 +9716,16 @@
         <v>16.17238675</v>
       </c>
       <c r="J24" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K24" t="n">
-        <v>618.848654609434</v>
+        <v>22.39923383333334</v>
       </c>
       <c r="L24" t="n">
         <v>22.51508671422956</v>
       </c>
       <c r="M24" t="n">
-        <v>23.09678051232798</v>
+        <v>1023.930471778425</v>
       </c>
       <c r="N24" t="n">
         <v>21.34302821354166</v>
@@ -9734,7 +9734,7 @@
         <v>23.17188972222222</v>
       </c>
       <c r="P24" t="n">
-        <v>700.5970200580479</v>
+        <v>21.77084120482866</v>
       </c>
       <c r="Q24" t="n">
         <v>491.5808533018869</v>
@@ -9883,7 +9883,7 @@
         <v>977.3272420480539</v>
       </c>
       <c r="M26" t="n">
-        <v>653.6520906270358</v>
+        <v>37.43126289943181</v>
       </c>
       <c r="N26" t="n">
         <v>1023.391803124043</v>
@@ -9892,13 +9892,13 @@
         <v>891.0724241548241</v>
       </c>
       <c r="P26" t="n">
-        <v>37.5753618102313</v>
+        <v>753.0089771212694</v>
       </c>
       <c r="Q26" t="n">
         <v>496.8170781441769</v>
       </c>
       <c r="R26" t="n">
-        <v>153.7764225027789</v>
+        <v>54.56363491934598</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -9950,16 +9950,16 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J27" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K27" t="n">
-        <v>22.39923383333334</v>
+        <v>618.848654609434</v>
       </c>
       <c r="L27" t="n">
-        <v>867.7664080100944</v>
+        <v>22.51508671422956</v>
       </c>
       <c r="M27" t="n">
         <v>23.09678051232798</v>
@@ -9968,16 +9968,16 @@
         <v>21.34302821354166</v>
       </c>
       <c r="O27" t="n">
-        <v>921.6378271075471</v>
+        <v>23.17188972222222</v>
       </c>
       <c r="P27" t="n">
-        <v>105.0107851302144</v>
+        <v>418.6332501171365</v>
       </c>
       <c r="Q27" t="n">
-        <v>22.7470382889785</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R27" t="n">
-        <v>23.67291939414415</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10111,7 +10111,7 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K29" t="n">
         <v>758.5002654165255</v>
@@ -10120,22 +10120,22 @@
         <v>977.3272420480539</v>
       </c>
       <c r="M29" t="n">
-        <v>1051.861668373228</v>
+        <v>37.43126289943181</v>
       </c>
       <c r="N29" t="n">
-        <v>1023.391803124043</v>
+        <v>924.1790155406098</v>
       </c>
       <c r="O29" t="n">
         <v>891.0724241548241</v>
       </c>
       <c r="P29" t="n">
-        <v>585.0680802286663</v>
+        <v>753.0089771212694</v>
       </c>
       <c r="Q29" t="n">
-        <v>36.12467460459804</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R29" t="n">
-        <v>35.03264989479647</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10187,34 +10187,34 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J30" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K30" t="n">
         <v>618.848654609434</v>
       </c>
       <c r="L30" t="n">
-        <v>152.7047407943309</v>
+        <v>164.7792732268216</v>
       </c>
       <c r="M30" t="n">
         <v>23.09678051232798</v>
       </c>
       <c r="N30" t="n">
-        <v>1121.661155963915</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O30" t="n">
         <v>23.17188972222222</v>
       </c>
       <c r="P30" t="n">
-        <v>21.77084120482866</v>
+        <v>745.2028786174529</v>
       </c>
       <c r="Q30" t="n">
         <v>22.7470382889785</v>
       </c>
       <c r="R30" t="n">
-        <v>23.67291939414415</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10348,7 +10348,7 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K32" t="n">
         <v>758.5002654165255</v>
@@ -10357,19 +10357,19 @@
         <v>977.3272420480539</v>
       </c>
       <c r="M32" t="n">
-        <v>1051.861668373228</v>
+        <v>924.3306556055956</v>
       </c>
       <c r="N32" t="n">
-        <v>1023.391803124043</v>
+        <v>37.27962283444602</v>
       </c>
       <c r="O32" t="n">
         <v>891.0724241548241</v>
       </c>
       <c r="P32" t="n">
-        <v>466.3243076206841</v>
+        <v>753.0089771212694</v>
       </c>
       <c r="Q32" t="n">
-        <v>36.12467460459804</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R32" t="n">
         <v>153.7764225027789</v>
@@ -10424,13 +10424,13 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J33" t="n">
         <v>295.0530226965566</v>
       </c>
       <c r="K33" t="n">
-        <v>618.848654609434</v>
+        <v>292.2790261091175</v>
       </c>
       <c r="L33" t="n">
         <v>22.51508671422956</v>
@@ -10445,7 +10445,7 @@
         <v>23.17188972222222</v>
       </c>
       <c r="P33" t="n">
-        <v>426.1551116948253</v>
+        <v>745.2028786174529</v>
       </c>
       <c r="Q33" t="n">
         <v>491.5808533018869</v>
@@ -10585,25 +10585,25 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K35" t="n">
-        <v>35.76460079480934</v>
+        <v>758.5002654165255</v>
       </c>
       <c r="L35" t="n">
         <v>977.3272420480539</v>
       </c>
       <c r="M35" t="n">
-        <v>1051.861668373228</v>
+        <v>924.3306556055956</v>
       </c>
       <c r="N35" t="n">
-        <v>1023.391803124043</v>
+        <v>37.27962283444602</v>
       </c>
       <c r="O35" t="n">
         <v>891.0724241548241</v>
       </c>
       <c r="P35" t="n">
-        <v>728.3675687028212</v>
+        <v>753.0089771212694</v>
       </c>
       <c r="Q35" t="n">
         <v>496.8170781441769</v>
@@ -10661,10 +10661,10 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J36" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K36" t="n">
         <v>618.848654609434</v>
@@ -10682,7 +10682,7 @@
         <v>23.17188972222222</v>
       </c>
       <c r="P36" t="n">
-        <v>700.5970200580485</v>
+        <v>418.6332501171365</v>
       </c>
       <c r="Q36" t="n">
         <v>491.5808533018869</v>
@@ -10822,10 +10822,10 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K38" t="n">
-        <v>35.76460079480934</v>
+        <v>758.5002654165255</v>
       </c>
       <c r="L38" t="n">
         <v>977.3272420480539</v>
@@ -10834,10 +10834,10 @@
         <v>1051.861668373228</v>
       </c>
       <c r="N38" t="n">
-        <v>1023.391803124043</v>
+        <v>37.27962283444602</v>
       </c>
       <c r="O38" t="n">
-        <v>891.0724241548241</v>
+        <v>882.2851839951743</v>
       </c>
       <c r="P38" t="n">
         <v>753.0089771212694</v>
@@ -10846,7 +10846,7 @@
         <v>496.8170781441769</v>
       </c>
       <c r="R38" t="n">
-        <v>129.135014084331</v>
+        <v>35.03264989479647</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -10898,7 +10898,7 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J39" t="n">
         <v>295.0530226965566</v>
@@ -10913,19 +10913,19 @@
         <v>23.09678051232798</v>
       </c>
       <c r="N39" t="n">
-        <v>1121.661155963915</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O39" t="n">
-        <v>23.17188972222222</v>
+        <v>293.0516819980064</v>
       </c>
       <c r="P39" t="n">
-        <v>21.77084120482866</v>
+        <v>745.2028786174529</v>
       </c>
       <c r="Q39" t="n">
-        <v>474.9442047819572</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R39" t="n">
-        <v>23.67291939414415</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -11068,16 +11068,16 @@
         <v>977.3272420480539</v>
       </c>
       <c r="M41" t="n">
-        <v>1051.861668373228</v>
+        <v>932.91012739026</v>
       </c>
       <c r="N41" t="n">
-        <v>1023.391803124043</v>
+        <v>37.27962283444602</v>
       </c>
       <c r="O41" t="n">
-        <v>501.4423181933018</v>
+        <v>891.0724241548241</v>
       </c>
       <c r="P41" t="n">
-        <v>37.5753618102313</v>
+        <v>753.0089771212694</v>
       </c>
       <c r="Q41" t="n">
         <v>496.8170781441769</v>
@@ -11135,34 +11135,34 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J42" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K42" t="n">
-        <v>22.39923383333334</v>
+        <v>292.2790261091174</v>
       </c>
       <c r="L42" t="n">
         <v>22.51508671422956</v>
       </c>
       <c r="M42" t="n">
-        <v>1089.749849175</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N42" t="n">
         <v>21.34302821354166</v>
       </c>
       <c r="O42" t="n">
-        <v>783.476023666126</v>
+        <v>23.17188972222222</v>
       </c>
       <c r="P42" t="n">
-        <v>21.77084120482866</v>
+        <v>745.2028786174529</v>
       </c>
       <c r="Q42" t="n">
-        <v>22.7470382889785</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R42" t="n">
-        <v>23.67291939414415</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11305,7 +11305,7 @@
         <v>977.3272420480539</v>
       </c>
       <c r="M44" t="n">
-        <v>814.1663547822824</v>
+        <v>932.91012739026</v>
       </c>
       <c r="N44" t="n">
         <v>37.27962283444602</v>
@@ -11320,7 +11320,7 @@
         <v>496.8170781441769</v>
       </c>
       <c r="R44" t="n">
-        <v>153.7764225027789</v>
+        <v>35.03264989479647</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -11390,16 +11390,16 @@
         <v>21.34302821354166</v>
       </c>
       <c r="O45" t="n">
-        <v>502.8820865988768</v>
+        <v>23.17188972222222</v>
       </c>
       <c r="P45" t="n">
-        <v>21.77084120482866</v>
+        <v>418.6332501171364</v>
       </c>
       <c r="Q45" t="n">
         <v>491.5808533018869</v>
       </c>
       <c r="R45" t="n">
-        <v>23.67291939414415</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -23275,7 +23275,7 @@
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>107.9720312369283</v>
+        <v>107.9720312369327</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -23421,16 +23421,16 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>110.0981677402027</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>142.3583058069271</v>
@@ -23463,16 +23463,16 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>153.4739695386594</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -23506,7 +23506,7 @@
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>107.9720312369283</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
         <v>0</v>
@@ -23548,7 +23548,7 @@
         <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>107.9720312369329</v>
       </c>
       <c r="U14" t="n">
         <v>0</v>
@@ -23658,19 +23658,19 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>110.0981677402027</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>98.77088257712678</v>
@@ -23700,16 +23700,16 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -23721,7 +23721,7 @@
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>18.44967133088767</v>
       </c>
     </row>
     <row r="17">
@@ -23892,22 +23892,22 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>170.2528374898731</v>
+        <v>2.326677470262808</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -23937,10 +23937,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -23952,13 +23952,13 @@
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>216.0406006991457</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>240.1382575886529</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>224.0793406271554</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -24132,22 +24132,22 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>110.0981677402028</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24174,19 +24174,19 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>6.759898196019378</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
@@ -24369,22 +24369,22 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>48.89490464996135</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24411,22 +24411,22 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>168.4336970060565</v>
       </c>
       <c r="T25" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>117.2205539080143</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
@@ -24600,16 +24600,16 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>151.4609019843753</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
@@ -24618,10 +24618,10 @@
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>87.69872832711091</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24651,10 +24651,10 @@
         <v>46.56822717969858</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
@@ -24666,10 +24666,10 @@
         <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>240.1382575886529</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>224.0793406271554</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -24837,25 +24837,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H31" t="n">
-        <v>99.2582465869462</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I31" t="n">
         <v>98.77088257712678</v>
@@ -24885,10 +24885,10 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>71.9894918991922</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
@@ -24903,10 +24903,10 @@
         <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>240.1382575886529</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>224.0793406271554</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -25080,19 +25080,19 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F34" t="n">
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H34" t="n">
-        <v>16.93792262753465</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I34" t="n">
         <v>98.77088257712678</v>
@@ -25125,16 +25125,16 @@
         <v>46.56822717969858</v>
       </c>
       <c r="S34" t="n">
-        <v>168.4336970060565</v>
+        <v>71.9894918991922</v>
       </c>
       <c r="T34" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>278.8943527180514</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
         <v>0</v>
@@ -25311,28 +25311,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25359,13 +25359,13 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>229.7855238263079</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
@@ -25380,7 +25380,7 @@
         <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>165.7641609568371</v>
       </c>
     </row>
     <row r="38">
@@ -25554,13 +25554,13 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>110.098167740202</v>
+        <v>91.53802532445711</v>
       </c>
       <c r="E40" t="n">
         <v>164.546123788675</v>
       </c>
       <c r="F40" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
         <v>164.5944000087102</v>
@@ -25569,7 +25569,7 @@
         <v>142.3583058069271</v>
       </c>
       <c r="I40" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25596,13 +25596,13 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
@@ -25681,7 +25681,7 @@
         <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>73.42412869296442</v>
+        <v>73.42412869296891</v>
       </c>
       <c r="U41" t="n">
         <v>0</v>
@@ -25785,19 +25785,19 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>63.52994056050353</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E43" t="n">
         <v>164.546123788675</v>
       </c>
       <c r="F43" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
         <v>164.5944000087102</v>
@@ -25836,7 +25836,7 @@
         <v>46.56822717969858</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>71.98949189919266</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
@@ -25921,13 +25921,13 @@
         <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>73.42412869296905</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
       </c>
       <c r="W44" t="n">
-        <v>73.42412869296453</v>
+        <v>0</v>
       </c>
       <c r="X44" t="n">
         <v>0</v>
@@ -26028,16 +26028,16 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>158.1292394637471</v>
       </c>
       <c r="E46" t="n">
-        <v>59.64236734312273</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F46" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
         <v>142.3583058069271</v>
@@ -26073,7 +26073,7 @@
         <v>46.56822717969858</v>
       </c>
       <c r="S46" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
@@ -26088,7 +26088,7 @@
         <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y46" t="n">
         <v>0</v>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>693360.7310321606</v>
+        <v>693360.7310321601</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>693360.7310321606</v>
+        <v>693360.7310321601</v>
       </c>
     </row>
     <row r="7">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>704130.1238390965</v>
+        <v>704130.1238390964</v>
       </c>
     </row>
     <row r="13">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>704130.1238390965</v>
+        <v>704130.1238390963</v>
       </c>
     </row>
     <row r="14">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>704130.1238390965</v>
+        <v>704130.1238390964</v>
       </c>
     </row>
     <row r="15">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>693360.7310321607</v>
+        <v>693360.7310321602</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>693360.7310321607</v>
+        <v>693360.7310321601</v>
       </c>
     </row>
   </sheetData>
@@ -26313,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>378587.7342072559</v>
+      </c>
+      <c r="C2" t="n">
         <v>378587.7342072561</v>
-      </c>
-      <c r="C2" t="n">
-        <v>378587.7342072559</v>
       </c>
       <c r="D2" t="n">
         <v>378587.7342072559</v>
       </c>
       <c r="E2" t="n">
-        <v>359733.2891431421</v>
+        <v>359733.2891431419</v>
       </c>
       <c r="F2" t="n">
-        <v>359733.2891431421</v>
+        <v>359733.2891431417</v>
       </c>
       <c r="G2" t="n">
         <v>365319.7620393408</v>
       </c>
       <c r="H2" t="n">
+        <v>365319.7620393408</v>
+      </c>
+      <c r="I2" t="n">
         <v>365319.7620393407</v>
       </c>
-      <c r="I2" t="n">
-        <v>365319.7620393406</v>
-      </c>
       <c r="J2" t="n">
-        <v>365319.7620393407</v>
+        <v>365319.7620393408</v>
       </c>
       <c r="K2" t="n">
-        <v>365319.7620393407</v>
+        <v>365319.7620393408</v>
       </c>
       <c r="L2" t="n">
+        <v>365319.7620393409</v>
+      </c>
+      <c r="M2" t="n">
+        <v>365319.7620393409</v>
+      </c>
+      <c r="N2" t="n">
         <v>365319.7620393408</v>
       </c>
-      <c r="M2" t="n">
-        <v>365319.7620393408</v>
-      </c>
-      <c r="N2" t="n">
-        <v>365319.7620393407</v>
-      </c>
       <c r="O2" t="n">
-        <v>359733.2891431423</v>
+        <v>359733.289143142</v>
       </c>
       <c r="P2" t="n">
-        <v>359733.2891431421</v>
+        <v>359733.2891431418</v>
       </c>
     </row>
     <row r="3">
@@ -26374,13 +26374,13 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>207432.2876165613</v>
+        <v>207432.2876165609</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>7625.622083481104</v>
+        <v>7625.622083481478</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26398,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>173130.4912056398</v>
+        <v>173130.4912056396</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26426,22 +26426,22 @@
         <v>191243.7287526203</v>
       </c>
       <c r="E4" t="n">
-        <v>85368.2252784991</v>
+        <v>85368.22527849906</v>
       </c>
       <c r="F4" t="n">
-        <v>85368.22527849913</v>
+        <v>85368.22527849904</v>
       </c>
       <c r="G4" t="n">
-        <v>86696.74064784775</v>
+        <v>86696.74064784776</v>
       </c>
       <c r="H4" t="n">
-        <v>86696.74064784775</v>
+        <v>86696.74064784776</v>
       </c>
       <c r="I4" t="n">
+        <v>86696.74064784778</v>
+      </c>
+      <c r="J4" t="n">
         <v>86696.74064784776</v>
-      </c>
-      <c r="J4" t="n">
-        <v>86696.74064784775</v>
       </c>
       <c r="K4" t="n">
         <v>86696.74064784776</v>
@@ -26453,13 +26453,13 @@
         <v>86696.74064784776</v>
       </c>
       <c r="N4" t="n">
-        <v>86696.74064784775</v>
+        <v>86696.74064784776</v>
       </c>
       <c r="O4" t="n">
-        <v>85368.2252784991</v>
+        <v>85368.22527849904</v>
       </c>
       <c r="P4" t="n">
-        <v>85368.2252784991</v>
+        <v>85368.22527849904</v>
       </c>
     </row>
     <row r="5">
@@ -26469,7 +26469,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>67446.25103742811</v>
+        <v>67446.25103742813</v>
       </c>
       <c r="C5" t="n">
         <v>67446.25103742813</v>
@@ -26478,40 +26478,40 @@
         <v>67446.25103742813</v>
       </c>
       <c r="E5" t="n">
-        <v>76058.47810803253</v>
+        <v>76058.47810803246</v>
       </c>
       <c r="F5" t="n">
-        <v>76058.47810803253</v>
+        <v>76058.47810803246</v>
       </c>
       <c r="G5" t="n">
-        <v>77750.06218842967</v>
+        <v>77750.06218842969</v>
       </c>
       <c r="H5" t="n">
-        <v>77750.06218842967</v>
+        <v>77750.06218842969</v>
       </c>
       <c r="I5" t="n">
-        <v>77750.06218842967</v>
+        <v>77750.06218842969</v>
       </c>
       <c r="J5" t="n">
-        <v>77750.06218842967</v>
+        <v>77750.06218842969</v>
       </c>
       <c r="K5" t="n">
-        <v>77750.06218842967</v>
+        <v>77750.06218842969</v>
       </c>
       <c r="L5" t="n">
-        <v>77750.06218842967</v>
+        <v>77750.06218842969</v>
       </c>
       <c r="M5" t="n">
-        <v>77750.06218842967</v>
+        <v>77750.06218842969</v>
       </c>
       <c r="N5" t="n">
-        <v>77750.06218842967</v>
+        <v>77750.06218842969</v>
       </c>
       <c r="O5" t="n">
-        <v>76058.47810803253</v>
+        <v>76058.47810803246</v>
       </c>
       <c r="P5" t="n">
-        <v>76058.47810803253</v>
+        <v>76058.47810803246</v>
       </c>
     </row>
     <row r="6">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-66506.97899752959</v>
+        <v>-66506.97899752972</v>
       </c>
       <c r="C6" t="n">
-        <v>119897.7544172075</v>
+        <v>119897.7544172076</v>
       </c>
       <c r="D6" t="n">
         <v>119897.7544172075</v>
       </c>
       <c r="E6" t="n">
-        <v>-9125.701859950728</v>
+        <v>-9198.218956351007</v>
       </c>
       <c r="F6" t="n">
-        <v>198306.5857566104</v>
+        <v>198234.0686602097</v>
       </c>
       <c r="G6" t="n">
-        <v>193247.3371195823</v>
+        <v>193196.3064573976</v>
       </c>
       <c r="H6" t="n">
-        <v>200872.9592030633</v>
+        <v>200821.928540879</v>
       </c>
       <c r="I6" t="n">
-        <v>200872.9592030632</v>
+        <v>200821.928540879</v>
       </c>
       <c r="J6" t="n">
-        <v>55339.28926824685</v>
+        <v>55288.25860606255</v>
       </c>
       <c r="K6" t="n">
-        <v>200872.9592030633</v>
+        <v>200821.928540879</v>
       </c>
       <c r="L6" t="n">
-        <v>200872.9592030634</v>
+        <v>200821.9285408792</v>
       </c>
       <c r="M6" t="n">
-        <v>27742.46799742355</v>
+        <v>27691.43733523956</v>
       </c>
       <c r="N6" t="n">
-        <v>200872.9592030633</v>
+        <v>200821.928540879</v>
       </c>
       <c r="O6" t="n">
-        <v>198306.5857566107</v>
+        <v>198234.0686602101</v>
       </c>
       <c r="P6" t="n">
-        <v>198306.5857566105</v>
+        <v>198234.0686602099</v>
       </c>
     </row>
   </sheetData>
@@ -26789,7 +26789,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>556.227813115594</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="C4" t="n">
         <v>556.2278131155941</v>
@@ -26798,10 +26798,10 @@
         <v>556.2278131155941</v>
       </c>
       <c r="E4" t="n">
-        <v>1250.961810987377</v>
+        <v>1250.961810987376</v>
       </c>
       <c r="F4" t="n">
-        <v>1250.961810987377</v>
+        <v>1250.961810987376</v>
       </c>
       <c r="G4" t="n">
         <v>1278.783917572857</v>
@@ -26828,10 +26828,10 @@
         <v>1278.783917572857</v>
       </c>
       <c r="O4" t="n">
-        <v>1250.961810987377</v>
+        <v>1250.961810987376</v>
       </c>
       <c r="P4" t="n">
-        <v>1250.961810987377</v>
+        <v>1250.961810987376</v>
       </c>
     </row>
   </sheetData>
@@ -27011,7 +27011,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>556.227813115594</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27020,13 +27020,13 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>694.733997871783</v>
+        <v>694.733997871782</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>27.82210658547933</v>
+        <v>27.8221065854807</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>556.227813115594</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>694.733997871783</v>
+        <v>694.733997871782</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27257,7 +27257,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>556.227813115594</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27266,13 +27266,13 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>694.733997871783</v>
+        <v>694.733997871782</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>27.82210658547933</v>
+        <v>27.8221065854807</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27378,22 +27378,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>400</v>
       </c>
       <c r="D2" t="n">
-        <v>272.3699127117754</v>
+        <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -27429,7 +27429,7 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>103.323621185591</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>218.7163152458132</v>
@@ -27438,16 +27438,16 @@
         <v>255.7713603095518</v>
       </c>
       <c r="V2" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>400</v>
+        <v>329.6080546223786</v>
       </c>
       <c r="Y2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -27536,7 +27536,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27548,16 +27548,16 @@
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>4.249871216794162</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27587,13 +27587,13 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>168.4336970060565</v>
+        <v>112.7602435759706</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -27615,25 +27615,25 @@
         </is>
       </c>
       <c r="B5" t="n">
+        <v>0</v>
+      </c>
+      <c r="C5" t="n">
         <v>400</v>
       </c>
-      <c r="C5" t="n">
-        <v>0</v>
-      </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="F5" t="n">
-        <v>400</v>
+        <v>377.4802179710691</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>294.8896947407055</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -27678,13 +27678,13 @@
         <v>353.914520725013</v>
       </c>
       <c r="W5" t="n">
-        <v>392.4274362026566</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>279.9424765091183</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -27821,22 +27821,22 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S7" t="n">
         <v>168.4336970060565</v>
       </c>
       <c r="T7" t="n">
-        <v>240.905954296359</v>
+        <v>240.9059542963599</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V7" t="n">
-        <v>278.8943527180514</v>
+        <v>117.2205539080134</v>
       </c>
       <c r="W7" t="n">
-        <v>162.2770323843603</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
@@ -27855,10 +27855,10 @@
         <v>400</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
@@ -27867,7 +27867,7 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H8" t="n">
         <v>294.8896947407055</v>
@@ -27903,22 +27903,22 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>53.8285004100398</v>
+        <v>103.323621185591</v>
       </c>
       <c r="T8" t="n">
-        <v>218.7163152458132</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>255.7713603095518</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>392.4274362026566</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>400</v>
+        <v>371.3345117074836</v>
       </c>
       <c r="Y8" t="n">
         <v>400</v>
@@ -28010,7 +28010,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
@@ -28058,28 +28058,28 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>117.2205539080143</v>
       </c>
       <c r="W10" t="n">
-        <v>198.029129164074</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>240.1382575886529</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>224.0793406271554</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -34701,28 +34701,28 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>556.227813115594</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="M2" t="n">
-        <v>556.227813115594</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="N2" t="n">
-        <v>0</v>
+        <v>533.7539620806206</v>
       </c>
       <c r="O2" t="n">
-        <v>510.5455990486533</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>460.6924035395789</v>
+        <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>118.7437726079824</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34774,34 +34774,34 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>7.521861577688728</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>274.4419083632233</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>556.227813115594</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>556.227813115594</v>
+        <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="P3" t="n">
-        <v>349.6900184701288</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>0</v>
+        <v>158.2737632597931</v>
       </c>
       <c r="R3" t="n">
-        <v>82.84778796434657</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -34874,7 +34874,7 @@
         <v>359.0183117977405</v>
       </c>
       <c r="P4" t="n">
-        <v>293.5345574968697</v>
+        <v>293.5345574968705</v>
       </c>
       <c r="Q4" t="n">
         <v>128.2829598391535</v>
@@ -34935,22 +34935,22 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>366.2661200170662</v>
+        <v>0</v>
       </c>
       <c r="K5" t="n">
-        <v>144.2794790315872</v>
+        <v>510.5455990486533</v>
       </c>
       <c r="L5" t="n">
         <v>0</v>
       </c>
       <c r="M5" t="n">
+        <v>0</v>
+      </c>
+      <c r="N5" t="n">
+        <v>0</v>
+      </c>
+      <c r="O5" t="n">
         <v>556.2278131155941</v>
-      </c>
-      <c r="N5" t="n">
-        <v>0</v>
-      </c>
-      <c r="O5" t="n">
-        <v>0</v>
       </c>
       <c r="P5" t="n">
         <v>556.2278131155941</v>
@@ -35011,34 +35011,34 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J6" t="n">
         <v>274.4419083632233</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="L6" t="n">
+        <v>0</v>
+      </c>
+      <c r="M6" t="n">
+        <v>0</v>
+      </c>
+      <c r="N6" t="n">
+        <v>0</v>
+      </c>
+      <c r="O6" t="n">
+        <v>0</v>
+      </c>
+      <c r="P6" t="n">
         <v>556.2278131155941</v>
       </c>
-      <c r="M6" t="n">
-        <v>0</v>
-      </c>
-      <c r="N6" t="n">
-        <v>0</v>
-      </c>
-      <c r="O6" t="n">
-        <v>0</v>
-      </c>
-      <c r="P6" t="n">
-        <v>527.4536661148496</v>
-      </c>
       <c r="Q6" t="n">
-        <v>468.8338150129084</v>
+        <v>349.6900184701286</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>82.84778796434657</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -35172,22 +35172,22 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>366.2661200170662</v>
+        <v>0</v>
       </c>
       <c r="K8" t="n">
         <v>556.2278131155941</v>
       </c>
       <c r="L8" t="n">
-        <v>48.74406945557187</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="M8" t="n">
         <v>556.2278131155941</v>
       </c>
       <c r="N8" t="n">
-        <v>556.2278131155941</v>
+        <v>0</v>
       </c>
       <c r="O8" t="n">
-        <v>0</v>
+        <v>533.7539620806206</v>
       </c>
       <c r="P8" t="n">
         <v>0</v>
@@ -35196,7 +35196,7 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>118.7437726079824</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35248,34 +35248,34 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J9" t="n">
         <v>274.4419083632233</v>
       </c>
       <c r="K9" t="n">
+        <v>437.0840165728143</v>
+      </c>
+      <c r="L9" t="n">
+        <v>0</v>
+      </c>
+      <c r="M9" t="n">
+        <v>0</v>
+      </c>
+      <c r="N9" t="n">
+        <v>0</v>
+      </c>
+      <c r="O9" t="n">
+        <v>0</v>
+      </c>
+      <c r="P9" t="n">
         <v>556.2278131155941</v>
-      </c>
-      <c r="L9" t="n">
-        <v>0</v>
-      </c>
-      <c r="M9" t="n">
-        <v>527.4536661148496</v>
-      </c>
-      <c r="N9" t="n">
-        <v>0</v>
-      </c>
-      <c r="O9" t="n">
-        <v>0</v>
-      </c>
-      <c r="P9" t="n">
-        <v>0</v>
       </c>
       <c r="Q9" t="n">
         <v>468.8338150129084</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>82.84778796434657</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -35409,19 +35409,19 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>366.2661200170662</v>
+        <v>0</v>
       </c>
       <c r="K11" t="n">
-        <v>722.7356646217162</v>
+        <v>0</v>
       </c>
       <c r="L11" t="n">
         <v>939.015199615431</v>
       </c>
       <c r="M11" t="n">
-        <v>776.7350918828506</v>
+        <v>1014.430405473796</v>
       </c>
       <c r="N11" t="n">
-        <v>0</v>
+        <v>851.3064710478325</v>
       </c>
       <c r="O11" t="n">
         <v>853.6814647988001</v>
@@ -35485,16 +35485,16 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>596.4494207761006</v>
       </c>
       <c r="L12" t="n">
-        <v>845.2513212958648</v>
+        <v>0</v>
       </c>
       <c r="M12" t="n">
         <v>0</v>
@@ -35506,13 +35506,13 @@
         <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>512.8720662978025</v>
+        <v>723.4320374126243</v>
       </c>
       <c r="Q12" t="n">
-        <v>468.8338150129084</v>
+        <v>142.2641865125919</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>82.84778796434657</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35646,7 +35646,7 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K14" t="n">
         <v>722.7356646217162</v>
@@ -35664,7 +35664,7 @@
         <v>853.6814647988001</v>
       </c>
       <c r="P14" t="n">
-        <v>437.3284175951232</v>
+        <v>71.06229757805201</v>
       </c>
       <c r="Q14" t="n">
         <v>0</v>
@@ -35722,13 +35722,13 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J15" t="n">
         <v>274.4419083632233</v>
       </c>
       <c r="K15" t="n">
-        <v>596.4494207761006</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
@@ -35740,16 +35740,16 @@
         <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>0</v>
+        <v>269.8797922757841</v>
       </c>
       <c r="P15" t="n">
-        <v>487.2320584543434</v>
+        <v>723.4320374126243</v>
       </c>
       <c r="Q15" t="n">
         <v>468.8338150129084</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>82.84778796434657</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35883,13 +35883,13 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K17" t="n">
-        <v>436.0509951211312</v>
+        <v>0</v>
       </c>
       <c r="L17" t="n">
-        <v>939.015199615431</v>
+        <v>548.1076711799178</v>
       </c>
       <c r="M17" t="n">
         <v>1014.430405473796</v>
@@ -35904,7 +35904,7 @@
         <v>715.433615311038</v>
       </c>
       <c r="Q17" t="n">
-        <v>0</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R17" t="n">
         <v>118.7437726079824</v>
@@ -35959,34 +35959,34 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>596.4494207761006</v>
       </c>
       <c r="L18" t="n">
         <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>928.4912652212506</v>
+        <v>0</v>
       </c>
       <c r="N18" t="n">
         <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>898.4659373853249</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>723.4320374126243</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>468.8338150129084</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>30.72006782725346</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36120,7 +36120,7 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K20" t="n">
         <v>722.7356646217162</v>
@@ -36129,22 +36129,22 @@
         <v>939.015199615431</v>
       </c>
       <c r="M20" t="n">
-        <v>1014.430405473796</v>
+        <v>886.8993927061638</v>
       </c>
       <c r="N20" t="n">
-        <v>986.1121802895968</v>
+        <v>0</v>
       </c>
       <c r="O20" t="n">
         <v>853.6814647988001</v>
       </c>
       <c r="P20" t="n">
-        <v>547.4927184184349</v>
+        <v>715.433615311038</v>
       </c>
       <c r="Q20" t="n">
-        <v>0</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R20" t="n">
-        <v>0</v>
+        <v>118.7437726079824</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36199,31 +36199,31 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>274.4419083632233</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
         <v>596.4494207761006</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>845.2513212958648</v>
       </c>
       <c r="M21" t="n">
-        <v>0</v>
+        <v>385.2564605346102</v>
       </c>
       <c r="N21" t="n">
         <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>149.7860480902807</v>
+        <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>723.4320374126243</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>82.84778796434657</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36357,7 +36357,7 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K23" t="n">
         <v>722.7356646217162</v>
@@ -36366,22 +36366,22 @@
         <v>939.015199615431</v>
       </c>
       <c r="M23" t="n">
-        <v>1014.430405473796</v>
+        <v>0</v>
       </c>
       <c r="N23" t="n">
-        <v>986.1121802895968</v>
+        <v>886.8993927061638</v>
       </c>
       <c r="O23" t="n">
         <v>853.6814647988001</v>
       </c>
       <c r="P23" t="n">
-        <v>547.4927184184349</v>
+        <v>715.433615311038</v>
       </c>
       <c r="Q23" t="n">
-        <v>0</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>118.7437726079824</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36436,16 +36436,16 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K24" t="n">
-        <v>596.4494207761006</v>
+        <v>0</v>
       </c>
       <c r="L24" t="n">
         <v>0</v>
       </c>
       <c r="M24" t="n">
-        <v>0</v>
+        <v>1000.833691266097</v>
       </c>
       <c r="N24" t="n">
         <v>0</v>
@@ -36454,7 +36454,7 @@
         <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>678.8261788532192</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
         <v>468.8338150129084</v>
@@ -36603,7 +36603,7 @@
         <v>939.015199615431</v>
       </c>
       <c r="M26" t="n">
-        <v>616.220827727604</v>
+        <v>0</v>
       </c>
       <c r="N26" t="n">
         <v>986.1121802895968</v>
@@ -36612,13 +36612,13 @@
         <v>853.6814647988001</v>
       </c>
       <c r="P26" t="n">
-        <v>0</v>
+        <v>715.433615311038</v>
       </c>
       <c r="Q26" t="n">
         <v>460.6924035395789</v>
       </c>
       <c r="R26" t="n">
-        <v>118.7437726079824</v>
+        <v>19.53098502454951</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36670,16 +36670,16 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>596.4494207761006</v>
       </c>
       <c r="L27" t="n">
-        <v>845.2513212958648</v>
+        <v>0</v>
       </c>
       <c r="M27" t="n">
         <v>0</v>
@@ -36688,16 +36688,16 @@
         <v>0</v>
       </c>
       <c r="O27" t="n">
-        <v>898.4659373853249</v>
+        <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>83.23994392538575</v>
+        <v>396.8624089123078</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>468.8338150129084</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>82.84778796434657</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36831,7 +36831,7 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K29" t="n">
         <v>722.7356646217162</v>
@@ -36840,22 +36840,22 @@
         <v>939.015199615431</v>
       </c>
       <c r="M29" t="n">
-        <v>1014.430405473796</v>
+        <v>0</v>
       </c>
       <c r="N29" t="n">
-        <v>986.1121802895968</v>
+        <v>886.8993927061638</v>
       </c>
       <c r="O29" t="n">
         <v>853.6814647988001</v>
       </c>
       <c r="P29" t="n">
-        <v>547.4927184184349</v>
+        <v>715.433615311038</v>
       </c>
       <c r="Q29" t="n">
-        <v>0</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>118.7437726079824</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36907,34 +36907,34 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K30" t="n">
         <v>596.4494207761006</v>
       </c>
       <c r="L30" t="n">
-        <v>130.1896540801013</v>
+        <v>142.264186512592</v>
       </c>
       <c r="M30" t="n">
         <v>0</v>
       </c>
       <c r="N30" t="n">
-        <v>1100.318127750374</v>
+        <v>0</v>
       </c>
       <c r="O30" t="n">
         <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>723.4320374126243</v>
       </c>
       <c r="Q30" t="n">
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>82.84778796434657</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -37068,7 +37068,7 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K32" t="n">
         <v>722.7356646217162</v>
@@ -37077,19 +37077,19 @@
         <v>939.015199615431</v>
       </c>
       <c r="M32" t="n">
-        <v>1014.430405473796</v>
+        <v>886.8993927061638</v>
       </c>
       <c r="N32" t="n">
-        <v>986.1121802895968</v>
+        <v>0</v>
       </c>
       <c r="O32" t="n">
         <v>853.6814647988001</v>
       </c>
       <c r="P32" t="n">
-        <v>428.7489458104528</v>
+        <v>715.433615311038</v>
       </c>
       <c r="Q32" t="n">
-        <v>0</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R32" t="n">
         <v>118.7437726079824</v>
@@ -37144,13 +37144,13 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J33" t="n">
         <v>274.4419083632233</v>
       </c>
       <c r="K33" t="n">
-        <v>596.4494207761006</v>
+        <v>269.8797922757842</v>
       </c>
       <c r="L33" t="n">
         <v>0</v>
@@ -37165,7 +37165,7 @@
         <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>404.3842704899966</v>
+        <v>723.4320374126243</v>
       </c>
       <c r="Q33" t="n">
         <v>468.8338150129084</v>
@@ -37305,25 +37305,25 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K35" t="n">
-        <v>0</v>
+        <v>722.7356646217162</v>
       </c>
       <c r="L35" t="n">
         <v>939.015199615431</v>
       </c>
       <c r="M35" t="n">
-        <v>1014.430405473796</v>
+        <v>886.8993927061638</v>
       </c>
       <c r="N35" t="n">
-        <v>986.1121802895968</v>
+        <v>0</v>
       </c>
       <c r="O35" t="n">
         <v>853.6814647988001</v>
       </c>
       <c r="P35" t="n">
-        <v>690.79220689259</v>
+        <v>715.433615311038</v>
       </c>
       <c r="Q35" t="n">
         <v>460.6924035395789</v>
@@ -37381,10 +37381,10 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K36" t="n">
         <v>596.4494207761006</v>
@@ -37402,7 +37402,7 @@
         <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>678.8261788532199</v>
+        <v>396.8624089123078</v>
       </c>
       <c r="Q36" t="n">
         <v>468.8338150129084</v>
@@ -37542,10 +37542,10 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K38" t="n">
-        <v>0</v>
+        <v>722.7356646217162</v>
       </c>
       <c r="L38" t="n">
         <v>939.015199615431</v>
@@ -37554,10 +37554,10 @@
         <v>1014.430405473796</v>
       </c>
       <c r="N38" t="n">
-        <v>986.1121802895968</v>
+        <v>0</v>
       </c>
       <c r="O38" t="n">
-        <v>853.6814647988001</v>
+        <v>844.8942246391501</v>
       </c>
       <c r="P38" t="n">
         <v>715.433615311038</v>
@@ -37566,7 +37566,7 @@
         <v>460.6924035395789</v>
       </c>
       <c r="R38" t="n">
-        <v>94.1023641895345</v>
+        <v>0</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37618,7 +37618,7 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J39" t="n">
         <v>274.4419083632233</v>
@@ -37633,19 +37633,19 @@
         <v>0</v>
       </c>
       <c r="N39" t="n">
-        <v>1100.318127750374</v>
+        <v>0</v>
       </c>
       <c r="O39" t="n">
-        <v>0</v>
+        <v>269.8797922757842</v>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>723.4320374126243</v>
       </c>
       <c r="Q39" t="n">
-        <v>452.1971664929787</v>
+        <v>468.8338150129084</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>82.84778796434657</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37788,16 +37788,16 @@
         <v>939.015199615431</v>
       </c>
       <c r="M41" t="n">
-        <v>1014.430405473796</v>
+        <v>895.4788644908282</v>
       </c>
       <c r="N41" t="n">
-        <v>986.1121802895968</v>
+        <v>0</v>
       </c>
       <c r="O41" t="n">
-        <v>464.0513588372777</v>
+        <v>853.6814647988001</v>
       </c>
       <c r="P41" t="n">
-        <v>0</v>
+        <v>715.433615311038</v>
       </c>
       <c r="Q41" t="n">
         <v>460.6924035395789</v>
@@ -37855,34 +37855,34 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>269.8797922757841</v>
       </c>
       <c r="L42" t="n">
         <v>0</v>
       </c>
       <c r="M42" t="n">
-        <v>1066.653068662672</v>
+        <v>0</v>
       </c>
       <c r="N42" t="n">
         <v>0</v>
       </c>
       <c r="O42" t="n">
-        <v>760.3041339439038</v>
+        <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>0</v>
+        <v>723.4320374126243</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>468.8338150129084</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>82.84778796434657</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -38025,7 +38025,7 @@
         <v>939.015199615431</v>
       </c>
       <c r="M44" t="n">
-        <v>776.7350918828506</v>
+        <v>895.4788644908282</v>
       </c>
       <c r="N44" t="n">
         <v>0</v>
@@ -38040,7 +38040,7 @@
         <v>460.6924035395789</v>
       </c>
       <c r="R44" t="n">
-        <v>118.7437726079824</v>
+        <v>0</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38110,16 +38110,16 @@
         <v>0</v>
       </c>
       <c r="O45" t="n">
-        <v>479.7101968766546</v>
+        <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>396.8624089123077</v>
       </c>
       <c r="Q45" t="n">
         <v>468.8338150129084</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>82.84778796434657</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
